--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E5B11-A15A-4F46-B7FD-3E1502842627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FD887-A79E-034A-9F0E-6806049B507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shoot_elongation!$A$1:$L$631</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shoot_elongation!$E$1:$E$631</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="690">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2970,11 +2970,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M631"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M587" sqref="M587"/>
+    <sheetView tabSelected="1" topLeftCell="A489" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N498" sqref="N498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2982,7 +2983,7 @@
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3022,8 +3023,11 @@
       <c r="M1" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3048,8 +3052,11 @@
       <c r="M2">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3074,8 +3081,11 @@
       <c r="M3" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3100,8 +3110,11 @@
       <c r="M4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3126,8 +3139,11 @@
       <c r="M5" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3152,8 +3168,11 @@
       <c r="M6">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3178,8 +3197,11 @@
       <c r="M7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3204,8 +3226,11 @@
       <c r="M8">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3230,8 +3255,11 @@
       <c r="M9" s="1">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3256,8 +3284,11 @@
       <c r="M10">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3282,8 +3313,11 @@
       <c r="M11" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3311,8 +3345,11 @@
       <c r="M12">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3338,7 +3375,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3363,8 +3400,11 @@
       <c r="M14">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3389,8 +3429,11 @@
       <c r="M15" s="1">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3415,8 +3458,11 @@
       <c r="M16">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3441,8 +3487,11 @@
       <c r="M17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3467,8 +3516,11 @@
       <c r="M18">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3493,8 +3545,11 @@
       <c r="M19" s="1">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3519,8 +3574,11 @@
       <c r="M20">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3545,8 +3603,11 @@
       <c r="M21" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3574,8 +3635,11 @@
       <c r="M22">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3600,8 +3664,11 @@
       <c r="M23" s="1">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3629,8 +3696,11 @@
       <c r="M24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3653,10 +3723,13 @@
         <v>6.6</v>
       </c>
       <c r="M25" s="1">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3681,8 +3754,11 @@
       <c r="M26">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3707,8 +3783,11 @@
       <c r="M27" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3733,8 +3812,11 @@
       <c r="M28">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3759,8 +3841,11 @@
       <c r="M29" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3785,8 +3870,11 @@
       <c r="M30">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3811,8 +3899,11 @@
       <c r="M31" s="1">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3837,8 +3928,11 @@
       <c r="M32">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3863,8 +3957,11 @@
       <c r="M33" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3889,8 +3986,11 @@
       <c r="M34">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -3915,8 +4015,11 @@
       <c r="M35" s="1">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3941,8 +4044,11 @@
       <c r="M36">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3970,8 +4076,11 @@
       <c r="M37" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3996,8 +4105,11 @@
       <c r="M38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4022,8 +4134,11 @@
       <c r="M39" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4048,8 +4163,11 @@
       <c r="M40">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4074,8 +4192,11 @@
       <c r="M41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4100,8 +4221,11 @@
       <c r="M42">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4126,8 +4250,11 @@
       <c r="M43" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4152,8 +4279,11 @@
       <c r="M44">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4178,8 +4308,11 @@
       <c r="M45" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4204,8 +4337,11 @@
       <c r="M46">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4230,8 +4366,11 @@
       <c r="M47" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4256,8 +4395,11 @@
       <c r="M48" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4282,8 +4424,11 @@
       <c r="M49">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4309,7 +4454,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4334,8 +4479,11 @@
       <c r="M51" s="1">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4360,8 +4508,11 @@
       <c r="M52" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4386,8 +4537,11 @@
       <c r="M53" s="1">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="1">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -4412,8 +4566,11 @@
       <c r="M54" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4438,8 +4595,11 @@
       <c r="M55" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -4464,8 +4624,11 @@
       <c r="M56" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4490,8 +4653,11 @@
       <c r="M57" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -4516,8 +4682,11 @@
       <c r="M58" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4542,8 +4711,11 @@
       <c r="M59" s="1">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N59" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4568,8 +4740,11 @@
       <c r="M60" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -4594,8 +4769,11 @@
       <c r="M61" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N61" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4620,8 +4798,11 @@
       <c r="M62" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4646,8 +4827,11 @@
       <c r="M63">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4672,8 +4856,11 @@
       <c r="M64" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4698,8 +4885,11 @@
       <c r="M65">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -4724,8 +4914,11 @@
       <c r="M66" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4750,8 +4943,11 @@
       <c r="M67" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -4776,8 +4972,11 @@
       <c r="M68" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4802,8 +5001,11 @@
       <c r="M69" s="1">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5030,11 @@
       <c r="M70" s="1">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -4854,8 +5059,11 @@
       <c r="M71" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4880,8 +5088,11 @@
       <c r="M72" s="1">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N72" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -4906,8 +5117,11 @@
       <c r="M73" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4932,8 +5146,11 @@
       <c r="M74" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N74" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -4958,8 +5175,11 @@
       <c r="M75" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4984,8 +5204,11 @@
       <c r="M76" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N76" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5010,8 +5233,11 @@
       <c r="M77" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5036,8 +5262,11 @@
       <c r="M78">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5062,8 +5291,11 @@
       <c r="M79" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5088,8 +5320,11 @@
       <c r="M80">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5114,8 +5349,11 @@
       <c r="M81" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5140,8 +5378,11 @@
       <c r="M82">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -5166,8 +5407,11 @@
       <c r="M83" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -5192,8 +5436,11 @@
       <c r="M84">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -5218,8 +5465,11 @@
       <c r="M85" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -5244,8 +5494,11 @@
       <c r="M86">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -5270,8 +5523,11 @@
       <c r="M87" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -5296,8 +5552,11 @@
       <c r="M88">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -5322,8 +5581,11 @@
       <c r="M89" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5348,8 +5610,11 @@
       <c r="M90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -5374,8 +5639,11 @@
       <c r="M91" s="1">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5401,7 +5669,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5426,8 +5694,11 @@
       <c r="M93" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -5452,8 +5723,11 @@
       <c r="M94">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -5478,8 +5752,11 @@
       <c r="M95" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -5504,8 +5781,11 @@
       <c r="M96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -5530,8 +5810,11 @@
       <c r="M97" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -5556,8 +5839,11 @@
       <c r="M98">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -5583,7 +5869,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -5608,8 +5894,11 @@
       <c r="M100">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -5634,8 +5923,11 @@
       <c r="M101" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -5660,8 +5952,11 @@
       <c r="M102">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -5687,7 +5982,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -5712,8 +6007,11 @@
       <c r="M104">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -5739,7 +6037,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -5764,8 +6062,11 @@
       <c r="M106">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -5790,8 +6091,11 @@
       <c r="M107" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -5816,8 +6120,11 @@
       <c r="M108">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -5845,8 +6152,11 @@
       <c r="M109" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -5871,8 +6181,11 @@
       <c r="M110">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -5897,8 +6210,11 @@
       <c r="M111" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -5923,8 +6239,11 @@
       <c r="M112">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -5952,8 +6271,11 @@
       <c r="M113" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -5978,8 +6300,11 @@
       <c r="M114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -6004,8 +6329,11 @@
       <c r="M115" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -6030,8 +6358,11 @@
       <c r="M116">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -6056,8 +6387,11 @@
       <c r="M117" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N117" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -6082,8 +6416,11 @@
       <c r="M118" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -6108,8 +6445,11 @@
       <c r="M119" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -6134,8 +6474,11 @@
       <c r="M120" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -6160,8 +6503,11 @@
       <c r="M121" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N121" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -6186,8 +6532,11 @@
       <c r="M122" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -6212,8 +6561,11 @@
       <c r="M123">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N123" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -6238,8 +6590,11 @@
       <c r="M124" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -6265,7 +6620,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -6290,8 +6645,11 @@
       <c r="M126" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -6316,8 +6674,11 @@
       <c r="M127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N127" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -6342,8 +6703,11 @@
       <c r="M128" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -6368,8 +6732,11 @@
       <c r="M129">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N129" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -6394,8 +6761,11 @@
       <c r="M130" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -6420,8 +6790,11 @@
       <c r="M131">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N131" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -6446,8 +6819,11 @@
       <c r="M132" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -6472,8 +6848,11 @@
       <c r="M133">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -6498,8 +6877,11 @@
       <c r="M134" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -6524,8 +6906,11 @@
       <c r="M135">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -6553,8 +6938,11 @@
       <c r="M136" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -6579,8 +6967,11 @@
       <c r="M137">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -6605,8 +6996,11 @@
       <c r="M138" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -6631,8 +7025,11 @@
       <c r="M139">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -6657,8 +7054,11 @@
       <c r="M140" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N140" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -6683,8 +7083,11 @@
       <c r="M141" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -6709,8 +7112,11 @@
       <c r="M142" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N142" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -6735,8 +7141,11 @@
       <c r="M143" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -6761,8 +7170,11 @@
       <c r="M144" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N144" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -6787,8 +7199,11 @@
       <c r="M145" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -6813,8 +7228,11 @@
       <c r="M146" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N146" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -6839,8 +7257,11 @@
       <c r="M147" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -6865,8 +7286,11 @@
       <c r="M148" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -6891,8 +7315,11 @@
       <c r="M149" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -6917,8 +7344,11 @@
       <c r="M150" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -6944,7 +7374,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -6969,8 +7399,11 @@
       <c r="M152">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -6995,8 +7428,11 @@
       <c r="M153" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -7021,8 +7457,11 @@
       <c r="M154">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -7047,8 +7486,11 @@
       <c r="M155" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -7073,8 +7515,11 @@
       <c r="M156">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -7099,8 +7544,11 @@
       <c r="M157" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -7125,8 +7573,11 @@
       <c r="M158">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -7151,8 +7602,11 @@
       <c r="M159" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -7177,8 +7631,11 @@
       <c r="M160">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -7203,8 +7660,11 @@
       <c r="M161" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -7229,8 +7689,11 @@
       <c r="M162">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N162" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -7255,8 +7718,11 @@
       <c r="M163" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -7281,8 +7747,11 @@
       <c r="M164">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -7307,8 +7776,11 @@
       <c r="M165" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -7333,8 +7805,11 @@
       <c r="M166">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N166" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -7359,8 +7834,11 @@
       <c r="M167" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -7385,8 +7863,11 @@
       <c r="M168">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N168" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -7411,8 +7892,11 @@
       <c r="M169" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -7437,8 +7921,11 @@
       <c r="M170">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N170" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -7463,8 +7950,11 @@
       <c r="M171" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -7489,8 +7979,11 @@
       <c r="M172">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N172" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -7515,8 +8008,11 @@
       <c r="M173" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -7541,8 +8037,11 @@
       <c r="M174">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N174" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -7567,8 +8066,11 @@
       <c r="M175" s="1">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -7593,8 +8095,11 @@
       <c r="M176">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N176" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -7619,8 +8124,11 @@
       <c r="M177" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -7645,8 +8153,11 @@
       <c r="M178">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -7671,8 +8182,11 @@
       <c r="M179" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -7697,8 +8211,11 @@
       <c r="M180">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -7723,8 +8240,11 @@
       <c r="M181" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -7749,8 +8269,11 @@
       <c r="M182">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -7775,8 +8298,11 @@
       <c r="M183" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -7801,8 +8327,11 @@
       <c r="M184">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -7827,8 +8356,11 @@
       <c r="M185" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -7853,8 +8385,11 @@
       <c r="M186">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -7879,8 +8414,11 @@
       <c r="M187" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N187" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -7905,8 +8443,11 @@
       <c r="M188" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -7934,8 +8475,11 @@
       <c r="M189" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N189" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -7960,8 +8504,11 @@
       <c r="M190" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -7986,8 +8533,11 @@
       <c r="M191" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -8012,8 +8562,11 @@
       <c r="M192" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -8038,8 +8591,11 @@
       <c r="M193" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N193" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -8067,8 +8623,11 @@
       <c r="M194" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -8093,8 +8652,11 @@
       <c r="M195" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N195" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -8119,8 +8681,11 @@
       <c r="M196" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -8145,8 +8710,11 @@
       <c r="M197">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -8171,8 +8739,11 @@
       <c r="M198" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -8197,8 +8768,11 @@
       <c r="M199">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -8223,8 +8797,11 @@
       <c r="M200" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -8249,8 +8826,11 @@
       <c r="M201">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -8275,8 +8855,11 @@
       <c r="M202" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -8301,8 +8884,11 @@
       <c r="M203">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -8327,8 +8913,11 @@
       <c r="M204" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -8353,8 +8942,11 @@
       <c r="M205">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -8379,8 +8971,11 @@
       <c r="M206" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -8405,8 +9000,11 @@
       <c r="M207">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -8431,8 +9029,11 @@
       <c r="M208" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -8457,8 +9058,11 @@
       <c r="M209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -8483,8 +9087,11 @@
       <c r="M210" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N210" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -8509,8 +9116,11 @@
       <c r="M211" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -8535,8 +9145,11 @@
       <c r="M212">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -8561,8 +9174,11 @@
       <c r="M213" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -8587,8 +9203,11 @@
       <c r="M214">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -8613,8 +9232,11 @@
       <c r="M215" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -8639,8 +9261,11 @@
       <c r="M216">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -8665,8 +9290,11 @@
       <c r="M217" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -8691,8 +9319,11 @@
       <c r="M218">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -8717,8 +9348,11 @@
       <c r="M219" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -8743,8 +9377,11 @@
       <c r="M220">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -8769,8 +9406,11 @@
       <c r="M221" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -8795,8 +9435,11 @@
       <c r="M222">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -8821,8 +9464,11 @@
       <c r="M223" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -8847,8 +9493,11 @@
       <c r="M224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -8873,8 +9522,11 @@
       <c r="M225" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -8899,8 +9551,11 @@
       <c r="M226">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -8925,8 +9580,11 @@
       <c r="M227" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -8951,8 +9609,11 @@
       <c r="M228">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -8977,8 +9638,11 @@
       <c r="M229" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -9003,8 +9667,11 @@
       <c r="M230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -9029,8 +9696,11 @@
       <c r="M231" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -9055,8 +9725,11 @@
       <c r="M232">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -9081,8 +9754,11 @@
       <c r="M233" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -9107,8 +9783,11 @@
       <c r="M234">
         <v>9</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -9133,8 +9812,11 @@
       <c r="M235" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -9159,8 +9841,11 @@
       <c r="M236">
         <v>18</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -9188,8 +9873,11 @@
       <c r="M237" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -9214,8 +9902,11 @@
       <c r="M238">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -9240,8 +9931,11 @@
       <c r="M239" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -9266,8 +9960,11 @@
       <c r="M240">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -9292,8 +9989,11 @@
       <c r="M241" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -9318,8 +10018,11 @@
       <c r="M242">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -9344,8 +10047,11 @@
       <c r="M243" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -9370,8 +10076,11 @@
       <c r="M244">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -9396,8 +10105,11 @@
       <c r="M245" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -9422,8 +10134,11 @@
       <c r="M246">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -9448,8 +10163,11 @@
       <c r="M247" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -9474,8 +10192,11 @@
       <c r="M248">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -9500,8 +10221,11 @@
       <c r="M249" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -9526,8 +10250,11 @@
       <c r="M250">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -9552,8 +10279,11 @@
       <c r="M251" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -9578,8 +10308,11 @@
       <c r="M252">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -9604,8 +10337,11 @@
       <c r="M253" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -9630,8 +10366,11 @@
       <c r="M254">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -9656,8 +10395,11 @@
       <c r="M255" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -9682,8 +10424,11 @@
       <c r="M256">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -9708,8 +10453,11 @@
       <c r="M257" s="1">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N257" s="1">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -9734,8 +10482,11 @@
       <c r="M258" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -9760,8 +10511,11 @@
       <c r="M259">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -9786,8 +10540,11 @@
       <c r="M260" s="1">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -9812,8 +10569,11 @@
       <c r="M261" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N261" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -9838,8 +10598,11 @@
       <c r="M262" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -9864,8 +10627,11 @@
       <c r="M263" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N263" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -9890,8 +10656,11 @@
       <c r="M264" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -9916,8 +10685,11 @@
       <c r="M265" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N265" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -9942,8 +10714,11 @@
       <c r="M266" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -9968,8 +10743,11 @@
       <c r="M267" s="1">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N267" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -9994,8 +10772,11 @@
       <c r="M268" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -10020,8 +10801,11 @@
       <c r="M269" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N269" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -10046,8 +10830,11 @@
       <c r="M270" s="1">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -10072,8 +10859,11 @@
       <c r="M271" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N271" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -10099,7 +10889,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -10125,7 +10915,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -10151,7 +10941,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -10177,7 +10967,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -10203,7 +10993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -10229,7 +11019,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -10255,7 +11045,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -10284,7 +11074,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="280" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -10310,7 +11100,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -10336,7 +11126,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -10362,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -10391,7 +11181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -10417,7 +11207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -10443,7 +11233,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -10469,7 +11259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -10495,7 +11285,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -10521,7 +11311,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -10547,7 +11337,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -10573,7 +11363,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -10599,7 +11389,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -10625,7 +11415,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="293" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -10651,7 +11441,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -10677,7 +11467,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -10703,7 +11493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -10729,7 +11519,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -10755,7 +11545,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -10781,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -10807,7 +11597,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -10833,7 +11623,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -10859,7 +11649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -10885,7 +11675,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -10911,7 +11701,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -10937,7 +11727,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -10963,7 +11753,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -10989,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -11015,7 +11805,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -11041,7 +11831,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -11067,7 +11857,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -11096,7 +11886,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -11122,7 +11912,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -11148,7 +11938,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -11174,7 +11964,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -11200,7 +11990,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -11226,7 +12016,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -11252,7 +12042,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="317" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -11278,7 +12068,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -11304,7 +12094,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -11330,7 +12120,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -11356,7 +12146,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -11382,7 +12172,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -11411,7 +12201,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -11437,7 +12227,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -11466,7 +12256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -11492,7 +12282,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -11518,7 +12308,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="327" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -11544,7 +12334,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -11570,7 +12360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -11596,7 +12386,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -11622,7 +12412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -11648,7 +12438,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -11674,7 +12464,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -11700,7 +12490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -11726,7 +12516,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -11752,7 +12542,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -11778,7 +12568,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -11804,7 +12594,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -11830,7 +12620,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -11856,7 +12646,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -11882,7 +12672,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -11908,7 +12698,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -11934,7 +12724,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -11960,7 +12750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -11986,7 +12776,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -12012,7 +12802,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="346" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -12038,7 +12828,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -12064,7 +12854,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="348" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -12090,7 +12880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -12116,7 +12906,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -12142,7 +12932,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -12168,7 +12958,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -12194,7 +12984,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="353" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -12220,7 +13010,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -12246,7 +13036,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="355" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -12275,7 +13065,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -12301,7 +13091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -12327,7 +13117,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -12353,7 +13143,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="359" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -12379,7 +13169,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -12405,7 +13195,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -12431,7 +13221,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -12456,8 +13246,11 @@
       <c r="M362">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -12482,8 +13275,11 @@
       <c r="M363" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -12508,8 +13304,11 @@
       <c r="M364">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -12534,8 +13333,11 @@
       <c r="M365" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -12560,8 +13362,11 @@
       <c r="M366">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -12586,8 +13391,11 @@
       <c r="M367" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -12615,8 +13423,11 @@
       <c r="M368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -12641,8 +13452,11 @@
       <c r="M369" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -12667,8 +13481,11 @@
       <c r="M370">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -12693,8 +13510,11 @@
       <c r="M371" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -12719,8 +13539,11 @@
       <c r="M372">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -12745,8 +13568,11 @@
       <c r="M373" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -12771,8 +13597,11 @@
       <c r="M374">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -12797,8 +13626,11 @@
       <c r="M375" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -12823,8 +13655,11 @@
       <c r="M376">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -12849,8 +13684,11 @@
       <c r="M377" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -12875,8 +13713,11 @@
       <c r="M378">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -12901,8 +13742,11 @@
       <c r="M379" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -12930,8 +13774,11 @@
       <c r="M380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N380" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -12959,8 +13806,11 @@
       <c r="M381" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -12985,8 +13835,11 @@
       <c r="M382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -13011,8 +13864,11 @@
       <c r="M383" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -13035,10 +13891,13 @@
         <v>0.8</v>
       </c>
       <c r="M384">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="N384">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -13063,8 +13922,11 @@
       <c r="M385" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -13089,8 +13951,11 @@
       <c r="M386">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -13118,8 +13983,11 @@
       <c r="M387" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -13144,8 +14012,11 @@
       <c r="M388">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -13170,8 +14041,11 @@
       <c r="M389" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -13196,8 +14070,11 @@
       <c r="M390">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -13222,8 +14099,11 @@
       <c r="M391" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N391" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -13251,8 +14131,11 @@
       <c r="M392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N392" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -13277,8 +14160,11 @@
       <c r="M393" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N393" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -13303,8 +14189,11 @@
       <c r="M394">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N394">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -13329,8 +14218,11 @@
       <c r="M395" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N395" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -13355,8 +14247,11 @@
       <c r="M396">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -13381,8 +14276,11 @@
       <c r="M397" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N397" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -13407,8 +14305,11 @@
       <c r="M398" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N398" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -13436,8 +14337,11 @@
       <c r="M399" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N399" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -13462,8 +14366,11 @@
       <c r="M400" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N400" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -13488,8 +14395,11 @@
       <c r="M401" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N401" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -13514,8 +14424,11 @@
       <c r="M402" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N402" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -13540,8 +14453,11 @@
       <c r="M403" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N403" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -13569,8 +14485,11 @@
       <c r="M404" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N404" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -13595,8 +14514,11 @@
       <c r="M405" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N405" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -13621,8 +14543,11 @@
       <c r="M406" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N406" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -13647,8 +14572,11 @@
       <c r="M407">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N407">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -13673,8 +14601,11 @@
       <c r="M408" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N408" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -13699,8 +14630,11 @@
       <c r="M409">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N409">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -13725,8 +14659,11 @@
       <c r="M410" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N410" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -13751,8 +14688,11 @@
       <c r="M411">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N411">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -13777,8 +14717,11 @@
       <c r="M412" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N412" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -13803,8 +14746,11 @@
       <c r="M413">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N413">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -13829,8 +14775,11 @@
       <c r="M414" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N414" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -13855,8 +14804,11 @@
       <c r="M415">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N415">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -13884,8 +14836,11 @@
       <c r="M416" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N416" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -13913,8 +14868,11 @@
       <c r="M417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -13939,8 +14897,11 @@
       <c r="M418" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N418" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -13965,8 +14926,11 @@
       <c r="M419">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N419">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -13991,8 +14955,11 @@
       <c r="M420" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N420" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -14020,8 +14987,11 @@
       <c r="M421" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N421" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -14046,8 +15016,11 @@
       <c r="M422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N422">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -14075,8 +15048,11 @@
       <c r="M423" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N423" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -14101,8 +15077,11 @@
       <c r="M424">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N424">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -14127,8 +15106,11 @@
       <c r="M425" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N425" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -14153,8 +15135,11 @@
       <c r="M426">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -14179,8 +15164,11 @@
       <c r="M427" s="1">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N427" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -14205,8 +15193,11 @@
       <c r="M428">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N428">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -14231,8 +15222,11 @@
       <c r="M429" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N429" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -14257,8 +15251,11 @@
       <c r="M430">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N430">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -14283,8 +15280,11 @@
       <c r="M431" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N431" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -14309,8 +15309,11 @@
       <c r="M432">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N432">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -14335,8 +15338,11 @@
       <c r="M433" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -14361,8 +15367,11 @@
       <c r="M434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N434">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -14387,8 +15396,11 @@
       <c r="M435" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N435" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -14413,8 +15425,11 @@
       <c r="M436">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N436">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -14439,8 +15454,11 @@
       <c r="M437" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N437" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -14465,8 +15483,11 @@
       <c r="M438">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="439" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -14491,8 +15512,11 @@
       <c r="M439" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N439" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -14517,8 +15541,11 @@
       <c r="M440">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="441" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N440">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -14543,8 +15570,11 @@
       <c r="M441" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N441" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -14572,8 +15602,11 @@
       <c r="M442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N442" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -14598,8 +15631,11 @@
       <c r="M443" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N443" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -14624,8 +15660,11 @@
       <c r="M444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N444" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -14650,8 +15689,11 @@
       <c r="M445" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N445" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -14676,8 +15718,11 @@
       <c r="M446">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="447" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N446">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -14702,8 +15747,11 @@
       <c r="M447" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N447" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -14728,8 +15776,11 @@
       <c r="M448">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="449" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -14754,8 +15805,11 @@
       <c r="M449" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N449" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -14780,8 +15834,11 @@
       <c r="M450">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="451" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N450">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -14806,8 +15863,11 @@
       <c r="M451" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N451" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -14832,8 +15892,11 @@
       <c r="M452">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="453" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N452">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -14858,8 +15921,11 @@
       <c r="M453" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N453" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -14884,8 +15950,11 @@
       <c r="M454">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="455" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N454">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -14910,8 +15979,11 @@
       <c r="M455" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N455" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -14936,8 +16008,11 @@
       <c r="M456">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N456">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -14962,8 +16037,11 @@
       <c r="M457" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N457" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -14988,8 +16066,11 @@
       <c r="M458">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="459" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N458">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -15014,8 +16095,11 @@
       <c r="M459" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N459" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -15040,8 +16124,11 @@
       <c r="M460">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="461" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N460">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -15066,8 +16153,11 @@
       <c r="M461" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N461" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -15093,7 +16183,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="463" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -15119,7 +16209,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -15145,7 +16235,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="465" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -15171,7 +16261,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="466" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -15197,7 +16287,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -15223,7 +16313,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="468" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -15249,7 +16339,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -15275,7 +16365,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="470" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -15300,8 +16390,11 @@
       <c r="M470" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N470" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -15327,7 +16420,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="472" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -15352,8 +16445,11 @@
       <c r="M472" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N472" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -15378,8 +16474,11 @@
       <c r="M473">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="474" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N473">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -15407,8 +16506,11 @@
       <c r="M474" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N474" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -15433,8 +16535,11 @@
       <c r="M475">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="476" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N475">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -15459,8 +16564,11 @@
       <c r="M476" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N476" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -15486,7 +16594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -15511,8 +16619,11 @@
       <c r="M478" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N478" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -15537,8 +16648,11 @@
       <c r="M479">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="480" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N479">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -15564,7 +16678,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -15590,7 +16704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -15616,7 +16730,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -15642,7 +16756,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -15667,8 +16781,11 @@
       <c r="M484" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N484" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -15694,7 +16811,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -15720,7 +16837,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -15745,8 +16862,11 @@
       <c r="M487">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="488" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N487">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -15771,8 +16891,11 @@
       <c r="M488" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="489" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N488" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -15797,8 +16920,11 @@
       <c r="M489" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N489" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -15823,8 +16949,11 @@
       <c r="M490">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="491" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N490">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -15849,8 +16978,11 @@
       <c r="M491" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N491" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -15876,7 +17008,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="493" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -15902,7 +17034,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -15928,7 +17060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -15957,7 +17089,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -15983,7 +17115,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="497" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -16008,8 +17140,11 @@
       <c r="M497" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N497" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -16035,7 +17170,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="499" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -16061,7 +17196,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -16087,7 +17222,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="501" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -16113,7 +17248,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -16138,8 +17273,11 @@
       <c r="M502">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="503" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N502">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -16164,8 +17302,11 @@
       <c r="M503" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N503" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -16190,8 +17331,11 @@
       <c r="M504">
         <v>5</v>
       </c>
-    </row>
-    <row r="505" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N504">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -16216,8 +17360,11 @@
       <c r="M505" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N505" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -16242,8 +17389,11 @@
       <c r="M506">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="507" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N506">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -16269,7 +17419,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -16295,7 +17445,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="509" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -16321,7 +17471,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -16347,7 +17497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -16373,7 +17523,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -16398,8 +17548,11 @@
       <c r="M512">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="513" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N512" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -16424,8 +17577,11 @@
       <c r="M513" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N513" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -16450,8 +17606,11 @@
       <c r="M514">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="515" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N514">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -16476,8 +17635,11 @@
       <c r="M515" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N515" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -16502,8 +17664,11 @@
       <c r="M516">
         <v>5</v>
       </c>
-    </row>
-    <row r="517" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N516" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -16532,7 +17697,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -16561,7 +17726,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="519" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>563</v>
       </c>
@@ -16586,8 +17751,11 @@
       <c r="M519" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N519" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>564</v>
       </c>
@@ -16612,8 +17780,11 @@
       <c r="M520">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="521" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N520">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>565</v>
       </c>
@@ -16638,8 +17809,11 @@
       <c r="M521" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N521" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>566</v>
       </c>
@@ -16665,7 +17839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>567</v>
       </c>
@@ -16691,7 +17865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>568</v>
       </c>
@@ -16717,7 +17891,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="525" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>569</v>
       </c>
@@ -16743,7 +17917,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>570</v>
       </c>
@@ -16769,7 +17943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>571</v>
       </c>
@@ -16795,7 +17969,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>572</v>
       </c>
@@ -16821,7 +17995,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="529" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>573</v>
       </c>
@@ -16847,7 +18021,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>574</v>
       </c>
@@ -16873,7 +18047,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="531" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>575</v>
       </c>
@@ -16899,7 +18073,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>576</v>
       </c>
@@ -16927,8 +18101,11 @@
       <c r="M532">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="533" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N532">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>578</v>
       </c>
@@ -16954,7 +18131,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>579</v>
       </c>
@@ -16979,8 +18156,11 @@
       <c r="M534">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="535" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N534">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>580</v>
       </c>
@@ -17005,8 +18185,11 @@
       <c r="M535" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="536" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N535" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>581</v>
       </c>
@@ -17031,8 +18214,11 @@
       <c r="M536" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N536" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>582</v>
       </c>
@@ -17058,7 +18244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>583</v>
       </c>
@@ -17084,7 +18270,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>584</v>
       </c>
@@ -17110,7 +18296,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="540" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>585</v>
       </c>
@@ -17136,7 +18322,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>586</v>
       </c>
@@ -17162,7 +18348,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="542" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>587</v>
       </c>
@@ -17187,8 +18373,11 @@
       <c r="M542" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N542" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>590</v>
       </c>
@@ -17213,8 +18402,11 @@
       <c r="M543" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="544" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N543">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>591</v>
       </c>
@@ -17239,8 +18431,11 @@
       <c r="M544" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N544" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>592</v>
       </c>
@@ -17265,8 +18460,11 @@
       <c r="M545" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="546" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N545">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>593</v>
       </c>
@@ -17291,8 +18489,11 @@
       <c r="M546" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N546" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>594</v>
       </c>
@@ -17317,8 +18518,11 @@
       <c r="M547" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="548" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N547">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>595</v>
       </c>
@@ -17343,8 +18547,11 @@
       <c r="M548" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N548" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>596</v>
       </c>
@@ -17369,8 +18576,11 @@
       <c r="M549" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="550" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N549">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>597</v>
       </c>
@@ -17395,8 +18605,11 @@
       <c r="M550" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N550" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>598</v>
       </c>
@@ -17421,8 +18634,11 @@
       <c r="M551" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="552" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N551">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>599</v>
       </c>
@@ -17447,8 +18663,11 @@
       <c r="M552" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N552" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>600</v>
       </c>
@@ -17473,8 +18692,11 @@
       <c r="M553" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="554" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N553">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>601</v>
       </c>
@@ -17499,8 +18721,11 @@
       <c r="M554" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N554" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>602</v>
       </c>
@@ -17525,8 +18750,11 @@
       <c r="M555" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="556" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N555">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>603</v>
       </c>
@@ -17551,8 +18779,11 @@
       <c r="M556" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N556" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>604</v>
       </c>
@@ -17577,8 +18808,11 @@
       <c r="M557">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="558" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N557">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>605</v>
       </c>
@@ -17603,8 +18837,11 @@
       <c r="M558" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="559" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N558" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>606</v>
       </c>
@@ -17629,8 +18866,11 @@
       <c r="M559" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N559" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>607</v>
       </c>
@@ -17655,8 +18895,11 @@
       <c r="M560" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="561" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N560" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>608</v>
       </c>
@@ -17681,8 +18924,11 @@
       <c r="M561" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N561" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>609</v>
       </c>
@@ -17707,8 +18953,11 @@
       <c r="M562" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="563" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N562" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>610</v>
       </c>
@@ -17733,8 +18982,11 @@
       <c r="M563" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N563" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>611</v>
       </c>
@@ -17759,8 +19011,11 @@
       <c r="M564" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="565" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N564" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>612</v>
       </c>
@@ -17785,8 +19040,11 @@
       <c r="M565" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N565" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>613</v>
       </c>
@@ -17811,8 +19069,11 @@
       <c r="M566" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="567" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N566" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>614</v>
       </c>
@@ -17837,8 +19098,11 @@
       <c r="M567" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N567" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>615</v>
       </c>
@@ -17863,8 +19127,11 @@
       <c r="M568" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="569" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N568" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>616</v>
       </c>
@@ -17889,8 +19156,11 @@
       <c r="M569" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N569" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>617</v>
       </c>
@@ -17915,8 +19185,11 @@
       <c r="M570" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="571" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N570" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>618</v>
       </c>
@@ -17941,8 +19214,11 @@
       <c r="M571" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N571" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>619</v>
       </c>
@@ -17967,8 +19243,11 @@
       <c r="M572" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="573" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N572">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>620</v>
       </c>
@@ -17993,8 +19272,11 @@
       <c r="M573" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N573" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>621</v>
       </c>
@@ -18019,8 +19301,11 @@
       <c r="M574" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="575" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N574">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>622</v>
       </c>
@@ -18045,8 +19330,11 @@
       <c r="M575" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N575" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>623</v>
       </c>
@@ -18071,8 +19359,11 @@
       <c r="M576" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="577" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N576">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>624</v>
       </c>
@@ -18097,8 +19388,11 @@
       <c r="M577" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N577" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>625</v>
       </c>
@@ -18123,8 +19417,11 @@
       <c r="M578" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="579" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N578">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>626</v>
       </c>
@@ -18149,8 +19446,11 @@
       <c r="M579" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N579" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>627</v>
       </c>
@@ -18175,8 +19475,11 @@
       <c r="M580" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="581" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N580">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>628</v>
       </c>
@@ -18201,8 +19504,11 @@
       <c r="M581" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N581" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>629</v>
       </c>
@@ -18227,8 +19533,11 @@
       <c r="M582" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="583" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N582">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>630</v>
       </c>
@@ -18253,8 +19562,11 @@
       <c r="M583" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N583" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>631</v>
       </c>
@@ -18279,8 +19591,11 @@
       <c r="M584" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="585" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N584">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>632</v>
       </c>
@@ -18305,8 +19620,11 @@
       <c r="M585" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N585" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>633</v>
       </c>
@@ -18331,8 +19649,11 @@
       <c r="M586" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="587" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N586">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>634</v>
       </c>
@@ -18357,8 +19678,11 @@
       <c r="M587" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N587" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>635</v>
       </c>
@@ -18386,8 +19710,11 @@
       <c r="M588" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="589" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N588" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>637</v>
       </c>
@@ -18415,8 +19742,11 @@
       <c r="M589" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N589" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>639</v>
       </c>
@@ -18441,8 +19771,11 @@
       <c r="M590">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="591" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N590">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>640</v>
       </c>
@@ -18467,8 +19800,11 @@
       <c r="M591" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N591" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>641</v>
       </c>
@@ -18493,8 +19829,11 @@
       <c r="M592">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="593" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>642</v>
       </c>
@@ -18519,8 +19858,11 @@
       <c r="M593" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N593" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>643</v>
       </c>
@@ -18545,8 +19887,11 @@
       <c r="M594">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="595" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>644</v>
       </c>
@@ -18571,8 +19916,11 @@
       <c r="M595" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N595" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>645</v>
       </c>
@@ -18597,8 +19945,11 @@
       <c r="M596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N596">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>646</v>
       </c>
@@ -18623,8 +19974,11 @@
       <c r="M597" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N597" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>647</v>
       </c>
@@ -18649,8 +20003,11 @@
       <c r="M598">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="599" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N598">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>648</v>
       </c>
@@ -18675,8 +20032,11 @@
       <c r="M599" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N599" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>649</v>
       </c>
@@ -18701,8 +20061,11 @@
       <c r="M600">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="601" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N600">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>650</v>
       </c>
@@ -18727,8 +20090,11 @@
       <c r="M601" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N601" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>651</v>
       </c>
@@ -18753,8 +20119,11 @@
       <c r="M602">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="603" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N602">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>652</v>
       </c>
@@ -18782,8 +20151,11 @@
       <c r="M603" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N603" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>654</v>
       </c>
@@ -18811,8 +20183,11 @@
       <c r="M604">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="605" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N604">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>655</v>
       </c>
@@ -18837,8 +20212,11 @@
       <c r="M605" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="606" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N605" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>656</v>
       </c>
@@ -18863,8 +20241,11 @@
       <c r="M606" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N606" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>657</v>
       </c>
@@ -18889,8 +20270,11 @@
       <c r="M607" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="608" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N607" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>658</v>
       </c>
@@ -18915,8 +20299,11 @@
       <c r="M608" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N608" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>659</v>
       </c>
@@ -18941,8 +20328,11 @@
       <c r="M609" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="610" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N609" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>660</v>
       </c>
@@ -18967,8 +20357,11 @@
       <c r="M610" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N610" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>661</v>
       </c>
@@ -18993,8 +20386,11 @@
       <c r="M611" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="612" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N611" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>662</v>
       </c>
@@ -19022,8 +20418,11 @@
       <c r="M612" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N612" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>663</v>
       </c>
@@ -19048,8 +20447,11 @@
       <c r="M613" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="614" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N613" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>664</v>
       </c>
@@ -19077,8 +20479,11 @@
       <c r="M614" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N614" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>666</v>
       </c>
@@ -19098,13 +20503,16 @@
         <v>0.3</v>
       </c>
       <c r="L615">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M615" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="616" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="N615" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>667</v>
       </c>
@@ -19124,13 +20532,16 @@
         <v>0.6</v>
       </c>
       <c r="L616" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M616" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+      <c r="N616" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>668</v>
       </c>
@@ -19155,8 +20566,11 @@
       <c r="M617">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="618" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N617">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>669</v>
       </c>
@@ -19181,8 +20595,11 @@
       <c r="M618" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N618" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>670</v>
       </c>
@@ -19207,8 +20624,11 @@
       <c r="M619">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="620" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N619">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>671</v>
       </c>
@@ -19233,8 +20653,11 @@
       <c r="M620" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N620" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>672</v>
       </c>
@@ -19259,8 +20682,11 @@
       <c r="M621">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="622" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N621">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>673</v>
       </c>
@@ -19285,8 +20711,11 @@
       <c r="M622" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N622" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>674</v>
       </c>
@@ -19311,8 +20740,11 @@
       <c r="M623">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="624" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N623">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>675</v>
       </c>
@@ -19337,8 +20769,11 @@
       <c r="M624" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N624" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>676</v>
       </c>
@@ -19363,8 +20798,11 @@
       <c r="M625">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="626" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N625">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>677</v>
       </c>
@@ -19389,8 +20827,11 @@
       <c r="M626" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N626" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>678</v>
       </c>
@@ -19415,8 +20856,11 @@
       <c r="M627">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="628" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N627">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>679</v>
       </c>
@@ -19441,8 +20885,11 @@
       <c r="M628" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N628" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>680</v>
       </c>
@@ -19467,8 +20914,11 @@
       <c r="M629">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="630" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N629">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>681</v>
       </c>
@@ -19493,8 +20943,11 @@
       <c r="M630" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N630" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>682</v>
       </c>
@@ -19519,8 +20972,18 @@
       <c r="M631">
         <v>0.6</v>
       </c>
+      <c r="N631">
+        <v>0.6</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E631" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="quercus_macrocarpa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FD887-A79E-034A-9F0E-6806049B507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968F4FB-9AAB-D04F-83E2-D37B44994F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-14200" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -2970,12 +2970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N498" sqref="N498"/>
+      <selection pane="topRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3027,7 +3026,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4657,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -7751,7 +7750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="200" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="202" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="206" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="208" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -9062,7 +9061,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="210" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -9120,7 +9119,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="213" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -9207,7 +9206,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="215" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -9265,7 +9264,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="217" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="219" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -9555,7 +9554,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -9671,7 +9670,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="243" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="245" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="247" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -10167,7 +10166,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="249" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="255" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="258" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="260" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="262" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -10660,7 +10659,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="266" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -10747,7 +10746,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="268" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="270" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="272" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -10915,7 +10914,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -11019,7 +11018,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="280" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -11207,7 +11206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -11363,7 +11362,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="293" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -11441,7 +11440,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -11467,7 +11466,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -11519,7 +11518,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -11571,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -11597,7 +11596,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -11623,7 +11622,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -11649,7 +11648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -11727,7 +11726,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -11779,7 +11778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -11805,7 +11804,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -11938,7 +11937,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -11990,7 +11989,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="315" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="317" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -12227,7 +12226,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="327" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -12386,7 +12385,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -12490,7 +12489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -12542,7 +12541,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -12568,7 +12567,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -12594,7 +12593,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -12698,7 +12697,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -12750,7 +12749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -12802,7 +12801,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="346" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -12854,7 +12853,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="348" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -12958,7 +12957,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="355" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -13065,7 +13064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -13117,7 +13116,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -13143,7 +13142,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="359" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -13169,7 +13168,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="361" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="363" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="365" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -13337,7 +13336,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="367" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -13543,7 +13542,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="373" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -13601,7 +13600,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="375" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -13630,7 +13629,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -13659,7 +13658,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="377" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -13688,7 +13687,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -13717,7 +13716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -13746,7 +13745,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -13778,7 +13777,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="381" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -13810,7 +13809,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="383" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -13897,7 +13896,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -13926,7 +13925,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -13987,7 +13986,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -14016,7 +14015,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="389" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="391" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -14135,7 +14134,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -14193,7 +14192,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="395" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="397" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="398" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -14309,7 +14308,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -14341,7 +14340,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="400" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -14399,7 +14398,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="402" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -14428,7 +14427,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -14457,7 +14456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="404" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -14547,7 +14546,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -14576,7 +14575,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="408" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -14605,7 +14604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="410" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -14663,7 +14662,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -14692,7 +14691,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="412" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -14721,7 +14720,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -14750,7 +14749,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="414" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -14779,7 +14778,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -14808,7 +14807,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="416" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="418" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -14959,7 +14958,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="421" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -14991,7 +14990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -15020,7 +15019,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="423" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -15052,7 +15051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="425" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -15168,7 +15167,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="429" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -15226,7 +15225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="431" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="433" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="435" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -15429,7 +15428,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="437" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -15458,7 +15457,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -15606,7 +15605,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="443" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -15635,7 +15634,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -15664,7 +15663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="445" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -15722,7 +15721,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="447" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -15751,7 +15750,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -15780,7 +15779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -15809,7 +15808,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -15838,7 +15837,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="451" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -18348,7 +18347,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="542" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>587</v>
       </c>
@@ -18377,7 +18376,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>590</v>
       </c>
@@ -18406,7 +18405,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="544" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>591</v>
       </c>
@@ -18435,7 +18434,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>592</v>
       </c>
@@ -18464,7 +18463,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="546" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>593</v>
       </c>
@@ -18493,7 +18492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>594</v>
       </c>
@@ -18522,7 +18521,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="548" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>595</v>
       </c>
@@ -18551,7 +18550,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>596</v>
       </c>
@@ -18580,7 +18579,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="550" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>597</v>
       </c>
@@ -18609,7 +18608,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>598</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="552" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>599</v>
       </c>
@@ -18667,7 +18666,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>600</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="554" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>601</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>602</v>
       </c>
@@ -18754,7 +18753,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="556" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>603</v>
       </c>
@@ -18783,7 +18782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>604</v>
       </c>
@@ -18812,7 +18811,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="558" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>605</v>
       </c>
@@ -18841,7 +18840,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>606</v>
       </c>
@@ -18870,7 +18869,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>607</v>
       </c>
@@ -18899,7 +18898,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="561" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>608</v>
       </c>
@@ -18928,7 +18927,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>609</v>
       </c>
@@ -18957,7 +18956,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="563" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>610</v>
       </c>
@@ -18986,7 +18985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>611</v>
       </c>
@@ -19015,7 +19014,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="565" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>612</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>613</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="567" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>614</v>
       </c>
@@ -19102,7 +19101,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>615</v>
       </c>
@@ -19131,7 +19130,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="569" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>616</v>
       </c>
@@ -19160,7 +19159,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>617</v>
       </c>
@@ -19189,7 +19188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="571" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>618</v>
       </c>
@@ -19218,7 +19217,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>619</v>
       </c>
@@ -19247,7 +19246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="573" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>620</v>
       </c>
@@ -19276,7 +19275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>621</v>
       </c>
@@ -19305,7 +19304,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="575" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>622</v>
       </c>
@@ -19334,7 +19333,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>623</v>
       </c>
@@ -19363,7 +19362,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="577" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>624</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>625</v>
       </c>
@@ -19421,7 +19420,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="579" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>626</v>
       </c>
@@ -19450,7 +19449,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>627</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="581" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>628</v>
       </c>
@@ -19508,7 +19507,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>629</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="583" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>630</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>631</v>
       </c>
@@ -19595,7 +19594,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="585" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>632</v>
       </c>
@@ -19624,7 +19623,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>633</v>
       </c>
@@ -19653,7 +19652,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>634</v>
       </c>
@@ -19682,7 +19681,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>635</v>
       </c>
@@ -19714,7 +19713,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="589" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>637</v>
       </c>
@@ -19746,7 +19745,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>639</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="591" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>640</v>
       </c>
@@ -19804,7 +19803,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>641</v>
       </c>
@@ -19833,7 +19832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>642</v>
       </c>
@@ -19862,7 +19861,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>643</v>
       </c>
@@ -19891,7 +19890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>644</v>
       </c>
@@ -19920,7 +19919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>645</v>
       </c>
@@ -19949,7 +19948,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="597" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>646</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>647</v>
       </c>
@@ -20007,7 +20006,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="599" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>648</v>
       </c>
@@ -20036,7 +20035,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>649</v>
       </c>
@@ -20065,7 +20064,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="601" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>650</v>
       </c>
@@ -20094,7 +20093,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>651</v>
       </c>
@@ -20123,7 +20122,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="603" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>652</v>
       </c>
@@ -20155,7 +20154,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>654</v>
       </c>
@@ -20187,7 +20186,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="605" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>655</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="606" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>656</v>
       </c>
@@ -20245,7 +20244,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>657</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="608" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>658</v>
       </c>
@@ -20303,7 +20302,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>659</v>
       </c>
@@ -20332,7 +20331,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="610" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>660</v>
       </c>
@@ -20361,7 +20360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>661</v>
       </c>
@@ -20390,7 +20389,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="612" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>662</v>
       </c>
@@ -20422,7 +20421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>663</v>
       </c>
@@ -20451,7 +20450,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="614" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>664</v>
       </c>
@@ -20483,7 +20482,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>666</v>
       </c>
@@ -20512,7 +20511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="616" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>667</v>
       </c>
@@ -20541,7 +20540,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>668</v>
       </c>
@@ -20570,7 +20569,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="618" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>669</v>
       </c>
@@ -20599,7 +20598,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>670</v>
       </c>
@@ -20628,7 +20627,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>671</v>
       </c>
@@ -20657,7 +20656,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>672</v>
       </c>
@@ -20686,7 +20685,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="622" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>673</v>
       </c>
@@ -20715,7 +20714,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>674</v>
       </c>
@@ -20744,7 +20743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="624" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>675</v>
       </c>
@@ -20773,7 +20772,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>676</v>
       </c>
@@ -20802,7 +20801,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="626" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>677</v>
       </c>
@@ -20831,7 +20830,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>678</v>
       </c>
@@ -20860,7 +20859,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="628" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>679</v>
       </c>
@@ -20889,7 +20888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>680</v>
       </c>
@@ -20918,7 +20917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="630" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>681</v>
       </c>
@@ -20947,7 +20946,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>682</v>
       </c>
@@ -20977,13 +20976,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E631" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="quercus_macrocarpa"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E1:E631" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968F4FB-9AAB-D04F-83E2-D37B44994F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBED777-1EF6-6A41-B609-E7131958AD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-14200" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="691">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1720,9 +1720,6 @@
     <t>Quma_WarmS/WarmF_B2_R7</t>
   </si>
   <si>
-    <t>very late compared to others</t>
-  </si>
-  <si>
     <t>Quma_WarmS/WarmF_B2_R8</t>
   </si>
   <si>
@@ -2102,6 +2099,12 @@
   </si>
   <si>
     <t>doy 143 just noticed somebody clogged the dripper so it did not get water for a long time, doesn't show drought stress syndromes</t>
+  </si>
+  <si>
+    <t>very late compared to others. Doy150: not much hope anymore. No more shoot elong measures</t>
+  </si>
+  <si>
+    <t>probably dead. Doy150: not much hope anymore. No more shoot elong measures</t>
   </si>
 </sst>
 </file>
@@ -2972,9 +2975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A618" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3373,6 +3376,9 @@
       <c r="M13" s="1">
         <v>4.9000000000000004</v>
       </c>
+      <c r="N13" s="1">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3684,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G24">
         <v>4.4000000000000004</v>
@@ -4452,6 +4458,9 @@
       <c r="M50" s="1">
         <v>9.9</v>
       </c>
+      <c r="N50" s="1">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -5667,6 +5676,9 @@
       <c r="M92">
         <v>6.1</v>
       </c>
+      <c r="N92">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
@@ -5867,6 +5879,9 @@
       <c r="M99" s="1">
         <v>9.1999999999999993</v>
       </c>
+      <c r="N99" s="1">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -5980,6 +5995,9 @@
       <c r="M103" s="1">
         <v>7.2</v>
       </c>
+      <c r="N103" s="1">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -6035,6 +6053,9 @@
       <c r="M105" s="1">
         <v>4.2</v>
       </c>
+      <c r="N105" s="1">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -6259,7 +6280,7 @@
         <v>108</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>132</v>
@@ -6618,6 +6639,9 @@
       <c r="M125">
         <v>11.3</v>
       </c>
+      <c r="N125" s="1">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="126" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -7372,6 +7396,9 @@
       <c r="M151" s="1">
         <v>10.9</v>
       </c>
+      <c r="N151" s="1">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -8611,7 +8638,7 @@
         <v>204</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I194" s="1">
         <v>0.8</v>
@@ -9861,7 +9888,7 @@
         <v>204</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I237" s="1">
         <v>1.2</v>
@@ -10887,8 +10914,11 @@
       <c r="M272" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -10913,8 +10943,11 @@
       <c r="M273" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N273" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -10939,8 +10972,11 @@
       <c r="M274" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -10965,8 +11001,11 @@
       <c r="M275" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N275" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -10991,8 +11030,11 @@
       <c r="M276" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -11017,8 +11059,11 @@
       <c r="M277" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -11043,8 +11088,11 @@
       <c r="M278" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -11061,7 +11109,7 @@
         <v>297</v>
       </c>
       <c r="F279" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I279">
         <v>0.5</v>
@@ -11072,8 +11120,11 @@
       <c r="M279" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -11098,8 +11149,11 @@
       <c r="M280" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N280" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -11124,8 +11178,11 @@
       <c r="M281" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -11150,8 +11207,11 @@
       <c r="M282" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -11179,8 +11239,11 @@
       <c r="M283" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -11205,8 +11268,11 @@
       <c r="M284" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -11231,8 +11297,11 @@
       <c r="M285" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -11257,8 +11326,11 @@
       <c r="M286" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -11283,8 +11355,11 @@
       <c r="M287" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -11309,8 +11384,11 @@
       <c r="M288">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -11335,8 +11413,11 @@
       <c r="M289" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -11361,8 +11442,11 @@
       <c r="M290">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -11387,8 +11471,11 @@
       <c r="M291" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -11413,8 +11500,11 @@
       <c r="M292">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -11439,8 +11529,11 @@
       <c r="M293" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -11465,8 +11558,11 @@
       <c r="M294">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -11491,8 +11587,11 @@
       <c r="M295" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -11517,8 +11616,11 @@
       <c r="M296">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -11543,8 +11645,11 @@
       <c r="M297" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -11569,8 +11674,11 @@
       <c r="M298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -11595,8 +11703,11 @@
       <c r="M299" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -11621,8 +11732,11 @@
       <c r="M300">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -11647,8 +11761,11 @@
       <c r="M301" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -11673,8 +11790,11 @@
       <c r="M302">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -11699,8 +11819,11 @@
       <c r="M303" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -11725,8 +11848,11 @@
       <c r="M304">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -11751,8 +11877,11 @@
       <c r="M305" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -11777,8 +11906,11 @@
       <c r="M306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -11803,8 +11935,11 @@
       <c r="M307" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -11829,8 +11964,11 @@
       <c r="M308">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -11855,8 +11993,11 @@
       <c r="M309" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -11884,8 +12025,11 @@
       <c r="M310">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -11910,8 +12054,11 @@
       <c r="M311" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -11936,8 +12083,11 @@
       <c r="M312">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -11962,8 +12112,11 @@
       <c r="M313" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -11988,8 +12141,11 @@
       <c r="M314">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -12014,8 +12170,11 @@
       <c r="M315" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -12040,8 +12199,11 @@
       <c r="M316">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -12066,8 +12228,11 @@
       <c r="M317" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -12092,8 +12257,11 @@
       <c r="M318">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -12118,8 +12286,11 @@
       <c r="M319" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -12144,8 +12315,11 @@
       <c r="M320">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -12170,8 +12344,11 @@
       <c r="M321" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -12199,8 +12376,11 @@
       <c r="M322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -12225,8 +12405,11 @@
       <c r="M323" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -12254,8 +12437,11 @@
       <c r="M324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -12280,8 +12466,11 @@
       <c r="M325" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -12306,8 +12495,11 @@
       <c r="M326">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -12332,8 +12524,11 @@
       <c r="M327" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N327" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -12358,8 +12553,11 @@
       <c r="M328" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -12384,8 +12582,11 @@
       <c r="M329" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -12410,8 +12611,11 @@
       <c r="M330" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -12436,8 +12640,11 @@
       <c r="M331" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N331" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -12462,8 +12669,11 @@
       <c r="M332" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -12488,8 +12698,11 @@
       <c r="M333">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N333" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -12514,8 +12727,11 @@
       <c r="M334" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -12540,8 +12756,11 @@
       <c r="M335">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N335" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -12566,8 +12785,11 @@
       <c r="M336" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -12592,8 +12814,11 @@
       <c r="M337">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -12618,8 +12843,11 @@
       <c r="M338" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -12644,8 +12872,11 @@
       <c r="M339">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -12670,8 +12901,11 @@
       <c r="M340" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -12696,8 +12930,11 @@
       <c r="M341">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -12722,8 +12959,11 @@
       <c r="M342" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -12748,8 +12988,11 @@
       <c r="M343">
         <v>7</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -12774,8 +13017,11 @@
       <c r="M344" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -12800,8 +13046,11 @@
       <c r="M345">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -12826,8 +13075,11 @@
       <c r="M346" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -12852,8 +13104,11 @@
       <c r="M347">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -12878,8 +13133,11 @@
       <c r="M348" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -12904,8 +13162,11 @@
       <c r="M349">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -12930,8 +13191,11 @@
       <c r="M350" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N350" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -12956,8 +13220,11 @@
       <c r="M351" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -12981,6 +13248,9 @@
       </c>
       <c r="M352" s="1">
         <v>1.8</v>
+      </c>
+      <c r="N352">
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -13008,6 +13278,9 @@
       <c r="M353" s="1">
         <v>3.8</v>
       </c>
+      <c r="N353" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -13034,6 +13307,9 @@
       <c r="M354" s="1">
         <v>1.5</v>
       </c>
+      <c r="N354">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="355" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -13052,7 +13328,7 @@
         <v>297</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I355" s="1">
         <v>0.3</v>
@@ -13061,6 +13337,9 @@
         <v>0.4</v>
       </c>
       <c r="M355" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N355" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -13089,6 +13368,9 @@
       <c r="M356" s="1">
         <v>2</v>
       </c>
+      <c r="N356">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="357" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -13115,6 +13397,9 @@
       <c r="M357" s="1">
         <v>4.8</v>
       </c>
+      <c r="N357" s="1">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -13141,6 +13426,9 @@
       <c r="M358" s="1">
         <v>3.3</v>
       </c>
+      <c r="N358">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="359" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -13167,6 +13455,9 @@
       <c r="M359" s="1">
         <v>5.5</v>
       </c>
+      <c r="N359" s="1">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -13193,6 +13484,9 @@
       <c r="M360" s="1">
         <v>3.7</v>
       </c>
+      <c r="N360">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="361" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -13219,6 +13513,9 @@
       <c r="M361" s="1">
         <v>1.3</v>
       </c>
+      <c r="N361" s="1">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -14119,7 +14416,7 @@
         <v>391</v>
       </c>
       <c r="F392" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H392">
         <v>0.4</v>
@@ -16181,6 +16478,9 @@
       <c r="M462">
         <v>0.7</v>
       </c>
+      <c r="N462">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="463" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
@@ -16207,6 +16507,9 @@
       <c r="M463" s="1">
         <v>3.1</v>
       </c>
+      <c r="N463" s="1">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -16233,6 +16536,9 @@
       <c r="M464">
         <v>4.5</v>
       </c>
+      <c r="N464">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="465" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
@@ -16259,6 +16565,9 @@
       <c r="M465" s="1">
         <v>0.5</v>
       </c>
+      <c r="N465" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="466" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
@@ -16285,6 +16594,9 @@
       <c r="M466" s="1">
         <v>1.5</v>
       </c>
+      <c r="N466" s="1">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -16311,6 +16623,9 @@
       <c r="M467">
         <v>1.2</v>
       </c>
+      <c r="N467">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="468" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
@@ -16337,6 +16652,9 @@
       <c r="M468" s="1">
         <v>2.2000000000000002</v>
       </c>
+      <c r="N468" s="1">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
@@ -16363,6 +16681,9 @@
       <c r="M469">
         <v>1.9</v>
       </c>
+      <c r="N469">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="470" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
@@ -16418,6 +16739,9 @@
       <c r="M471">
         <v>0.9</v>
       </c>
+      <c r="N471">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="472" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
@@ -16592,6 +16916,9 @@
       <c r="M477">
         <v>2</v>
       </c>
+      <c r="N477">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="478" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
@@ -16619,7 +16946,7 @@
         <v>1.2</v>
       </c>
       <c r="N478" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
@@ -16676,6 +17003,9 @@
       <c r="M480" s="1">
         <v>1.9</v>
       </c>
+      <c r="N480" s="1">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -16702,6 +17032,9 @@
       <c r="M481">
         <v>1</v>
       </c>
+      <c r="N481">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="482" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
@@ -16728,6 +17061,9 @@
       <c r="M482" s="1">
         <v>0.9</v>
       </c>
+      <c r="N482" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -16754,6 +17090,9 @@
       <c r="M483">
         <v>1.9</v>
       </c>
+      <c r="N483">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="484" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
@@ -16809,6 +17148,9 @@
       <c r="M485">
         <v>1.1000000000000001</v>
       </c>
+      <c r="N485">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="486" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
@@ -16835,6 +17177,9 @@
       <c r="M486" s="1">
         <v>0.9</v>
       </c>
+      <c r="N486" s="1">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
@@ -17006,6 +17351,9 @@
       <c r="M492" s="1">
         <v>1.3</v>
       </c>
+      <c r="N492" s="1">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="493" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
@@ -17032,6 +17380,9 @@
       <c r="M493" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="N493" s="1">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -17058,6 +17409,9 @@
       <c r="M494" s="1">
         <v>0.8</v>
       </c>
+      <c r="N494" s="1">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="495" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
@@ -17087,6 +17441,9 @@
       <c r="M495" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N495" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -17113,6 +17470,9 @@
       <c r="M496" s="1">
         <v>1.7</v>
       </c>
+      <c r="N496" s="1">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="497" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
@@ -17168,6 +17528,9 @@
       <c r="M498">
         <v>1.7</v>
       </c>
+      <c r="N498">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="499" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
@@ -17194,6 +17557,9 @@
       <c r="M499" s="1">
         <v>2.7</v>
       </c>
+      <c r="N499" s="1">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
@@ -17220,6 +17586,9 @@
       <c r="M500">
         <v>2.4</v>
       </c>
+      <c r="N500">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="501" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
@@ -17246,6 +17615,9 @@
       <c r="M501" s="1">
         <v>3.9</v>
       </c>
+      <c r="N501" s="1">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
@@ -17417,6 +17789,9 @@
       <c r="M507" s="1">
         <v>1.6</v>
       </c>
+      <c r="N507" s="1">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -17443,6 +17818,9 @@
       <c r="M508">
         <v>4.7</v>
       </c>
+      <c r="N508">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="509" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
@@ -17469,6 +17847,9 @@
       <c r="M509" s="1">
         <v>2.6</v>
       </c>
+      <c r="N509" s="1">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -17495,6 +17876,9 @@
       <c r="M510">
         <v>2</v>
       </c>
+      <c r="N510">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="511" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
@@ -17521,6 +17905,9 @@
       <c r="M511" s="1">
         <v>2.4</v>
       </c>
+      <c r="N511" s="1">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
@@ -17684,7 +18071,7 @@
         <v>493</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>351</v>
+        <v>690</v>
       </c>
       <c r="J517" s="1">
         <v>0.4</v>
@@ -17694,6 +18081,9 @@
       </c>
       <c r="M517" s="1">
         <v>0.5</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
@@ -17713,7 +18103,7 @@
         <v>493</v>
       </c>
       <c r="F518" t="s">
-        <v>562</v>
+        <v>689</v>
       </c>
       <c r="J518">
         <v>0.7</v>
@@ -17724,10 +18114,13 @@
       <c r="M518">
         <v>0.3</v>
       </c>
+      <c r="N518" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="519" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B519" s="1">
         <v>2</v>
@@ -17756,7 +18149,7 @@
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B520">
         <v>2</v>
@@ -17785,7 +18178,7 @@
     </row>
     <row r="521" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B521" s="1">
         <v>2</v>
@@ -17814,7 +18207,7 @@
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B522">
         <v>3</v>
@@ -17837,10 +18230,13 @@
       <c r="M522">
         <v>5</v>
       </c>
+      <c r="N522">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="523" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B523" s="1">
         <v>3</v>
@@ -17863,10 +18259,13 @@
       <c r="M523" s="1">
         <v>6</v>
       </c>
+      <c r="N523" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -17889,10 +18288,13 @@
       <c r="M524">
         <v>3.8</v>
       </c>
+      <c r="N524">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="525" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B525" s="1">
         <v>3</v>
@@ -17915,10 +18317,13 @@
       <c r="M525" s="1">
         <v>1.6</v>
       </c>
+      <c r="N525" s="1">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B526">
         <v>3</v>
@@ -17941,10 +18346,13 @@
       <c r="M526">
         <v>3</v>
       </c>
+      <c r="N526">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="527" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B527" s="1">
         <v>1</v>
@@ -17967,10 +18375,13 @@
       <c r="M527" s="1">
         <v>3.4</v>
       </c>
+      <c r="N527" s="1">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -17993,10 +18404,13 @@
       <c r="M528">
         <v>5.4</v>
       </c>
+      <c r="N528">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="529" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B529" s="1">
         <v>1</v>
@@ -18019,10 +18433,13 @@
       <c r="M529" s="1">
         <v>3.3</v>
       </c>
+      <c r="N529" s="1">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -18045,10 +18462,13 @@
       <c r="M530">
         <v>1.6</v>
       </c>
+      <c r="N530">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="531" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B531" s="1">
         <v>1</v>
@@ -18071,10 +18491,13 @@
       <c r="M531" s="1">
         <v>3.8</v>
       </c>
+      <c r="N531" s="1">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -18089,7 +18512,7 @@
         <v>493</v>
       </c>
       <c r="F532" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J532">
         <v>1.6</v>
@@ -18106,7 +18529,7 @@
     </row>
     <row r="533" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B533" s="1">
         <v>2</v>
@@ -18129,10 +18552,13 @@
       <c r="M533" s="1">
         <v>3.4</v>
       </c>
+      <c r="N533" s="1">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -18161,7 +18587,7 @@
     </row>
     <row r="535" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B535" s="1">
         <v>2</v>
@@ -18190,7 +18616,7 @@
     </row>
     <row r="536" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B536" s="1">
         <v>2</v>
@@ -18219,7 +18645,7 @@
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B537">
         <v>3</v>
@@ -18242,10 +18668,13 @@
       <c r="M537" s="1">
         <v>4</v>
       </c>
+      <c r="N537" s="1">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="538" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B538" s="1">
         <v>3</v>
@@ -18268,10 +18697,13 @@
       <c r="M538" s="1">
         <v>4.5999999999999996</v>
       </c>
+      <c r="N538" s="1">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B539">
         <v>3</v>
@@ -18294,10 +18726,13 @@
       <c r="M539" s="1">
         <v>1.5</v>
       </c>
+      <c r="N539" s="1">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="540" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B540" s="1">
         <v>3</v>
@@ -18320,10 +18755,13 @@
       <c r="M540" s="1">
         <v>6.2</v>
       </c>
+      <c r="N540" s="1">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B541">
         <v>3</v>
@@ -18346,10 +18784,13 @@
       <c r="M541" s="1">
         <v>1.7</v>
       </c>
+      <c r="N541" s="1">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="542" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B542" s="1">
         <v>1</v>
@@ -18358,10 +18799,10 @@
         <v>7</v>
       </c>
       <c r="D542" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E542" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E542" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J542" s="1">
         <v>0.4</v>
@@ -18378,7 +18819,7 @@
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -18387,10 +18828,10 @@
         <v>7</v>
       </c>
       <c r="D543" t="s">
+        <v>587</v>
+      </c>
+      <c r="E543" t="s">
         <v>588</v>
-      </c>
-      <c r="E543" t="s">
-        <v>589</v>
       </c>
       <c r="J543">
         <v>0.4</v>
@@ -18407,7 +18848,7 @@
     </row>
     <row r="544" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B544" s="1">
         <v>1</v>
@@ -18416,10 +18857,10 @@
         <v>7</v>
       </c>
       <c r="D544" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E544" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E544" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J544" s="1">
         <v>0.3</v>
@@ -18436,7 +18877,7 @@
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -18445,10 +18886,10 @@
         <v>7</v>
       </c>
       <c r="D545" t="s">
+        <v>587</v>
+      </c>
+      <c r="E545" t="s">
         <v>588</v>
-      </c>
-      <c r="E545" t="s">
-        <v>589</v>
       </c>
       <c r="J545">
         <v>0.5</v>
@@ -18465,7 +18906,7 @@
     </row>
     <row r="546" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B546" s="1">
         <v>1</v>
@@ -18474,10 +18915,10 @@
         <v>7</v>
       </c>
       <c r="D546" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E546" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E546" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J546" s="1">
         <v>0.2</v>
@@ -18494,7 +18935,7 @@
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -18503,10 +18944,10 @@
         <v>7</v>
       </c>
       <c r="D547" t="s">
+        <v>587</v>
+      </c>
+      <c r="E547" t="s">
         <v>588</v>
-      </c>
-      <c r="E547" t="s">
-        <v>589</v>
       </c>
       <c r="J547">
         <v>0.5</v>
@@ -18523,7 +18964,7 @@
     </row>
     <row r="548" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B548" s="1">
         <v>2</v>
@@ -18532,10 +18973,10 @@
         <v>7</v>
       </c>
       <c r="D548" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E548" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E548" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J548" s="1">
         <v>0.5</v>
@@ -18552,7 +18993,7 @@
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B549">
         <v>2</v>
@@ -18561,10 +19002,10 @@
         <v>7</v>
       </c>
       <c r="D549" t="s">
+        <v>587</v>
+      </c>
+      <c r="E549" t="s">
         <v>588</v>
-      </c>
-      <c r="E549" t="s">
-        <v>589</v>
       </c>
       <c r="J549">
         <v>0.6</v>
@@ -18581,7 +19022,7 @@
     </row>
     <row r="550" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B550" s="1">
         <v>2</v>
@@ -18590,10 +19031,10 @@
         <v>7</v>
       </c>
       <c r="D550" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E550" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E550" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J550" s="1">
         <v>0.6</v>
@@ -18610,7 +19051,7 @@
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B551">
         <v>2</v>
@@ -18619,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D551" t="s">
+        <v>587</v>
+      </c>
+      <c r="E551" t="s">
         <v>588</v>
-      </c>
-      <c r="E551" t="s">
-        <v>589</v>
       </c>
       <c r="J551">
         <v>0.4</v>
@@ -18639,7 +19080,7 @@
     </row>
     <row r="552" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B552" s="1">
         <v>3</v>
@@ -18648,10 +19089,10 @@
         <v>7</v>
       </c>
       <c r="D552" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E552" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E552" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J552" s="1">
         <v>0.5</v>
@@ -18668,7 +19109,7 @@
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -18677,10 +19118,10 @@
         <v>7</v>
       </c>
       <c r="D553" t="s">
+        <v>587</v>
+      </c>
+      <c r="E553" t="s">
         <v>588</v>
-      </c>
-      <c r="E553" t="s">
-        <v>589</v>
       </c>
       <c r="J553">
         <v>0.3</v>
@@ -18697,7 +19138,7 @@
     </row>
     <row r="554" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B554" s="1">
         <v>3</v>
@@ -18706,10 +19147,10 @@
         <v>7</v>
       </c>
       <c r="D554" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E554" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E554" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J554" s="1">
         <v>0.6</v>
@@ -18726,7 +19167,7 @@
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B555">
         <v>3</v>
@@ -18735,10 +19176,10 @@
         <v>7</v>
       </c>
       <c r="D555" t="s">
+        <v>587</v>
+      </c>
+      <c r="E555" t="s">
         <v>588</v>
-      </c>
-      <c r="E555" t="s">
-        <v>589</v>
       </c>
       <c r="J555">
         <v>0.4</v>
@@ -18755,7 +19196,7 @@
     </row>
     <row r="556" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B556" s="1">
         <v>3</v>
@@ -18764,10 +19205,10 @@
         <v>7</v>
       </c>
       <c r="D556" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E556" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E556" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J556" s="1">
         <v>0.3</v>
@@ -18784,7 +19225,7 @@
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -18793,10 +19234,10 @@
         <v>26</v>
       </c>
       <c r="D557" t="s">
+        <v>587</v>
+      </c>
+      <c r="E557" t="s">
         <v>588</v>
-      </c>
-      <c r="E557" t="s">
-        <v>589</v>
       </c>
       <c r="J557">
         <v>0.3</v>
@@ -18813,7 +19254,7 @@
     </row>
     <row r="558" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B558" s="1">
         <v>1</v>
@@ -18822,10 +19263,10 @@
         <v>26</v>
       </c>
       <c r="D558" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E558" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E558" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J558" s="1">
         <v>0.3</v>
@@ -18842,7 +19283,7 @@
     </row>
     <row r="559" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B559" s="1">
         <v>1</v>
@@ -18851,10 +19292,10 @@
         <v>26</v>
       </c>
       <c r="D559" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E559" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E559" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J559" s="1">
         <v>0.2</v>
@@ -18871,7 +19312,7 @@
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -18880,10 +19321,10 @@
         <v>26</v>
       </c>
       <c r="D560" t="s">
+        <v>587</v>
+      </c>
+      <c r="E560" t="s">
         <v>588</v>
-      </c>
-      <c r="E560" t="s">
-        <v>589</v>
       </c>
       <c r="J560">
         <v>0.3</v>
@@ -18900,7 +19341,7 @@
     </row>
     <row r="561" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B561" s="1">
         <v>1</v>
@@ -18909,10 +19350,10 @@
         <v>26</v>
       </c>
       <c r="D561" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E561" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E561" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J561" s="1">
         <v>0.3</v>
@@ -18929,7 +19370,7 @@
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B562">
         <v>2</v>
@@ -18938,10 +19379,10 @@
         <v>26</v>
       </c>
       <c r="D562" t="s">
+        <v>587</v>
+      </c>
+      <c r="E562" t="s">
         <v>588</v>
-      </c>
-      <c r="E562" t="s">
-        <v>589</v>
       </c>
       <c r="J562">
         <v>0.3</v>
@@ -18958,7 +19399,7 @@
     </row>
     <row r="563" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B563" s="1">
         <v>2</v>
@@ -18967,10 +19408,10 @@
         <v>26</v>
       </c>
       <c r="D563" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E563" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E563" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J563" s="1">
         <v>0.3</v>
@@ -18987,7 +19428,7 @@
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B564">
         <v>2</v>
@@ -18996,10 +19437,10 @@
         <v>26</v>
       </c>
       <c r="D564" t="s">
+        <v>587</v>
+      </c>
+      <c r="E564" t="s">
         <v>588</v>
-      </c>
-      <c r="E564" t="s">
-        <v>589</v>
       </c>
       <c r="J564">
         <v>0.5</v>
@@ -19016,7 +19457,7 @@
     </row>
     <row r="565" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B565" s="1">
         <v>2</v>
@@ -19025,10 +19466,10 @@
         <v>26</v>
       </c>
       <c r="D565" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E565" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E565" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J565" s="1">
         <v>0.4</v>
@@ -19045,7 +19486,7 @@
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B566">
         <v>2</v>
@@ -19054,10 +19495,10 @@
         <v>26</v>
       </c>
       <c r="D566" t="s">
+        <v>587</v>
+      </c>
+      <c r="E566" t="s">
         <v>588</v>
-      </c>
-      <c r="E566" t="s">
-        <v>589</v>
       </c>
       <c r="J566">
         <v>0.4</v>
@@ -19074,7 +19515,7 @@
     </row>
     <row r="567" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B567" s="1">
         <v>3</v>
@@ -19083,10 +19524,10 @@
         <v>26</v>
       </c>
       <c r="D567" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E567" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E567" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J567" s="1">
         <v>0.5</v>
@@ -19103,7 +19544,7 @@
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B568">
         <v>3</v>
@@ -19112,10 +19553,10 @@
         <v>26</v>
       </c>
       <c r="D568" t="s">
+        <v>587</v>
+      </c>
+      <c r="E568" t="s">
         <v>588</v>
-      </c>
-      <c r="E568" t="s">
-        <v>589</v>
       </c>
       <c r="J568">
         <v>0.4</v>
@@ -19132,7 +19573,7 @@
     </row>
     <row r="569" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B569" s="1">
         <v>3</v>
@@ -19141,10 +19582,10 @@
         <v>26</v>
       </c>
       <c r="D569" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E569" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E569" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J569" s="1">
         <v>0.4</v>
@@ -19161,7 +19602,7 @@
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B570">
         <v>3</v>
@@ -19170,10 +19611,10 @@
         <v>26</v>
       </c>
       <c r="D570" t="s">
+        <v>587</v>
+      </c>
+      <c r="E570" t="s">
         <v>588</v>
-      </c>
-      <c r="E570" t="s">
-        <v>589</v>
       </c>
       <c r="J570">
         <v>0.4</v>
@@ -19190,7 +19631,7 @@
     </row>
     <row r="571" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B571" s="1">
         <v>3</v>
@@ -19199,10 +19640,10 @@
         <v>26</v>
       </c>
       <c r="D571" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E571" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E571" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J571" s="1">
         <v>0.4</v>
@@ -19219,7 +19660,7 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -19228,10 +19669,10 @@
         <v>43</v>
       </c>
       <c r="D572" t="s">
+        <v>587</v>
+      </c>
+      <c r="E572" t="s">
         <v>588</v>
-      </c>
-      <c r="E572" t="s">
-        <v>589</v>
       </c>
       <c r="J572">
         <v>0.4</v>
@@ -19248,7 +19689,7 @@
     </row>
     <row r="573" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B573" s="1">
         <v>1</v>
@@ -19257,10 +19698,10 @@
         <v>43</v>
       </c>
       <c r="D573" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E573" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E573" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J573" s="1">
         <v>0.3</v>
@@ -19277,7 +19718,7 @@
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -19286,10 +19727,10 @@
         <v>43</v>
       </c>
       <c r="D574" t="s">
+        <v>587</v>
+      </c>
+      <c r="E574" t="s">
         <v>588</v>
-      </c>
-      <c r="E574" t="s">
-        <v>589</v>
       </c>
       <c r="J574">
         <v>0.4</v>
@@ -19306,7 +19747,7 @@
     </row>
     <row r="575" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B575" s="1">
         <v>1</v>
@@ -19315,10 +19756,10 @@
         <v>43</v>
       </c>
       <c r="D575" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E575" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E575" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J575" s="1">
         <v>0.9</v>
@@ -19335,7 +19776,7 @@
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -19344,10 +19785,10 @@
         <v>43</v>
       </c>
       <c r="D576" t="s">
+        <v>587</v>
+      </c>
+      <c r="E576" t="s">
         <v>588</v>
-      </c>
-      <c r="E576" t="s">
-        <v>589</v>
       </c>
       <c r="J576">
         <v>0.3</v>
@@ -19364,7 +19805,7 @@
     </row>
     <row r="577" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B577" s="1">
         <v>2</v>
@@ -19373,10 +19814,10 @@
         <v>43</v>
       </c>
       <c r="D577" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E577" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E577" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J577" s="1">
         <v>0.4</v>
@@ -19393,7 +19834,7 @@
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B578">
         <v>2</v>
@@ -19402,10 +19843,10 @@
         <v>43</v>
       </c>
       <c r="D578" t="s">
+        <v>587</v>
+      </c>
+      <c r="E578" t="s">
         <v>588</v>
-      </c>
-      <c r="E578" t="s">
-        <v>589</v>
       </c>
       <c r="J578">
         <v>0.5</v>
@@ -19422,7 +19863,7 @@
     </row>
     <row r="579" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B579" s="1">
         <v>2</v>
@@ -19431,10 +19872,10 @@
         <v>43</v>
       </c>
       <c r="D579" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E579" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E579" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J579" s="1">
         <v>0.4</v>
@@ -19451,7 +19892,7 @@
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B580">
         <v>2</v>
@@ -19460,10 +19901,10 @@
         <v>43</v>
       </c>
       <c r="D580" t="s">
+        <v>587</v>
+      </c>
+      <c r="E580" t="s">
         <v>588</v>
-      </c>
-      <c r="E580" t="s">
-        <v>589</v>
       </c>
       <c r="J580">
         <v>0.3</v>
@@ -19480,7 +19921,7 @@
     </row>
     <row r="581" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B581" s="1">
         <v>2</v>
@@ -19489,10 +19930,10 @@
         <v>43</v>
       </c>
       <c r="D581" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E581" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E581" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J581" s="1">
         <v>0.4</v>
@@ -19509,7 +19950,7 @@
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B582">
         <v>3</v>
@@ -19518,10 +19959,10 @@
         <v>43</v>
       </c>
       <c r="D582" t="s">
+        <v>587</v>
+      </c>
+      <c r="E582" t="s">
         <v>588</v>
-      </c>
-      <c r="E582" t="s">
-        <v>589</v>
       </c>
       <c r="J582">
         <v>0.5</v>
@@ -19538,7 +19979,7 @@
     </row>
     <row r="583" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B583" s="1">
         <v>3</v>
@@ -19547,10 +19988,10 @@
         <v>43</v>
       </c>
       <c r="D583" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E583" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E583" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J583" s="1">
         <v>0.5</v>
@@ -19567,7 +20008,7 @@
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B584">
         <v>3</v>
@@ -19576,10 +20017,10 @@
         <v>43</v>
       </c>
       <c r="D584" t="s">
+        <v>587</v>
+      </c>
+      <c r="E584" t="s">
         <v>588</v>
-      </c>
-      <c r="E584" t="s">
-        <v>589</v>
       </c>
       <c r="J584">
         <v>0.4</v>
@@ -19596,7 +20037,7 @@
     </row>
     <row r="585" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B585" s="1">
         <v>3</v>
@@ -19605,10 +20046,10 @@
         <v>43</v>
       </c>
       <c r="D585" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E585" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E585" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J585" s="1">
         <v>0.5</v>
@@ -19625,7 +20066,7 @@
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B586">
         <v>3</v>
@@ -19634,10 +20075,10 @@
         <v>43</v>
       </c>
       <c r="D586" t="s">
+        <v>587</v>
+      </c>
+      <c r="E586" t="s">
         <v>588</v>
-      </c>
-      <c r="E586" t="s">
-        <v>589</v>
       </c>
       <c r="J586">
         <v>0.9</v>
@@ -19654,7 +20095,7 @@
     </row>
     <row r="587" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B587" s="1">
         <v>1</v>
@@ -19663,10 +20104,10 @@
         <v>59</v>
       </c>
       <c r="D587" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E587" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E587" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J587" s="1">
         <v>0.4</v>
@@ -19683,7 +20124,7 @@
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -19692,13 +20133,13 @@
         <v>59</v>
       </c>
       <c r="D588" t="s">
+        <v>587</v>
+      </c>
+      <c r="E588" t="s">
         <v>588</v>
       </c>
-      <c r="E588" t="s">
-        <v>589</v>
-      </c>
       <c r="F588" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J588">
         <v>0.4</v>
@@ -19715,7 +20156,7 @@
     </row>
     <row r="589" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B589" s="1">
         <v>1</v>
@@ -19724,13 +20165,13 @@
         <v>59</v>
       </c>
       <c r="D589" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E589" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E589" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="F589" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J589" s="1">
         <v>0.4</v>
@@ -19747,7 +20188,7 @@
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -19756,10 +20197,10 @@
         <v>59</v>
       </c>
       <c r="D590" t="s">
+        <v>587</v>
+      </c>
+      <c r="E590" t="s">
         <v>588</v>
-      </c>
-      <c r="E590" t="s">
-        <v>589</v>
       </c>
       <c r="J590">
         <v>0.4</v>
@@ -19776,7 +20217,7 @@
     </row>
     <row r="591" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B591" s="1">
         <v>1</v>
@@ -19785,10 +20226,10 @@
         <v>59</v>
       </c>
       <c r="D591" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E591" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E591" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J591" s="1">
         <v>0.4</v>
@@ -19805,7 +20246,7 @@
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -19814,10 +20255,10 @@
         <v>59</v>
       </c>
       <c r="D592" t="s">
+        <v>587</v>
+      </c>
+      <c r="E592" t="s">
         <v>588</v>
-      </c>
-      <c r="E592" t="s">
-        <v>589</v>
       </c>
       <c r="J592">
         <v>0.6</v>
@@ -19834,7 +20275,7 @@
     </row>
     <row r="593" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B593" s="1">
         <v>2</v>
@@ -19843,10 +20284,10 @@
         <v>59</v>
       </c>
       <c r="D593" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E593" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E593" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J593" s="1">
         <v>0.7</v>
@@ -19863,7 +20304,7 @@
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B594">
         <v>2</v>
@@ -19872,10 +20313,10 @@
         <v>59</v>
       </c>
       <c r="D594" t="s">
+        <v>587</v>
+      </c>
+      <c r="E594" t="s">
         <v>588</v>
-      </c>
-      <c r="E594" t="s">
-        <v>589</v>
       </c>
       <c r="J594">
         <v>0.4</v>
@@ -19892,7 +20333,7 @@
     </row>
     <row r="595" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B595" s="1">
         <v>2</v>
@@ -19901,10 +20342,10 @@
         <v>59</v>
       </c>
       <c r="D595" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E595" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E595" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J595" s="1">
         <v>0.4</v>
@@ -19921,7 +20362,7 @@
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B596">
         <v>2</v>
@@ -19930,10 +20371,10 @@
         <v>59</v>
       </c>
       <c r="D596" t="s">
+        <v>587</v>
+      </c>
+      <c r="E596" t="s">
         <v>588</v>
-      </c>
-      <c r="E596" t="s">
-        <v>589</v>
       </c>
       <c r="J596">
         <v>0.4</v>
@@ -19950,7 +20391,7 @@
     </row>
     <row r="597" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B597" s="1">
         <v>3</v>
@@ -19959,10 +20400,10 @@
         <v>59</v>
       </c>
       <c r="D597" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E597" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E597" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J597" s="1">
         <v>0.4</v>
@@ -19979,7 +20420,7 @@
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -19988,10 +20429,10 @@
         <v>59</v>
       </c>
       <c r="D598" t="s">
+        <v>587</v>
+      </c>
+      <c r="E598" t="s">
         <v>588</v>
-      </c>
-      <c r="E598" t="s">
-        <v>589</v>
       </c>
       <c r="J598">
         <v>0.6</v>
@@ -20008,7 +20449,7 @@
     </row>
     <row r="599" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B599" s="1">
         <v>3</v>
@@ -20017,10 +20458,10 @@
         <v>59</v>
       </c>
       <c r="D599" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E599" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E599" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J599" s="1">
         <v>0.5</v>
@@ -20037,7 +20478,7 @@
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B600">
         <v>3</v>
@@ -20046,10 +20487,10 @@
         <v>59</v>
       </c>
       <c r="D600" t="s">
+        <v>587</v>
+      </c>
+      <c r="E600" t="s">
         <v>588</v>
-      </c>
-      <c r="E600" t="s">
-        <v>589</v>
       </c>
       <c r="J600">
         <v>0.4</v>
@@ -20066,7 +20507,7 @@
     </row>
     <row r="601" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B601" s="1">
         <v>3</v>
@@ -20075,10 +20516,10 @@
         <v>59</v>
       </c>
       <c r="D601" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E601" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E601" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J601" s="1">
         <v>0.4</v>
@@ -20095,7 +20536,7 @@
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -20104,10 +20545,10 @@
         <v>75</v>
       </c>
       <c r="D602" t="s">
+        <v>587</v>
+      </c>
+      <c r="E602" t="s">
         <v>588</v>
-      </c>
-      <c r="E602" t="s">
-        <v>589</v>
       </c>
       <c r="J602">
         <v>1</v>
@@ -20124,7 +20565,7 @@
     </row>
     <row r="603" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B603" s="1">
         <v>1</v>
@@ -20133,13 +20574,13 @@
         <v>75</v>
       </c>
       <c r="D603" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E603" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E603" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="F603" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J603" s="1">
         <v>0.7</v>
@@ -20156,7 +20597,7 @@
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B604">
         <v>1</v>
@@ -20165,13 +20606,13 @@
         <v>75</v>
       </c>
       <c r="D604" t="s">
+        <v>587</v>
+      </c>
+      <c r="E604" t="s">
         <v>588</v>
       </c>
-      <c r="E604" t="s">
-        <v>589</v>
-      </c>
       <c r="F604" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J604">
         <v>0.5</v>
@@ -20188,7 +20629,7 @@
     </row>
     <row r="605" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B605" s="1">
         <v>1</v>
@@ -20197,10 +20638,10 @@
         <v>75</v>
       </c>
       <c r="D605" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E605" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E605" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J605" s="1">
         <v>1.2</v>
@@ -20217,7 +20658,7 @@
     </row>
     <row r="606" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B606" s="1">
         <v>1</v>
@@ -20226,10 +20667,10 @@
         <v>75</v>
       </c>
       <c r="D606" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E606" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E606" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J606" s="1">
         <v>1.6</v>
@@ -20246,7 +20687,7 @@
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B607">
         <v>2</v>
@@ -20255,10 +20696,10 @@
         <v>75</v>
       </c>
       <c r="D607" t="s">
+        <v>587</v>
+      </c>
+      <c r="E607" t="s">
         <v>588</v>
-      </c>
-      <c r="E607" t="s">
-        <v>589</v>
       </c>
       <c r="J607">
         <v>1</v>
@@ -20275,7 +20716,7 @@
     </row>
     <row r="608" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B608" s="1">
         <v>2</v>
@@ -20284,10 +20725,10 @@
         <v>75</v>
       </c>
       <c r="D608" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E608" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E608" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J608" s="1">
         <v>0.4</v>
@@ -20304,7 +20745,7 @@
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B609">
         <v>2</v>
@@ -20313,10 +20754,10 @@
         <v>75</v>
       </c>
       <c r="D609" t="s">
+        <v>587</v>
+      </c>
+      <c r="E609" t="s">
         <v>588</v>
-      </c>
-      <c r="E609" t="s">
-        <v>589</v>
       </c>
       <c r="J609">
         <v>0.4</v>
@@ -20333,7 +20774,7 @@
     </row>
     <row r="610" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B610" s="1">
         <v>2</v>
@@ -20342,10 +20783,10 @@
         <v>75</v>
       </c>
       <c r="D610" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E610" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E610" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J610" s="1">
         <v>0.5</v>
@@ -20362,7 +20803,7 @@
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -20371,10 +20812,10 @@
         <v>75</v>
       </c>
       <c r="D611" t="s">
+        <v>587</v>
+      </c>
+      <c r="E611" t="s">
         <v>588</v>
-      </c>
-      <c r="E611" t="s">
-        <v>589</v>
       </c>
       <c r="J611">
         <v>0.4</v>
@@ -20391,7 +20832,7 @@
     </row>
     <row r="612" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B612" s="1">
         <v>3</v>
@@ -20400,13 +20841,13 @@
         <v>75</v>
       </c>
       <c r="D612" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E612" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E612" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="F612" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J612" s="1">
         <v>0.5</v>
@@ -20423,7 +20864,7 @@
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B613">
         <v>3</v>
@@ -20432,10 +20873,10 @@
         <v>75</v>
       </c>
       <c r="D613" t="s">
+        <v>587</v>
+      </c>
+      <c r="E613" t="s">
         <v>588</v>
-      </c>
-      <c r="E613" t="s">
-        <v>589</v>
       </c>
       <c r="J613">
         <v>0.4</v>
@@ -20452,7 +20893,7 @@
     </row>
     <row r="614" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B614" s="1">
         <v>3</v>
@@ -20461,13 +20902,13 @@
         <v>75</v>
       </c>
       <c r="D614" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E614" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E614" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="F614" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J614" s="1">
         <v>1.2</v>
@@ -20484,7 +20925,7 @@
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B615">
         <v>3</v>
@@ -20493,10 +20934,10 @@
         <v>75</v>
       </c>
       <c r="D615" t="s">
+        <v>587</v>
+      </c>
+      <c r="E615" t="s">
         <v>588</v>
-      </c>
-      <c r="E615" t="s">
-        <v>589</v>
       </c>
       <c r="J615">
         <v>0.3</v>
@@ -20513,7 +20954,7 @@
     </row>
     <row r="616" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B616" s="1">
         <v>3</v>
@@ -20522,10 +20963,10 @@
         <v>75</v>
       </c>
       <c r="D616" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E616" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E616" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J616" s="1">
         <v>0.6</v>
@@ -20542,7 +20983,7 @@
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -20551,10 +20992,10 @@
         <v>91</v>
       </c>
       <c r="D617" t="s">
+        <v>587</v>
+      </c>
+      <c r="E617" t="s">
         <v>588</v>
-      </c>
-      <c r="E617" t="s">
-        <v>589</v>
       </c>
       <c r="J617">
         <v>0.4</v>
@@ -20571,7 +21012,7 @@
     </row>
     <row r="618" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B618" s="1">
         <v>1</v>
@@ -20580,10 +21021,10 @@
         <v>91</v>
       </c>
       <c r="D618" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E618" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E618" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J618" s="1">
         <v>0.5</v>
@@ -20600,7 +21041,7 @@
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -20609,10 +21050,10 @@
         <v>91</v>
       </c>
       <c r="D619" t="s">
+        <v>587</v>
+      </c>
+      <c r="E619" t="s">
         <v>588</v>
-      </c>
-      <c r="E619" t="s">
-        <v>589</v>
       </c>
       <c r="J619">
         <v>0.4</v>
@@ -20629,7 +21070,7 @@
     </row>
     <row r="620" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B620" s="1">
         <v>1</v>
@@ -20638,10 +21079,10 @@
         <v>91</v>
       </c>
       <c r="D620" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E620" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E620" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J620" s="1">
         <v>0.5</v>
@@ -20658,7 +21099,7 @@
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -20667,10 +21108,10 @@
         <v>91</v>
       </c>
       <c r="D621" t="s">
+        <v>587</v>
+      </c>
+      <c r="E621" t="s">
         <v>588</v>
-      </c>
-      <c r="E621" t="s">
-        <v>589</v>
       </c>
       <c r="J621">
         <v>0.4</v>
@@ -20687,7 +21128,7 @@
     </row>
     <row r="622" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B622" s="1">
         <v>2</v>
@@ -20696,10 +21137,10 @@
         <v>91</v>
       </c>
       <c r="D622" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E622" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E622" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J622" s="1">
         <v>0.4</v>
@@ -20716,7 +21157,7 @@
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B623">
         <v>2</v>
@@ -20725,10 +21166,10 @@
         <v>91</v>
       </c>
       <c r="D623" t="s">
+        <v>587</v>
+      </c>
+      <c r="E623" t="s">
         <v>588</v>
-      </c>
-      <c r="E623" t="s">
-        <v>589</v>
       </c>
       <c r="J623">
         <v>0.3</v>
@@ -20745,7 +21186,7 @@
     </row>
     <row r="624" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B624" s="1">
         <v>2</v>
@@ -20754,10 +21195,10 @@
         <v>91</v>
       </c>
       <c r="D624" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E624" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E624" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J624" s="1">
         <v>2.4</v>
@@ -20774,7 +21215,7 @@
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B625">
         <v>2</v>
@@ -20783,10 +21224,10 @@
         <v>91</v>
       </c>
       <c r="D625" t="s">
+        <v>587</v>
+      </c>
+      <c r="E625" t="s">
         <v>588</v>
-      </c>
-      <c r="E625" t="s">
-        <v>589</v>
       </c>
       <c r="J625">
         <v>0.9</v>
@@ -20803,7 +21244,7 @@
     </row>
     <row r="626" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B626" s="1">
         <v>2</v>
@@ -20812,10 +21253,10 @@
         <v>91</v>
       </c>
       <c r="D626" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E626" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E626" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J626" s="1">
         <v>0.9</v>
@@ -20832,7 +21273,7 @@
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B627">
         <v>3</v>
@@ -20841,10 +21282,10 @@
         <v>91</v>
       </c>
       <c r="D627" t="s">
+        <v>587</v>
+      </c>
+      <c r="E627" t="s">
         <v>588</v>
-      </c>
-      <c r="E627" t="s">
-        <v>589</v>
       </c>
       <c r="J627">
         <v>0.4</v>
@@ -20861,7 +21302,7 @@
     </row>
     <row r="628" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B628" s="1">
         <v>3</v>
@@ -20870,10 +21311,10 @@
         <v>91</v>
       </c>
       <c r="D628" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E628" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E628" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J628" s="1">
         <v>0.5</v>
@@ -20890,7 +21331,7 @@
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B629">
         <v>3</v>
@@ -20899,10 +21340,10 @@
         <v>91</v>
       </c>
       <c r="D629" t="s">
+        <v>587</v>
+      </c>
+      <c r="E629" t="s">
         <v>588</v>
-      </c>
-      <c r="E629" t="s">
-        <v>589</v>
       </c>
       <c r="J629">
         <v>0.4</v>
@@ -20919,7 +21360,7 @@
     </row>
     <row r="630" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B630" s="1">
         <v>3</v>
@@ -20928,10 +21369,10 @@
         <v>91</v>
       </c>
       <c r="D630" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E630" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E630" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J630" s="1">
         <v>0.7</v>
@@ -20948,7 +21389,7 @@
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B631">
         <v>3</v>
@@ -20957,10 +21398,10 @@
         <v>91</v>
       </c>
       <c r="D631" t="s">
+        <v>587</v>
+      </c>
+      <c r="E631" t="s">
         <v>588</v>
-      </c>
-      <c r="E631" t="s">
-        <v>589</v>
       </c>
       <c r="J631">
         <v>0.6</v>

--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBED777-1EF6-6A41-B609-E7131958AD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38FDFB-0924-3141-871D-37DB3A953962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shoot_elongation!$E$1:$E$631</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shoot_elongation!$D$1:$D$631</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="695">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2105,6 +2105,18 @@
   </si>
   <si>
     <t>probably dead. Doy150: not much hope anymore. No more shoot elong measures</t>
+  </si>
+  <si>
+    <t>doy157: 150 measurement is probably wrong</t>
+  </si>
+  <si>
+    <t>doy157: apical shoot dead</t>
+  </si>
+  <si>
+    <t>doy157: dead</t>
+  </si>
+  <si>
+    <t>initial measurement; looks dead but branches tender; doy157: dead</t>
   </si>
 </sst>
 </file>
@@ -2656,6 +2668,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2973,11 +2989,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N631"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N126" sqref="N126"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" ySplit="181" topLeftCell="I362" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomRight" activeCell="P445" sqref="P445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2985,7 +3004,7 @@
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3028,8 +3047,11 @@
       <c r="N1" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3058,7 +3080,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3087,7 +3109,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3138,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3167,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3196,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3203,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3232,7 +3254,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3261,7 +3283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3290,7 +3312,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3319,7 +3341,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3351,7 +3373,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3409,7 +3431,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3438,7 +3460,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3467,7 +3489,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3496,7 +3518,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3525,7 +3547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3554,7 +3576,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3583,7 +3605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3612,7 +3634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3644,7 +3666,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3673,7 +3695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3705,7 +3727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3756,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3763,7 +3785,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3792,7 +3814,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3821,7 +3843,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3850,7 +3872,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3879,7 +3901,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3908,7 +3930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3937,7 +3959,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3966,7 +3988,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3995,7 +4017,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4024,7 +4046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4053,7 +4075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4085,7 +4107,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4114,7 +4136,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4143,7 +4165,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4172,7 +4194,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4201,7 +4223,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4230,7 +4252,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4259,7 +4281,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4288,7 +4310,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4317,7 +4339,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4346,7 +4368,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4375,7 +4397,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4404,7 +4426,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4433,7 +4455,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4462,7 +4484,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4491,7 +4513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4520,7 +4542,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4549,7 +4571,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -4578,7 +4600,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4607,7 +4629,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -4636,7 +4658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4665,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -4694,7 +4716,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4723,7 +4745,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4752,7 +4774,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -4781,7 +4803,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4810,7 +4832,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4839,7 +4861,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4868,7 +4890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4897,7 +4919,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -4926,7 +4948,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4955,7 +4977,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -4984,7 +5006,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5013,7 +5035,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5042,7 +5064,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,7 +5093,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5100,7 +5122,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5129,7 +5151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5158,7 +5180,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5187,7 +5209,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5216,7 +5238,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5245,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5274,7 +5296,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5303,7 +5325,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5332,7 +5354,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5361,7 +5383,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5390,7 +5412,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -5419,7 +5441,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -5448,7 +5470,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -5477,7 +5499,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -5506,7 +5528,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -5535,7 +5557,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -5564,7 +5586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -5593,7 +5615,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5622,7 +5644,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -5651,7 +5673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5680,7 +5702,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5709,7 +5731,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -5738,7 +5760,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -5767,7 +5789,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -5796,7 +5818,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -5825,7 +5847,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -5854,7 +5876,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -5883,7 +5905,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -5912,7 +5934,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -5941,7 +5963,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -5970,7 +5992,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -5999,7 +6021,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6028,7 +6050,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6057,7 +6079,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6086,7 +6108,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6115,7 +6137,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -6144,7 +6166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6176,7 +6198,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6205,7 +6227,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -6234,7 +6256,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -6263,7 +6285,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -6295,7 +6317,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -6324,7 +6346,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -6353,7 +6375,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -6382,7 +6404,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -6411,7 +6433,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -6440,7 +6462,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -6469,7 +6491,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -6498,7 +6520,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -6527,7 +6549,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -6556,7 +6578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -6585,7 +6607,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -6614,7 +6636,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -6643,7 +6665,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -6672,7 +6694,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -6701,7 +6723,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -6730,7 +6752,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -6759,7 +6781,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -6788,7 +6810,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -6817,7 +6839,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -6846,7 +6868,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -6875,7 +6897,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -6904,7 +6926,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -6933,7 +6955,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -6965,7 +6987,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -6994,7 +7016,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -7023,7 +7045,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -7052,7 +7074,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -7081,7 +7103,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -7110,7 +7132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -7139,7 +7161,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -7168,7 +7190,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -7197,7 +7219,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -7226,7 +7248,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -7255,7 +7277,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -7284,7 +7306,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -7313,7 +7335,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -7342,7 +7364,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -7371,7 +7393,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -7400,7 +7422,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -7429,7 +7451,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -7458,7 +7480,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -7487,7 +7509,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -7516,7 +7538,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -7545,7 +7567,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -7574,7 +7596,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -7603,7 +7625,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -7632,7 +7654,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -7661,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -7690,7 +7712,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -7719,7 +7741,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -7748,7 +7770,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -7777,7 +7799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -7806,7 +7828,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -7835,7 +7857,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -7864,7 +7886,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -7893,7 +7915,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -7922,7 +7944,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -7951,7 +7973,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -7980,7 +8002,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -8009,7 +8031,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -8038,7 +8060,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -8067,7 +8089,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -8096,7 +8118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -8125,7 +8147,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -8154,7 +8176,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -8183,7 +8205,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -8212,7 +8234,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -8241,7 +8263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -8270,7 +8292,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -8298,8 +8320,11 @@
       <c r="N182">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -8327,8 +8352,11 @@
       <c r="N183" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -8356,8 +8384,11 @@
       <c r="N184">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -8385,8 +8416,11 @@
       <c r="N185" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -8414,8 +8448,11 @@
       <c r="N186">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -8443,8 +8480,11 @@
       <c r="N187" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O187" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -8472,8 +8512,11 @@
       <c r="N188" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -8504,8 +8547,11 @@
       <c r="N189" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O189" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -8533,8 +8579,11 @@
       <c r="N190" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -8562,8 +8611,11 @@
       <c r="N191" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O191" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -8591,8 +8643,11 @@
       <c r="N192" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -8620,8 +8675,11 @@
       <c r="N193" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O193" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -8652,8 +8710,11 @@
       <c r="N194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -8681,8 +8742,11 @@
       <c r="N195" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O195" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -8710,8 +8774,11 @@
       <c r="N196" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -8739,8 +8806,11 @@
       <c r="N197">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -8768,8 +8838,11 @@
       <c r="N198" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -8797,8 +8870,11 @@
       <c r="N199">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -8826,8 +8902,11 @@
       <c r="N200" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -8855,8 +8934,11 @@
       <c r="N201">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -8884,8 +8966,11 @@
       <c r="N202" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -8913,8 +8998,11 @@
       <c r="N203">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -8942,8 +9030,11 @@
       <c r="N204" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -8971,8 +9062,11 @@
       <c r="N205">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -9000,8 +9094,11 @@
       <c r="N206" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -9029,8 +9126,11 @@
       <c r="N207">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -9058,8 +9158,11 @@
       <c r="N208" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O208" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -9087,8 +9190,11 @@
       <c r="N209">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -9116,8 +9222,11 @@
       <c r="N210" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O210" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -9145,8 +9254,11 @@
       <c r="N211" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -9174,8 +9286,11 @@
       <c r="N212">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -9203,8 +9318,11 @@
       <c r="N213" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -9232,8 +9350,11 @@
       <c r="N214">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -9261,8 +9382,11 @@
       <c r="N215" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -9290,8 +9414,11 @@
       <c r="N216">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -9319,8 +9446,11 @@
       <c r="N217" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -9348,8 +9478,11 @@
       <c r="N218">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -9377,8 +9510,11 @@
       <c r="N219" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -9406,8 +9542,11 @@
       <c r="N220">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -9435,8 +9574,11 @@
       <c r="N221" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -9464,8 +9606,11 @@
       <c r="N222">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -9493,8 +9638,11 @@
       <c r="N223" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -9522,8 +9670,11 @@
       <c r="N224">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -9551,8 +9702,11 @@
       <c r="N225" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -9580,8 +9734,11 @@
       <c r="N226">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -9609,8 +9766,11 @@
       <c r="N227" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -9638,8 +9798,11 @@
       <c r="N228">
         <v>12</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -9667,8 +9830,11 @@
       <c r="N229" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -9696,8 +9862,11 @@
       <c r="N230">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O230">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -9725,8 +9894,11 @@
       <c r="N231" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -9754,8 +9926,11 @@
       <c r="N232">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O232">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -9783,8 +9958,11 @@
       <c r="N233" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -9812,8 +9990,11 @@
       <c r="N234">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O234">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -9841,8 +10022,11 @@
       <c r="N235" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -9870,8 +10054,11 @@
       <c r="N236">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -9902,8 +10089,11 @@
       <c r="N237" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -9931,8 +10121,11 @@
       <c r="N238">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -9960,8 +10153,11 @@
       <c r="N239" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -9989,8 +10185,11 @@
       <c r="N240">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -10018,8 +10217,11 @@
       <c r="N241" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -10047,8 +10249,11 @@
       <c r="N242">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -10076,8 +10281,11 @@
       <c r="N243" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -10105,8 +10313,11 @@
       <c r="N244">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O244">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -10134,8 +10345,11 @@
       <c r="N245" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -10163,8 +10377,11 @@
       <c r="N246">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O246">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -10192,8 +10409,11 @@
       <c r="N247" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -10221,8 +10441,11 @@
       <c r="N248">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O248">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -10250,8 +10473,11 @@
       <c r="N249" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -10279,8 +10505,11 @@
       <c r="N250">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O250">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -10308,8 +10537,11 @@
       <c r="N251" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -10337,8 +10569,11 @@
       <c r="N252">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -10366,8 +10601,11 @@
       <c r="N253" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -10395,8 +10633,11 @@
       <c r="N254">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -10424,8 +10665,11 @@
       <c r="N255" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -10453,8 +10697,11 @@
       <c r="N256">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -10482,8 +10729,11 @@
       <c r="N257" s="1">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O257" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -10511,8 +10761,11 @@
       <c r="N258" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -10540,8 +10793,11 @@
       <c r="N259">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -10569,8 +10825,11 @@
       <c r="N260" s="1">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O260" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -10598,8 +10857,11 @@
       <c r="N261" s="1">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O261" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -10627,8 +10889,11 @@
       <c r="N262" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -10656,8 +10921,11 @@
       <c r="N263" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O263" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -10685,8 +10953,11 @@
       <c r="N264" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O264" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -10714,8 +10985,11 @@
       <c r="N265" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O265" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -10743,8 +11017,11 @@
       <c r="N266" s="1">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -10772,8 +11049,11 @@
       <c r="N267" s="1">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O267" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -10801,8 +11081,11 @@
       <c r="N268" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -10830,8 +11113,11 @@
       <c r="N269" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O269" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -10859,8 +11145,11 @@
       <c r="N270" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -10888,8 +11177,11 @@
       <c r="N271" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O271" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -10918,7 +11210,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -10947,7 +11239,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="274" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -10976,7 +11268,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -11005,7 +11297,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="276" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -11034,7 +11326,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -11063,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -11092,7 +11384,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -11124,7 +11416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -11153,7 +11445,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="281" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -11182,7 +11474,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -11211,7 +11503,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -11243,7 +11535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -11272,7 +11564,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -11301,7 +11593,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -11330,7 +11622,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -11359,7 +11651,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -11388,7 +11680,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="289" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -11417,7 +11709,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -11446,7 +11738,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="291" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -11475,7 +11767,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -11504,7 +11796,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="293" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -11533,7 +11825,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -11562,7 +11854,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="295" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -11591,7 +11883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -11620,7 +11912,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="297" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -11649,7 +11941,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -11678,7 +11970,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -11707,7 +11999,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -11736,7 +12028,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="301" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -11765,7 +12057,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -11794,7 +12086,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="303" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -11823,7 +12115,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -11852,7 +12144,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="305" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -11881,7 +12173,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -11910,7 +12202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -11939,7 +12231,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -11968,7 +12260,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="309" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -11997,7 +12289,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -12029,7 +12321,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -12058,7 +12350,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -12087,7 +12379,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -12116,7 +12408,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -12145,7 +12437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -12174,7 +12466,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -12203,7 +12495,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -12232,7 +12524,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -12261,7 +12553,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -12290,7 +12582,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -12319,7 +12611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -12348,7 +12640,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -12380,7 +12672,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -12409,7 +12701,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -12441,7 +12733,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -12470,7 +12762,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -12499,7 +12791,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="327" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -12528,7 +12820,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="328" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -12557,7 +12849,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -12586,7 +12878,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -12615,7 +12907,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -12644,7 +12936,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -12673,7 +12965,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -12702,7 +12994,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="334" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -12731,7 +13023,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -12760,7 +13052,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="336" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -12789,7 +13081,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -12818,7 +13110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -12847,7 +13139,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -12876,7 +13168,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="340" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -12905,7 +13197,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -12934,7 +13226,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="342" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -12963,7 +13255,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -12992,7 +13284,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="344" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -13021,7 +13313,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -13050,7 +13342,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="346" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -13079,7 +13371,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -13108,7 +13400,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="348" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -13137,7 +13429,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -13166,7 +13458,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="350" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -13195,7 +13487,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="351" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -13224,7 +13516,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -13253,7 +13545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -13282,7 +13574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -13311,7 +13603,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -13343,7 +13635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -13372,7 +13664,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="357" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -13401,7 +13693,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -13430,7 +13722,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="359" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -13459,7 +13751,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -13488,7 +13780,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="361" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -13517,7 +13809,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -13545,8 +13837,11 @@
       <c r="N362">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O362">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -13574,8 +13869,11 @@
       <c r="N363" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -13603,8 +13901,11 @@
       <c r="N364">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O364">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -13632,8 +13933,11 @@
       <c r="N365" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O365" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -13661,8 +13965,11 @@
       <c r="N366">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O366">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -13690,8 +13997,11 @@
       <c r="N367" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -13722,8 +14032,11 @@
       <c r="N368">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -13751,8 +14064,11 @@
       <c r="N369" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -13780,8 +14096,11 @@
       <c r="N370">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O370">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -13809,8 +14128,11 @@
       <c r="N371" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -13838,8 +14160,11 @@
       <c r="N372">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O372">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -13867,8 +14192,11 @@
       <c r="N373" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O373" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -13896,8 +14224,11 @@
       <c r="N374">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O374">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -13925,8 +14256,11 @@
       <c r="N375" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O375" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -13954,8 +14288,11 @@
       <c r="N376">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O376">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -13983,8 +14320,11 @@
       <c r="N377" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O377" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -14012,8 +14352,11 @@
       <c r="N378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O378">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -14041,8 +14384,11 @@
       <c r="N379" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O379" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -14073,8 +14419,11 @@
       <c r="N380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O380" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -14105,8 +14454,11 @@
       <c r="N381" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O381" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -14134,8 +14486,11 @@
       <c r="N382">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O382">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -14163,8 +14518,11 @@
       <c r="N383" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O383" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -14192,8 +14550,11 @@
       <c r="N384">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O384">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -14221,8 +14582,11 @@
       <c r="N385" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O385" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -14250,8 +14614,11 @@
       <c r="N386">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O386">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -14282,8 +14649,11 @@
       <c r="N387" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O387" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -14311,8 +14681,11 @@
       <c r="N388">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O388">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -14340,8 +14713,11 @@
       <c r="N389" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O389" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -14369,8 +14745,11 @@
       <c r="N390">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O390">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -14398,8 +14777,11 @@
       <c r="N391" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O391" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -14430,8 +14812,11 @@
       <c r="N392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O392" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -14459,8 +14844,11 @@
       <c r="N393" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O393" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -14488,8 +14876,11 @@
       <c r="N394">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O394">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -14517,8 +14908,11 @@
       <c r="N395" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O395" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -14546,8 +14940,11 @@
       <c r="N396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -14575,8 +14972,11 @@
       <c r="N397" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O397" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -14604,8 +15004,11 @@
       <c r="N398" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O398" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -14630,14 +15033,17 @@
       <c r="K399">
         <v>1.8</v>
       </c>
-      <c r="M399" s="1">
+      <c r="M399">
         <v>1.8</v>
       </c>
-      <c r="N399" s="1">
+      <c r="N399">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O399">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -14665,8 +15071,11 @@
       <c r="N400" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O400" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -14688,14 +15097,17 @@
       <c r="K401">
         <v>3</v>
       </c>
-      <c r="M401" s="1">
+      <c r="M401">
         <v>2.9</v>
       </c>
-      <c r="N401" s="1">
+      <c r="N401">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O401">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -14723,8 +15135,11 @@
       <c r="N402" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O402" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -14740,20 +15155,26 @@
       <c r="E403" t="s">
         <v>391</v>
       </c>
+      <c r="F403" t="s">
+        <v>692</v>
+      </c>
       <c r="H403">
         <v>0.7</v>
       </c>
       <c r="K403">
         <v>0.6</v>
       </c>
-      <c r="M403" s="1">
+      <c r="M403">
         <v>0.5</v>
       </c>
-      <c r="N403" s="1">
+      <c r="N403">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O403">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -14784,8 +15205,11 @@
       <c r="N404" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O404" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -14807,14 +15231,17 @@
       <c r="K405">
         <v>2.4</v>
       </c>
-      <c r="M405" s="1">
+      <c r="M405">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N405" s="1">
+      <c r="N405">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O405">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -14842,8 +15269,11 @@
       <c r="N406" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O406" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -14871,8 +15301,11 @@
       <c r="N407">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O407">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -14900,8 +15333,11 @@
       <c r="N408" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O408" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -14929,8 +15365,11 @@
       <c r="N409">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O409">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -14958,8 +15397,11 @@
       <c r="N410" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O410" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -14987,8 +15429,11 @@
       <c r="N411">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O411">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -15016,8 +15461,11 @@
       <c r="N412" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O412" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -15045,8 +15493,11 @@
       <c r="N413">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O413">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -15074,8 +15525,11 @@
       <c r="N414" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O414" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -15103,8 +15557,11 @@
       <c r="N415">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O415">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -15135,8 +15592,11 @@
       <c r="N416" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O416" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -15167,8 +15627,11 @@
       <c r="N417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -15196,8 +15659,11 @@
       <c r="N418" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O418" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -15225,8 +15691,11 @@
       <c r="N419">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O419">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -15254,8 +15723,11 @@
       <c r="N420" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O420" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -15286,8 +15758,11 @@
       <c r="N421" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O421" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -15315,8 +15790,11 @@
       <c r="N422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O422">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -15347,8 +15825,11 @@
       <c r="N423" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O423" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -15376,8 +15857,11 @@
       <c r="N424">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O424">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -15405,8 +15889,11 @@
       <c r="N425" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O425" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -15434,8 +15921,11 @@
       <c r="N426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O426">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -15463,8 +15953,11 @@
       <c r="N427" s="1">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O427" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -15492,8 +15985,11 @@
       <c r="N428">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O428">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -15521,8 +16017,11 @@
       <c r="N429" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O429" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -15550,8 +16049,11 @@
       <c r="N430">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O430">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -15579,8 +16081,11 @@
       <c r="N431" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O431" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -15608,8 +16113,11 @@
       <c r="N432">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O432">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -15637,8 +16145,11 @@
       <c r="N433" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -15666,8 +16177,11 @@
       <c r="N434">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O434">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -15695,8 +16209,11 @@
       <c r="N435" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O435" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -15724,8 +16241,11 @@
       <c r="N436">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O436">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -15753,8 +16273,11 @@
       <c r="N437" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O437" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -15782,8 +16305,11 @@
       <c r="N438">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -15811,8 +16337,11 @@
       <c r="N439" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O439" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -15840,8 +16369,11 @@
       <c r="N440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O440">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -15869,8 +16401,11 @@
       <c r="N441" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O441" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -15901,8 +16436,11 @@
       <c r="N442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O442" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -15930,8 +16468,11 @@
       <c r="N443" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O443" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -15959,8 +16500,11 @@
       <c r="N444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O444" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -15988,8 +16532,11 @@
       <c r="N445" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O445" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -16017,8 +16564,11 @@
       <c r="N446">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O446">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -16046,8 +16596,11 @@
       <c r="N447" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O447" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -16075,8 +16628,11 @@
       <c r="N448">
         <v>3</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O448">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -16104,8 +16660,11 @@
       <c r="N449" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O449" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -16133,8 +16692,11 @@
       <c r="N450">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O450">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -16150,6 +16712,9 @@
       <c r="E451" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="F451" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H451" s="1">
         <v>0.4</v>
       </c>
@@ -16162,8 +16727,11 @@
       <c r="N451" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O451" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -16192,7 +16760,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="453" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -16221,7 +16789,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -16250,7 +16818,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="455" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -16279,7 +16847,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -16308,7 +16876,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -16337,7 +16905,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -16366,7 +16934,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="459" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -16395,7 +16963,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -16424,7 +16992,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="461" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -16453,7 +17021,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -16482,7 +17050,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="463" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -16511,7 +17079,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -16540,7 +17108,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="465" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -16569,7 +17137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="466" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -16598,7 +17166,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -16627,7 +17195,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="468" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -16656,7 +17224,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -16685,7 +17253,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -16714,7 +17282,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -16743,7 +17311,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="472" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -16772,7 +17340,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -16801,7 +17369,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -16833,7 +17401,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -16862,7 +17430,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="476" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -16891,7 +17459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -16920,7 +17488,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="478" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -16949,7 +17517,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -16978,7 +17546,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -17007,7 +17575,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -17036,7 +17604,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="482" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -17065,7 +17633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -17094,7 +17662,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="484" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -17123,7 +17691,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -17152,7 +17720,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="486" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -17181,7 +17749,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -17210,7 +17778,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="488" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -17239,7 +17807,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="489" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -17268,7 +17836,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -17297,7 +17865,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="491" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -17326,7 +17894,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -17355,7 +17923,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="493" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -17384,7 +17952,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -17413,7 +17981,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="495" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -17445,7 +18013,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -17474,7 +18042,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="497" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -17503,7 +18071,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -17532,7 +18100,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="499" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -17561,7 +18129,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -17590,7 +18158,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="501" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -17619,7 +18187,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -17648,7 +18216,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="503" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -17677,7 +18245,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -17706,7 +18274,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="505" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -17735,7 +18303,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -17764,7 +18332,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -17793,7 +18361,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -17822,7 +18390,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="509" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -17851,7 +18419,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -17880,7 +18448,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="511" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -17909,7 +18477,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -17938,7 +18506,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="513" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -17967,7 +18535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -17996,7 +18564,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="515" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -18025,7 +18593,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -18054,7 +18622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -18086,7 +18654,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -18118,7 +18686,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -18147,7 +18715,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -18176,7 +18744,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="521" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -18205,7 +18773,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -18234,7 +18802,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="523" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -18263,7 +18831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -18292,7 +18860,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="525" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -18321,7 +18889,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -18350,7 +18918,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="527" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -18379,7 +18947,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -18408,7 +18976,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="529" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>572</v>
       </c>
@@ -18437,7 +19005,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -18466,7 +19034,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="531" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>574</v>
       </c>
@@ -18495,7 +19063,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -18527,7 +19095,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="533" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>577</v>
       </c>
@@ -18556,7 +19124,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>578</v>
       </c>
@@ -18585,7 +19153,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="535" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>579</v>
       </c>
@@ -18614,7 +19182,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="536" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>580</v>
       </c>
@@ -18643,7 +19211,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>581</v>
       </c>
@@ -18672,7 +19240,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="538" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>582</v>
       </c>
@@ -18701,7 +19269,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>583</v>
       </c>
@@ -18730,7 +19298,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="540" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>584</v>
       </c>
@@ -18759,7 +19327,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -18788,7 +19356,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="542" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>586</v>
       </c>
@@ -18816,8 +19384,11 @@
       <c r="N542" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O542" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>589</v>
       </c>
@@ -18845,8 +19416,11 @@
       <c r="N543">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="544" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O543">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>590</v>
       </c>
@@ -18874,8 +19448,11 @@
       <c r="N544" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O544" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>591</v>
       </c>
@@ -18903,8 +19480,11 @@
       <c r="N545">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="546" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O545">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>592</v>
       </c>
@@ -18932,8 +19512,11 @@
       <c r="N546" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O546" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>593</v>
       </c>
@@ -18961,8 +19544,11 @@
       <c r="N547">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="548" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O547">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>594</v>
       </c>
@@ -18990,8 +19576,11 @@
       <c r="N548" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O548" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>595</v>
       </c>
@@ -19019,8 +19608,11 @@
       <c r="N549">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="550" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O549">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>596</v>
       </c>
@@ -19048,8 +19640,11 @@
       <c r="N550" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O550" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>597</v>
       </c>
@@ -19077,8 +19672,11 @@
       <c r="N551">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="552" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O551">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>598</v>
       </c>
@@ -19094,6 +19692,9 @@
       <c r="E552" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="F552" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="J552" s="1">
         <v>0.5</v>
       </c>
@@ -19106,8 +19707,11 @@
       <c r="N552" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>599</v>
       </c>
@@ -19135,8 +19739,11 @@
       <c r="N553">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="554" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O553">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>600</v>
       </c>
@@ -19164,8 +19771,11 @@
       <c r="N554" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O554" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>601</v>
       </c>
@@ -19193,8 +19803,11 @@
       <c r="N555">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="556" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O555">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>602</v>
       </c>
@@ -19222,8 +19835,11 @@
       <c r="N556" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O556" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>603</v>
       </c>
@@ -19251,8 +19867,11 @@
       <c r="N557">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="558" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O557">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>604</v>
       </c>
@@ -19280,8 +19899,11 @@
       <c r="N558" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="559" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O558" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>605</v>
       </c>
@@ -19309,8 +19931,11 @@
       <c r="N559" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O559" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -19338,8 +19963,11 @@
       <c r="N560" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="561" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O560" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>607</v>
       </c>
@@ -19367,8 +19995,11 @@
       <c r="N561" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O561" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -19396,8 +20027,11 @@
       <c r="N562" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="563" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O562" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>609</v>
       </c>
@@ -19425,8 +20059,11 @@
       <c r="N563" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O563" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -19454,8 +20091,11 @@
       <c r="N564" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="565" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O564" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>611</v>
       </c>
@@ -19483,8 +20123,11 @@
       <c r="N565" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O565" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>612</v>
       </c>
@@ -19512,8 +20155,11 @@
       <c r="N566" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="567" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O566" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>613</v>
       </c>
@@ -19541,8 +20187,11 @@
       <c r="N567" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O567" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>614</v>
       </c>
@@ -19570,8 +20219,11 @@
       <c r="N568" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="569" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O568" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>615</v>
       </c>
@@ -19599,8 +20251,11 @@
       <c r="N569" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O569" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>616</v>
       </c>
@@ -19628,8 +20283,11 @@
       <c r="N570" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="571" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O570" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>617</v>
       </c>
@@ -19657,8 +20315,11 @@
       <c r="N571" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O571" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>618</v>
       </c>
@@ -19686,8 +20347,11 @@
       <c r="N572">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="573" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O572">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>619</v>
       </c>
@@ -19715,8 +20379,11 @@
       <c r="N573" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O573" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>620</v>
       </c>
@@ -19744,8 +20411,11 @@
       <c r="N574">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="575" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O574" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>621</v>
       </c>
@@ -19773,8 +20443,11 @@
       <c r="N575" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O575" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>622</v>
       </c>
@@ -19802,8 +20475,11 @@
       <c r="N576">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="577" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O576">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>623</v>
       </c>
@@ -19831,8 +20507,11 @@
       <c r="N577" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O577" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>624</v>
       </c>
@@ -19860,8 +20539,11 @@
       <c r="N578">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="579" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O578">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>625</v>
       </c>
@@ -19889,8 +20571,11 @@
       <c r="N579" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O579" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>626</v>
       </c>
@@ -19918,8 +20603,11 @@
       <c r="N580">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="581" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O580">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>627</v>
       </c>
@@ -19947,8 +20635,11 @@
       <c r="N581" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O581" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>628</v>
       </c>
@@ -19976,8 +20667,11 @@
       <c r="N582">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="583" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O582">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>629</v>
       </c>
@@ -20005,8 +20699,11 @@
       <c r="N583" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O583" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>630</v>
       </c>
@@ -20034,8 +20731,11 @@
       <c r="N584">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="585" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O584">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>631</v>
       </c>
@@ -20063,8 +20763,11 @@
       <c r="N585" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O585" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>632</v>
       </c>
@@ -20092,8 +20795,11 @@
       <c r="N586">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="587" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O586">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>633</v>
       </c>
@@ -20121,8 +20827,11 @@
       <c r="N587" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O587" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>634</v>
       </c>
@@ -20153,8 +20862,11 @@
       <c r="N588" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="589" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O588" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -20185,8 +20897,11 @@
       <c r="N589" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>638</v>
       </c>
@@ -20214,8 +20929,11 @@
       <c r="N590">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="591" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O590">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>639</v>
       </c>
@@ -20243,8 +20961,11 @@
       <c r="N591" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O591" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>640</v>
       </c>
@@ -20272,8 +20993,11 @@
       <c r="N592">
         <v>1</v>
       </c>
-    </row>
-    <row r="593" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O592">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>641</v>
       </c>
@@ -20301,8 +21025,11 @@
       <c r="N593" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O593" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -20330,8 +21057,11 @@
       <c r="N594">
         <v>1</v>
       </c>
-    </row>
-    <row r="595" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O594">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>643</v>
       </c>
@@ -20359,8 +21089,11 @@
       <c r="N595" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O595" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>644</v>
       </c>
@@ -20388,8 +21121,11 @@
       <c r="N596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O596">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>645</v>
       </c>
@@ -20417,8 +21153,11 @@
       <c r="N597" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O597" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>646</v>
       </c>
@@ -20446,8 +21185,11 @@
       <c r="N598">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="599" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O598">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>647</v>
       </c>
@@ -20475,8 +21217,11 @@
       <c r="N599" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O599" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>648</v>
       </c>
@@ -20504,8 +21249,11 @@
       <c r="N600">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="601" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O600">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>649</v>
       </c>
@@ -20533,8 +21281,11 @@
       <c r="N601" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O601" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>650</v>
       </c>
@@ -20562,8 +21313,11 @@
       <c r="N602">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="603" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>651</v>
       </c>
@@ -20594,8 +21348,11 @@
       <c r="N603" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>653</v>
       </c>
@@ -20626,8 +21383,11 @@
       <c r="N604">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="605" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>654</v>
       </c>
@@ -20655,8 +21415,11 @@
       <c r="N605" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="606" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>655</v>
       </c>
@@ -20684,8 +21447,11 @@
       <c r="N606" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O606" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>656</v>
       </c>
@@ -20713,8 +21479,11 @@
       <c r="N607" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="608" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O607">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>657</v>
       </c>
@@ -20742,8 +21511,11 @@
       <c r="N608" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O608" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>658</v>
       </c>
@@ -20771,8 +21543,11 @@
       <c r="N609" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="610" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O609" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>659</v>
       </c>
@@ -20800,8 +21575,11 @@
       <c r="N610" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O610" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>660</v>
       </c>
@@ -20829,8 +21607,11 @@
       <c r="N611" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="612" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O611" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>661</v>
       </c>
@@ -20847,7 +21628,7 @@
         <v>588</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="J612" s="1">
         <v>0.5</v>
@@ -20861,8 +21642,11 @@
       <c r="N612" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>662</v>
       </c>
@@ -20890,8 +21674,11 @@
       <c r="N613" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="614" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O613" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>663</v>
       </c>
@@ -20922,8 +21709,11 @@
       <c r="N614" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O614" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>665</v>
       </c>
@@ -20951,8 +21741,11 @@
       <c r="N615" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="616" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O615" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>666</v>
       </c>
@@ -20980,8 +21773,11 @@
       <c r="N616" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O616" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -21009,8 +21805,11 @@
       <c r="N617">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="618" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O617">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>668</v>
       </c>
@@ -21038,8 +21837,11 @@
       <c r="N618" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O618" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>669</v>
       </c>
@@ -21067,8 +21869,11 @@
       <c r="N619">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="620" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O619">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>670</v>
       </c>
@@ -21084,6 +21889,9 @@
       <c r="E620" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="F620" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="J620" s="1">
         <v>0.5</v>
       </c>
@@ -21096,8 +21904,11 @@
       <c r="N620" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O620" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>671</v>
       </c>
@@ -21125,8 +21936,11 @@
       <c r="N621">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="622" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O621">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>672</v>
       </c>
@@ -21154,8 +21968,11 @@
       <c r="N622" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O622" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -21183,8 +22000,11 @@
       <c r="N623">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="624" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O623">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>674</v>
       </c>
@@ -21212,8 +22032,11 @@
       <c r="N624" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O624" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>675</v>
       </c>
@@ -21241,8 +22064,11 @@
       <c r="N625">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="626" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O625">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>676</v>
       </c>
@@ -21270,8 +22096,11 @@
       <c r="N626" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O626" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>677</v>
       </c>
@@ -21299,8 +22128,11 @@
       <c r="N627">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="628" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O627">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>678</v>
       </c>
@@ -21328,8 +22160,11 @@
       <c r="N628" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O628" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>679</v>
       </c>
@@ -21357,8 +22192,11 @@
       <c r="N629">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="630" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O629">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>680</v>
       </c>
@@ -21386,8 +22224,11 @@
       <c r="N630" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O630" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>681</v>
       </c>
@@ -21415,9 +22256,18 @@
       <c r="N631">
         <v>0.6</v>
       </c>
+      <c r="O631">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E631" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="prunus"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38FDFB-0924-3141-871D-37DB3A953962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213B917-36D3-D640-9DE4-A2120313DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="695">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2668,10 +2668,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2992,11 +2988,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" ySplit="181" topLeftCell="I362" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
-      <selection pane="bottomRight" activeCell="P445" sqref="P445"/>
+    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O527" sqref="O527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3079,6 +3073,9 @@
       <c r="N2">
         <v>13.8</v>
       </c>
+      <c r="O2">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3108,6 +3105,9 @@
       <c r="N3" s="1">
         <v>11.6</v>
       </c>
+      <c r="O3" s="1">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3137,6 +3137,9 @@
       <c r="N4">
         <v>16.899999999999999</v>
       </c>
+      <c r="O4">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3166,6 +3169,9 @@
       <c r="N5" s="1">
         <v>11.2</v>
       </c>
+      <c r="O5" s="1">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3195,6 +3201,9 @@
       <c r="N6">
         <v>17.5</v>
       </c>
+      <c r="O6">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3224,6 +3233,9 @@
       <c r="N7" s="1">
         <v>2</v>
       </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3253,6 +3265,9 @@
       <c r="N8">
         <v>8.1</v>
       </c>
+      <c r="O8">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3282,6 +3297,9 @@
       <c r="N9" s="1">
         <v>16</v>
       </c>
+      <c r="O9" s="1">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3311,6 +3329,9 @@
       <c r="N10">
         <v>9.6999999999999993</v>
       </c>
+      <c r="O10">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3340,6 +3361,9 @@
       <c r="N11" s="1">
         <v>4.5</v>
       </c>
+      <c r="O11" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3372,6 +3396,9 @@
       <c r="N12">
         <v>4.5</v>
       </c>
+      <c r="O12">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3401,6 +3428,9 @@
       <c r="N13" s="1">
         <v>5.2</v>
       </c>
+      <c r="O13" s="1">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3430,6 +3460,9 @@
       <c r="N14">
         <v>5.5</v>
       </c>
+      <c r="O14">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3459,6 +3492,9 @@
       <c r="N15" s="1">
         <v>12.2</v>
       </c>
+      <c r="O15" s="1">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3488,8 +3524,11 @@
       <c r="N16">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3517,8 +3556,11 @@
       <c r="N17" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3546,8 +3588,11 @@
       <c r="N18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,8 +3620,11 @@
       <c r="N19" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3604,8 +3652,11 @@
       <c r="N20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3634,7 +3685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3665,8 +3716,11 @@
       <c r="N22">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3694,8 +3748,11 @@
       <c r="N23" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3726,8 +3783,11 @@
       <c r="N24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3755,8 +3815,11 @@
       <c r="N25" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3784,8 +3847,11 @@
       <c r="N26">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3813,8 +3879,11 @@
       <c r="N27" s="1">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3842,8 +3911,11 @@
       <c r="N28">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3871,8 +3943,11 @@
       <c r="N29" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3900,8 +3975,11 @@
       <c r="N30">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3929,8 +4007,11 @@
       <c r="N31" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3958,8 +4039,11 @@
       <c r="N32">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3987,8 +4071,11 @@
       <c r="N33" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4016,8 +4103,11 @@
       <c r="N34">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,8 +4135,11 @@
       <c r="N35" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4074,8 +4167,11 @@
       <c r="N36">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4106,8 +4202,11 @@
       <c r="N37" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4135,8 +4234,11 @@
       <c r="N38">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4164,8 +4266,11 @@
       <c r="N39" s="1">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4193,8 +4298,11 @@
       <c r="N40">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4222,8 +4330,11 @@
       <c r="N41" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4251,8 +4362,11 @@
       <c r="N42">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4280,8 +4394,11 @@
       <c r="N43" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4309,8 +4426,11 @@
       <c r="N44">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4338,8 +4458,11 @@
       <c r="N45" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4367,8 +4490,11 @@
       <c r="N46">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4396,8 +4522,11 @@
       <c r="N47" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4425,8 +4554,11 @@
       <c r="N48" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4454,8 +4586,11 @@
       <c r="N49">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4483,8 +4618,11 @@
       <c r="N50" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4512,8 +4650,11 @@
       <c r="N51" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4541,8 +4682,11 @@
       <c r="N52" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4570,8 +4714,11 @@
       <c r="N53" s="1">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -4599,8 +4746,11 @@
       <c r="N54" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4628,8 +4778,11 @@
       <c r="N55" s="1">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -4657,8 +4810,11 @@
       <c r="N56" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4686,8 +4842,11 @@
       <c r="N57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -4715,8 +4874,11 @@
       <c r="N58" s="1">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4744,8 +4906,11 @@
       <c r="N59" s="1">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4773,8 +4938,11 @@
       <c r="N60" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -4802,8 +4970,11 @@
       <c r="N61" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4831,8 +5002,11 @@
       <c r="N62" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4860,8 +5034,11 @@
       <c r="N63">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4889,8 +5066,11 @@
       <c r="N64" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4918,8 +5098,11 @@
       <c r="N65">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -4947,8 +5130,11 @@
       <c r="N66" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4976,8 +5162,11 @@
       <c r="N67">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5005,8 +5194,11 @@
       <c r="N68" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5034,8 +5226,11 @@
       <c r="N69">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5063,8 +5258,11 @@
       <c r="N70" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5092,8 +5290,11 @@
       <c r="N71" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5121,8 +5322,11 @@
       <c r="N72" s="1">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5150,8 +5354,11 @@
       <c r="N73" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5179,8 +5386,11 @@
       <c r="N74" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5208,8 +5418,11 @@
       <c r="N75" s="1">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5237,8 +5450,11 @@
       <c r="N76" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5266,8 +5482,11 @@
       <c r="N77" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O77" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5295,8 +5514,11 @@
       <c r="N78">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5324,8 +5546,11 @@
       <c r="N79" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O79" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5353,8 +5578,11 @@
       <c r="N80">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5382,8 +5610,11 @@
       <c r="N81" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O81" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5411,8 +5642,11 @@
       <c r="N82">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -5440,8 +5674,11 @@
       <c r="N83" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O83" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -5469,8 +5706,11 @@
       <c r="N84">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="N85" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O85" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -5527,8 +5770,11 @@
       <c r="N86">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -5556,8 +5802,11 @@
       <c r="N87" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O87" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -5585,8 +5834,11 @@
       <c r="N88">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -5614,8 +5866,11 @@
       <c r="N89" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O89" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5643,8 +5898,11 @@
       <c r="N90">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -5672,8 +5930,11 @@
       <c r="N91" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O91" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5701,8 +5962,11 @@
       <c r="N92">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5730,8 +5994,11 @@
       <c r="N93" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O93" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -5759,8 +6026,11 @@
       <c r="N94">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -5788,8 +6058,11 @@
       <c r="N95" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O95" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -5817,8 +6090,11 @@
       <c r="N96">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -5846,8 +6122,11 @@
       <c r="N97" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O97" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -5875,8 +6154,11 @@
       <c r="N98">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -5904,8 +6186,11 @@
       <c r="N99" s="1">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O99" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -5933,8 +6218,11 @@
       <c r="N100">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -5962,8 +6250,11 @@
       <c r="N101" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O101" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -5991,8 +6282,11 @@
       <c r="N102">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -6020,8 +6314,11 @@
       <c r="N103" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O103" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6049,8 +6346,11 @@
       <c r="N104">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6078,8 +6378,11 @@
       <c r="N105" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O105" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6107,8 +6410,11 @@
       <c r="N106">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6136,8 +6442,11 @@
       <c r="N107" s="1">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O107" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -6165,8 +6474,11 @@
       <c r="N108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6197,8 +6509,11 @@
       <c r="N109" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O109" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6226,8 +6541,11 @@
       <c r="N110">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -6255,8 +6573,11 @@
       <c r="N111" s="1">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O111" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -6284,8 +6605,11 @@
       <c r="N112">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -6316,8 +6640,11 @@
       <c r="N113" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O113" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -6345,8 +6672,11 @@
       <c r="N114">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -6374,8 +6704,11 @@
       <c r="N115" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O115" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -6403,8 +6736,11 @@
       <c r="N116">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -6432,8 +6768,11 @@
       <c r="N117" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O117" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -6461,8 +6800,11 @@
       <c r="N118" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O118" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -6490,8 +6832,11 @@
       <c r="N119">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O119" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -6519,8 +6864,11 @@
       <c r="N120" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O120" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -6548,8 +6896,11 @@
       <c r="N121" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O121" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -6577,8 +6928,11 @@
       <c r="N122" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O122" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -6606,8 +6960,11 @@
       <c r="N123" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -6635,8 +6992,11 @@
       <c r="N124" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O124" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -6664,8 +7024,11 @@
       <c r="N125" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -6693,8 +7056,11 @@
       <c r="N126" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O126" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -6722,8 +7088,11 @@
       <c r="N127" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -6751,8 +7120,11 @@
       <c r="N128" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O128" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -6780,8 +7152,11 @@
       <c r="N129" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -6809,8 +7184,11 @@
       <c r="N130" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O130" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -6838,8 +7216,11 @@
       <c r="N131" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -6867,8 +7248,11 @@
       <c r="N132" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O132" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -6896,8 +7280,11 @@
       <c r="N133">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -6925,8 +7312,11 @@
       <c r="N134" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O134" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -6954,8 +7344,11 @@
       <c r="N135">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -6986,8 +7379,11 @@
       <c r="N136" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O136" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -7015,8 +7411,11 @@
       <c r="N137">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -7044,8 +7443,11 @@
       <c r="N138" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O138" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -7073,8 +7475,11 @@
       <c r="N139">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -7102,8 +7507,11 @@
       <c r="N140" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O140" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -7131,8 +7539,11 @@
       <c r="N141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O141" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -7160,8 +7571,11 @@
       <c r="N142" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O142" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -7189,8 +7603,11 @@
       <c r="N143" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O143" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -7218,8 +7635,11 @@
       <c r="N144" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O144" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -7247,8 +7667,11 @@
       <c r="N145" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O145" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -7276,8 +7699,11 @@
       <c r="N146" s="1">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O146" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -7305,8 +7731,11 @@
       <c r="N147" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O147" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -7334,8 +7763,11 @@
       <c r="N148">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O148" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -7363,8 +7795,11 @@
       <c r="N149" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -7392,8 +7827,11 @@
       <c r="N150">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O150" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -7421,8 +7859,11 @@
       <c r="N151" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O151" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -7450,8 +7891,11 @@
       <c r="N152">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -7479,8 +7923,11 @@
       <c r="N153" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O153" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -7508,8 +7955,11 @@
       <c r="N154">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -7537,8 +7987,11 @@
       <c r="N155" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O155" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -7566,8 +8019,11 @@
       <c r="N156">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -7595,8 +8051,11 @@
       <c r="N157" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O157" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -7624,8 +8083,11 @@
       <c r="N158">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -7653,8 +8115,11 @@
       <c r="N159" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O159" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -7682,8 +8147,11 @@
       <c r="N160">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -7711,8 +8179,11 @@
       <c r="N161" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O161" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -7740,8 +8211,11 @@
       <c r="N162" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -7769,8 +8243,11 @@
       <c r="N163" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O163" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -7798,8 +8275,11 @@
       <c r="N164">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -7827,8 +8307,11 @@
       <c r="N165" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O165" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -7856,8 +8339,11 @@
       <c r="N166" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -7885,8 +8371,11 @@
       <c r="N167" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O167" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -7914,8 +8403,11 @@
       <c r="N168" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -7943,8 +8435,11 @@
       <c r="N169" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -7972,8 +8467,11 @@
       <c r="N170" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -8001,8 +8499,11 @@
       <c r="N171" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O171" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -8030,8 +8531,11 @@
       <c r="N172" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -8059,8 +8563,11 @@
       <c r="N173" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O173" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -8088,8 +8595,11 @@
       <c r="N174" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -8117,8 +8627,11 @@
       <c r="N175" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O175" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -8145,6 +8658,9 @@
       </c>
       <c r="N176" s="1">
         <v>8.6999999999999993</v>
+      </c>
+      <c r="O176">
+        <v>9.4</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8175,6 +8691,9 @@
       <c r="N177" s="1">
         <v>4.0999999999999996</v>
       </c>
+      <c r="O177" s="1">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -8204,6 +8723,9 @@
       <c r="N178">
         <v>8.8000000000000007</v>
       </c>
+      <c r="O178">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="179" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
@@ -8233,6 +8755,9 @@
       <c r="N179" s="1">
         <v>8.4</v>
       </c>
+      <c r="O179" s="1">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -8262,6 +8787,9 @@
       <c r="N180">
         <v>8</v>
       </c>
+      <c r="O180">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="181" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
@@ -8291,6 +8819,9 @@
       <c r="N181" s="1">
         <v>5.3</v>
       </c>
+      <c r="O181" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -11209,8 +11740,11 @@
       <c r="N272" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O272" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -11238,8 +11772,11 @@
       <c r="N273" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O273" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -11267,8 +11804,11 @@
       <c r="N274" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -11296,8 +11836,11 @@
       <c r="N275" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O275" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -11325,8 +11868,11 @@
       <c r="N276" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O276" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -11354,8 +11900,11 @@
       <c r="N277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O277" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -11383,8 +11932,11 @@
       <c r="N278" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O278" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -11415,8 +11967,11 @@
       <c r="N279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -11444,8 +11999,11 @@
       <c r="N280" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O280" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -11473,8 +12031,11 @@
       <c r="N281" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O281" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -11502,8 +12063,11 @@
       <c r="N282">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O282" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -11534,8 +12098,11 @@
       <c r="N283" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O283" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -11563,8 +12130,11 @@
       <c r="N284">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O284">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -11592,8 +12162,11 @@
       <c r="N285" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O285" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -11621,8 +12194,11 @@
       <c r="N286">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O286" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -11650,8 +12226,11 @@
       <c r="N287" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O287" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -11679,8 +12258,11 @@
       <c r="N288">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O288">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -11708,8 +12290,11 @@
       <c r="N289" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O289" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -11737,8 +12322,11 @@
       <c r="N290">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O290">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -11766,8 +12354,11 @@
       <c r="N291" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O291" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -11795,8 +12386,11 @@
       <c r="N292">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -11824,8 +12418,11 @@
       <c r="N293" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O293" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -11853,8 +12450,11 @@
       <c r="N294">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O294">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -11882,8 +12482,11 @@
       <c r="N295" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O295" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -11911,8 +12514,11 @@
       <c r="N296">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O296">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -11940,8 +12546,11 @@
       <c r="N297" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O297" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -11969,8 +12578,11 @@
       <c r="N298">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O298">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -11998,8 +12610,11 @@
       <c r="N299" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O299" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -12027,8 +12642,11 @@
       <c r="N300">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O300">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -12056,8 +12674,11 @@
       <c r="N301" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O301" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -12085,8 +12706,11 @@
       <c r="N302">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O302">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -12114,8 +12738,11 @@
       <c r="N303" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O303" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -12143,8 +12770,11 @@
       <c r="N304">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O304">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -12172,8 +12802,11 @@
       <c r="N305" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O305" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -12201,8 +12834,11 @@
       <c r="N306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -12230,8 +12866,11 @@
       <c r="N307" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O307" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -12259,8 +12898,11 @@
       <c r="N308">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O308">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -12288,8 +12930,11 @@
       <c r="N309" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O309" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -12320,8 +12965,11 @@
       <c r="N310">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -12349,8 +12997,11 @@
       <c r="N311" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O311" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -12378,8 +13029,11 @@
       <c r="N312">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O312">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -12407,8 +13061,11 @@
       <c r="N313" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O313" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -12436,8 +13093,11 @@
       <c r="N314">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O314">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -12465,8 +13125,11 @@
       <c r="N315" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -12494,8 +13157,11 @@
       <c r="N316">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O316">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -12523,8 +13189,11 @@
       <c r="N317" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O317" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -12552,8 +13221,11 @@
       <c r="N318">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O318">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -12581,8 +13253,11 @@
       <c r="N319" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O319" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -12610,8 +13285,11 @@
       <c r="N320">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O320">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -12639,8 +13317,11 @@
       <c r="N321" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O321" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -12671,8 +13352,11 @@
       <c r="N322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -12700,8 +13384,11 @@
       <c r="N323" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O323" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -12732,8 +13419,11 @@
       <c r="N324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -12761,8 +13451,11 @@
       <c r="N325" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O325" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -12790,8 +13483,11 @@
       <c r="N326">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O326">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -12819,8 +13515,11 @@
       <c r="N327" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O327" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -12848,8 +13547,11 @@
       <c r="N328" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O328" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -12877,8 +13579,11 @@
       <c r="N329">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O329" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -12906,8 +13611,11 @@
       <c r="N330" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O330" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -12935,8 +13643,11 @@
       <c r="N331" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O331" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -12964,8 +13675,11 @@
       <c r="N332" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O332" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -12993,8 +13707,11 @@
       <c r="N333" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -13022,8 +13739,11 @@
       <c r="N334" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O334" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -13051,8 +13771,11 @@
       <c r="N335" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -13080,8 +13803,11 @@
       <c r="N336" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O336" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -13109,8 +13835,11 @@
       <c r="N337">
         <v>5</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O337">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -13138,8 +13867,11 @@
       <c r="N338" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O338" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -13167,8 +13899,11 @@
       <c r="N339">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O339">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -13196,8 +13931,11 @@
       <c r="N340" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O340" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -13225,8 +13963,11 @@
       <c r="N341">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O341">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -13254,8 +13995,11 @@
       <c r="N342" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O342" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -13283,8 +14027,11 @@
       <c r="N343">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O343">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -13312,8 +14059,11 @@
       <c r="N344" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O344" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -13341,8 +14091,11 @@
       <c r="N345">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O345">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -13370,8 +14123,11 @@
       <c r="N346" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O346" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -13399,8 +14155,11 @@
       <c r="N347">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O347">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -13428,8 +14187,11 @@
       <c r="N348" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O348" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -13457,8 +14219,11 @@
       <c r="N349">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O349">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -13486,8 +14251,11 @@
       <c r="N350" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O350" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -13515,8 +14283,11 @@
       <c r="N351" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O351" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -13543,6 +14314,9 @@
       </c>
       <c r="N352">
         <v>2</v>
+      </c>
+      <c r="O352" s="1">
+        <v>2.1</v>
       </c>
     </row>
     <row r="353" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -13573,6 +14347,9 @@
       <c r="N353" s="1">
         <v>4</v>
       </c>
+      <c r="O353" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -13602,6 +14379,9 @@
       <c r="N354">
         <v>1.7</v>
       </c>
+      <c r="O354" s="1">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="355" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -13634,6 +14414,9 @@
       <c r="N355" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="O355" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -13663,6 +14446,9 @@
       <c r="N356">
         <v>2.1</v>
       </c>
+      <c r="O356" s="1">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="357" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -13692,6 +14478,9 @@
       <c r="N357" s="1">
         <v>5.2</v>
       </c>
+      <c r="O357" s="1">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -13721,6 +14510,9 @@
       <c r="N358">
         <v>3.5</v>
       </c>
+      <c r="O358" s="1">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="359" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -13750,6 +14542,9 @@
       <c r="N359" s="1">
         <v>6.3</v>
       </c>
+      <c r="O359" s="1">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -13779,6 +14574,9 @@
       <c r="N360">
         <v>4.0999999999999996</v>
       </c>
+      <c r="O360" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="361" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -13808,8 +14606,11 @@
       <c r="N361" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O361" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -13841,7 +14642,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -13873,7 +14674,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -13905,7 +14706,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -13937,7 +14738,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -13969,7 +14770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="367" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -14001,7 +14802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -14036,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -14068,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -14100,7 +14901,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -14132,7 +14933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -14164,7 +14965,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -14196,7 +14997,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -14228,7 +15029,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -14260,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -14292,7 +15093,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="377" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -14324,7 +15125,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -14356,7 +15157,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -14388,7 +15189,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -14423,7 +15224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="381" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -14458,7 +15259,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -14490,7 +15291,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -14522,7 +15323,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -14554,7 +15355,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="385" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -14586,7 +15387,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -14618,7 +15419,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="387" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -14653,7 +15454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -14685,7 +15486,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="389" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -14717,7 +15518,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -14749,7 +15550,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="391" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -14781,7 +15582,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -14816,7 +15617,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -14848,7 +15649,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -14880,7 +15681,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="395" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -14912,7 +15713,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -14944,7 +15745,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="397" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -14976,7 +15777,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="398" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -15008,7 +15809,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -15043,7 +15844,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="400" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -15075,7 +15876,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -15107,7 +15908,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="402" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -15139,7 +15940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -15174,7 +15975,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="404" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -15209,7 +16010,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -15241,7 +16042,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -15273,7 +16074,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -15305,7 +16106,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="408" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -15337,7 +16138,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -15369,7 +16170,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="410" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -15401,7 +16202,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -15433,7 +16234,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="412" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -15465,7 +16266,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -15497,7 +16298,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="414" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -15529,7 +16330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -15561,7 +16362,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="416" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -15596,7 +16397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -15631,7 +16432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="418" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -15663,7 +16464,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -15695,7 +16496,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="420" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -15727,7 +16528,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="421" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -15762,7 +16563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -15794,7 +16595,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="423" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -15829,7 +16630,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -15861,7 +16662,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="425" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -15893,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -15925,7 +16726,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="427" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -15957,7 +16758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -15989,7 +16790,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="429" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -16021,7 +16822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -16053,7 +16854,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="431" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -16085,7 +16886,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -16117,7 +16918,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="433" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -16149,7 +16950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -16181,7 +16982,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="435" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -16213,7 +17014,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -16245,7 +17046,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="437" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -16277,7 +17078,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -16309,7 +17110,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -16341,7 +17142,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -16373,7 +17174,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -16405,7 +17206,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -16440,7 +17241,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="443" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -16472,7 +17273,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -16504,7 +17305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="445" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -16536,7 +17337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -16568,7 +17369,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="447" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -16600,7 +17401,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -16632,7 +17433,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="449" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -16664,7 +17465,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -16696,7 +17497,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="451" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -16731,7 +17532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -16759,8 +17560,11 @@
       <c r="N452">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="453" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O452">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -16788,8 +17592,11 @@
       <c r="N453" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O453" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -16817,8 +17624,11 @@
       <c r="N454">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O454">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -16846,8 +17656,11 @@
       <c r="N455" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O455" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -16875,8 +17688,11 @@
       <c r="N456">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="457" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -16904,8 +17720,11 @@
       <c r="N457" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O457" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -16931,10 +17750,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N458">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.4</v>
+      </c>
+      <c r="O458">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -16962,8 +17784,11 @@
       <c r="N459" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O459" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -16991,8 +17816,11 @@
       <c r="N460">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="461" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O460">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -17020,8 +17848,11 @@
       <c r="N461" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O461" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -17049,8 +17880,11 @@
       <c r="N462">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="463" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O462">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -17078,8 +17912,11 @@
       <c r="N463" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O463" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -17107,8 +17944,11 @@
       <c r="N464">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O464">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -17136,8 +17976,11 @@
       <c r="N465" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O465" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -17165,8 +18008,11 @@
       <c r="N466" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O466" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -17194,8 +18040,11 @@
       <c r="N467">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O467">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -17223,8 +18072,11 @@
       <c r="N468" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O468" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -17252,8 +18104,11 @@
       <c r="N469">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O469">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -17281,8 +18136,11 @@
       <c r="N470" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O470" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -17310,8 +18168,11 @@
       <c r="N471">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O471">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -17339,8 +18200,11 @@
       <c r="N472" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O472" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -17368,8 +18232,11 @@
       <c r="N473">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O473">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -17400,8 +18267,11 @@
       <c r="N474" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O474" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -17429,8 +18299,11 @@
       <c r="N475">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -17458,8 +18331,11 @@
       <c r="N476" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O476" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -17487,8 +18363,11 @@
       <c r="N477">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O477">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -17516,8 +18395,11 @@
       <c r="N478" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O478" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -17545,8 +18427,11 @@
       <c r="N479">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O479">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -17574,8 +18459,11 @@
       <c r="N480" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O480" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -17603,8 +18491,11 @@
       <c r="N481">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O481">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -17632,8 +18523,11 @@
       <c r="N482" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O482" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -17661,8 +18555,11 @@
       <c r="N483">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O483">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -17690,8 +18587,11 @@
       <c r="N484" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O484" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -17719,8 +18619,11 @@
       <c r="N485">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O485">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -17748,8 +18651,11 @@
       <c r="N486" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O486" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -17777,8 +18683,11 @@
       <c r="N487">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O487">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -17804,10 +18713,13 @@
         <v>1.3</v>
       </c>
       <c r="N488" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="489" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+      <c r="O488" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -17835,8 +18747,11 @@
       <c r="N489" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O489" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -17864,8 +18779,11 @@
       <c r="N490">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O490" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -17893,8 +18811,11 @@
       <c r="N491" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O491" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -17922,8 +18843,11 @@
       <c r="N492" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O492" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -17951,8 +18875,11 @@
       <c r="N493" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O493" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -17980,8 +18907,11 @@
       <c r="N494" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O494" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -18012,8 +18942,11 @@
       <c r="N495" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O495" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -18041,8 +18974,11 @@
       <c r="N496" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O496" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -18070,8 +19006,11 @@
       <c r="N497" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O497" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -18099,8 +19038,11 @@
       <c r="N498">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O498">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -18128,8 +19070,11 @@
       <c r="N499" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O499" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -18157,8 +19102,11 @@
       <c r="N500">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O500">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -18186,8 +19134,11 @@
       <c r="N501" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O501" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -18215,8 +19166,11 @@
       <c r="N502">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O502">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -18244,8 +19198,11 @@
       <c r="N503" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O503" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -18273,8 +19230,11 @@
       <c r="N504">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="505" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O504">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -18302,8 +19262,11 @@
       <c r="N505" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O505" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -18331,8 +19294,11 @@
       <c r="N506">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="507" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O506">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -18360,8 +19326,11 @@
       <c r="N507" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O507" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -18389,8 +19358,11 @@
       <c r="N508">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="509" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O508">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -18418,8 +19390,11 @@
       <c r="N509" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O509" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -18447,8 +19422,11 @@
       <c r="N510">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O510">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -18476,8 +19454,11 @@
       <c r="N511" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O511" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -18505,8 +19486,11 @@
       <c r="N512" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="513" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O512">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -18534,8 +19518,11 @@
       <c r="N513" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O513" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -18563,8 +19550,11 @@
       <c r="N514">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="515" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O514">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -18592,8 +19582,11 @@
       <c r="N515" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O515" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -18621,8 +19614,11 @@
       <c r="N516" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="517" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -18653,8 +19649,11 @@
       <c r="N517" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O517" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -18685,8 +19684,11 @@
       <c r="N518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -18714,8 +19716,11 @@
       <c r="N519" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O519" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -18743,8 +19748,11 @@
       <c r="N520">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="521" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O520">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -18772,8 +19780,11 @@
       <c r="N521" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O521" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -18801,8 +19812,11 @@
       <c r="N522">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="523" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O522">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -18830,8 +19844,11 @@
       <c r="N523" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O523" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -18859,8 +19876,11 @@
       <c r="N524">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="525" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O524">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -18888,8 +19908,11 @@
       <c r="N525" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O525" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -18917,8 +19940,11 @@
       <c r="N526">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="527" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O526">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -18946,8 +19972,11 @@
       <c r="N527" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O527" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -18975,8 +20004,11 @@
       <c r="N528">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="529" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O528">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>572</v>
       </c>
@@ -19004,8 +20036,11 @@
       <c r="N529" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O529" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -19033,8 +20068,11 @@
       <c r="N530">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="531" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O530">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>574</v>
       </c>
@@ -19062,8 +20100,11 @@
       <c r="N531" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O531" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -19094,8 +20135,11 @@
       <c r="N532">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="533" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O532">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>577</v>
       </c>
@@ -19123,8 +20167,11 @@
       <c r="N533" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O533" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>578</v>
       </c>
@@ -19152,8 +20199,11 @@
       <c r="N534">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="535" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O534">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>579</v>
       </c>
@@ -19181,8 +20231,11 @@
       <c r="N535" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="536" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O535" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>580</v>
       </c>
@@ -19210,8 +20263,11 @@
       <c r="N536" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O536" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>581</v>
       </c>
@@ -19239,8 +20295,11 @@
       <c r="N537" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="538" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O537" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>582</v>
       </c>
@@ -19268,8 +20327,11 @@
       <c r="N538" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O538" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>583</v>
       </c>
@@ -19297,8 +20359,11 @@
       <c r="N539" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="540" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O539" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>584</v>
       </c>
@@ -19326,8 +20391,11 @@
       <c r="N540" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O540" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -19354,6 +20422,9 @@
       </c>
       <c r="N541" s="1">
         <v>1.9</v>
+      </c>
+      <c r="O541" s="1">
+        <v>1.8</v>
       </c>
     </row>
     <row r="542" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -22264,7 +23335,7 @@
   <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="prunus"/>
+        <filter val="quercus"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\Fuelinex\fuelinex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213B917-36D3-D640-9DE4-A2120313DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D9E699-0A7C-43C9-B501-9F532B0CBF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="715">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2117,38 +2117,118 @@
   </si>
   <si>
     <t>initial measurement; looks dead but branches tender; doy157: dead</t>
+  </si>
+  <si>
+    <t>5.5 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.8 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.2 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5 (apex may die)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 (maybe last time typo)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (taller offshoot)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 (offshoot, from last branch point)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 (taller offshoot)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 (taller offshoot)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (measured longest)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>central stem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6 (discrepancy)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9 (died at tip)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2156,7 +2236,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2164,7 +2244,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2172,14 +2252,14 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2187,7 +2267,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2195,7 +2275,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2203,28 +2283,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2232,14 +2312,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="major"/>
@@ -2248,15 +2328,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2986,19 +3073,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O631"/>
+  <dimension ref="A1:P631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O527" sqref="O527"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3044,8 +3131,11 @@
       <c r="O1" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3076,8 +3166,11 @@
       <c r="O2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3108,8 +3201,11 @@
       <c r="O3" s="1">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3140,8 +3236,11 @@
       <c r="O4">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3172,8 +3271,11 @@
       <c r="O5" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3204,8 +3306,11 @@
       <c r="O6">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3236,8 +3341,11 @@
       <c r="O7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3268,8 +3376,11 @@
       <c r="O8">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3300,8 +3411,11 @@
       <c r="O9" s="1">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3332,8 +3446,11 @@
       <c r="O10">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3364,8 +3481,11 @@
       <c r="O11" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3399,8 +3519,11 @@
       <c r="O12">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3431,8 +3554,11 @@
       <c r="O13" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3463,8 +3589,11 @@
       <c r="O14">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3495,8 +3624,11 @@
       <c r="O15" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3527,8 +3659,11 @@
       <c r="O16">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3559,8 +3694,11 @@
       <c r="O17" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3591,8 +3729,11 @@
       <c r="O18">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3623,8 +3764,11 @@
       <c r="O19" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3655,8 +3799,11 @@
       <c r="O20">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3684,8 +3831,11 @@
       <c r="N21" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3719,8 +3869,11 @@
       <c r="O22">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3751,8 +3904,11 @@
       <c r="O23" s="1">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3786,8 +3942,11 @@
       <c r="O24">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3818,8 +3977,11 @@
       <c r="O25" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3850,8 +4012,11 @@
       <c r="O26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3882,8 +4047,11 @@
       <c r="O27" s="1">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3914,8 +4082,11 @@
       <c r="O28">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3946,8 +4117,11 @@
       <c r="O29" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3978,8 +4152,11 @@
       <c r="O30">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -4010,8 +4187,11 @@
       <c r="O31" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="1">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4042,8 +4222,11 @@
       <c r="O32">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4074,8 +4257,11 @@
       <c r="O33" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4106,8 +4292,11 @@
       <c r="O34">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4138,8 +4327,11 @@
       <c r="O35" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4170,8 +4362,11 @@
       <c r="O36">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4205,8 +4400,11 @@
       <c r="O37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4237,8 +4435,11 @@
       <c r="O38">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4269,8 +4470,11 @@
       <c r="O39" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4301,8 +4505,11 @@
       <c r="O40">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4333,8 +4540,11 @@
       <c r="O41" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4575,11 @@
       <c r="O42">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4397,8 +4610,11 @@
       <c r="O43" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P43" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4429,8 +4645,11 @@
       <c r="O44">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4461,8 +4680,11 @@
       <c r="O45" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P45" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4493,8 +4715,11 @@
       <c r="O46">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4525,8 +4750,11 @@
       <c r="O47" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P47" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4557,8 +4785,11 @@
       <c r="O48" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4589,8 +4820,11 @@
       <c r="O49">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4621,8 +4855,11 @@
       <c r="O50" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4653,8 +4890,11 @@
       <c r="O51" s="1">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4685,8 +4925,11 @@
       <c r="O52" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P52" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4717,8 +4960,11 @@
       <c r="O53" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="1">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -4749,8 +4995,11 @@
       <c r="O54" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P54" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4781,8 +5030,11 @@
       <c r="O55" s="1">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P55" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -4813,8 +5065,11 @@
       <c r="O56" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P56" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4845,8 +5100,11 @@
       <c r="O57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -4877,8 +5135,11 @@
       <c r="O58" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P58" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4909,8 +5170,11 @@
       <c r="O59" s="1">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P59" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5205,11 @@
       <c r="O60" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -4973,8 +5240,11 @@
       <c r="O61" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5275,11 @@
       <c r="O62" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -5037,8 +5310,11 @@
       <c r="O63">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -5069,8 +5345,11 @@
       <c r="O64" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -5101,8 +5380,11 @@
       <c r="O65">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -5133,8 +5415,11 @@
       <c r="O66" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P66" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -5165,8 +5450,11 @@
       <c r="O67">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5197,8 +5485,11 @@
       <c r="O68" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5229,8 +5520,11 @@
       <c r="O69">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5261,8 +5555,11 @@
       <c r="O70" s="1">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P70" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5293,8 +5590,11 @@
       <c r="O71" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P71" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5325,8 +5625,11 @@
       <c r="O72" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5357,8 +5660,11 @@
       <c r="O73" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5389,8 +5695,11 @@
       <c r="O74" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P74" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5421,8 +5730,11 @@
       <c r="O75" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P75" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5453,8 +5765,11 @@
       <c r="O76" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P76" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5485,8 +5800,11 @@
       <c r="O77" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P77" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5517,8 +5835,11 @@
       <c r="O78">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5549,8 +5870,11 @@
       <c r="O79" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P79" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5581,8 +5905,11 @@
       <c r="O80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P80" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5613,8 +5940,11 @@
       <c r="O81" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P81" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5645,8 +5975,11 @@
       <c r="O82">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -5677,8 +6010,11 @@
       <c r="O83" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P83" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -5709,8 +6045,11 @@
       <c r="O84">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -5741,8 +6080,11 @@
       <c r="O85" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P85" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -5773,8 +6115,11 @@
       <c r="O86">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -5805,8 +6150,11 @@
       <c r="O87" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P87" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -5837,8 +6185,11 @@
       <c r="O88">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -5869,8 +6220,11 @@
       <c r="O89" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P89" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5901,8 +6255,11 @@
       <c r="O90">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P90" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -5933,8 +6290,11 @@
       <c r="O91" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P91" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5965,8 +6325,11 @@
       <c r="O92">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5997,8 +6360,11 @@
       <c r="O93" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P93" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6029,8 +6395,11 @@
       <c r="O94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6061,8 +6430,11 @@
       <c r="O95" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P95" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6093,8 +6465,11 @@
       <c r="O96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6125,8 +6500,11 @@
       <c r="O97" s="1">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P97" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6157,8 +6535,11 @@
       <c r="O98">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6189,8 +6570,11 @@
       <c r="O99" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P99" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6221,8 +6605,11 @@
       <c r="O100">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6253,8 +6640,11 @@
       <c r="O101" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P101" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6285,8 +6675,11 @@
       <c r="O102">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -6317,8 +6710,11 @@
       <c r="O103" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P103" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6349,8 +6745,11 @@
       <c r="O104">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6381,8 +6780,11 @@
       <c r="O105" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P105" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6413,8 +6815,11 @@
       <c r="O106">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6445,8 +6850,11 @@
       <c r="O107" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P107" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -6477,8 +6885,11 @@
       <c r="O108">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6512,8 +6923,11 @@
       <c r="O109" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6544,8 +6958,11 @@
       <c r="O110">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -6576,8 +6993,11 @@
       <c r="O111" s="1">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P111" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -6608,8 +7028,11 @@
       <c r="O112">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -6643,8 +7066,11 @@
       <c r="O113" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P113" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -6675,8 +7101,11 @@
       <c r="O114">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -6707,8 +7136,11 @@
       <c r="O115" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P115" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -6739,8 +7171,11 @@
       <c r="O116">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -6771,8 +7206,11 @@
       <c r="O117" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P117" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -6803,8 +7241,11 @@
       <c r="O118" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P118" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -6835,8 +7276,11 @@
       <c r="O119" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P119" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -6867,8 +7311,11 @@
       <c r="O120" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P120" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -6899,8 +7346,11 @@
       <c r="O121" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P121" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -6931,8 +7381,11 @@
       <c r="O122" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P122" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -6963,8 +7416,11 @@
       <c r="O123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -6995,8 +7451,11 @@
       <c r="O124" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P124" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7027,8 +7486,11 @@
       <c r="O125">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -7059,8 +7521,11 @@
       <c r="O126" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -7091,8 +7556,11 @@
       <c r="O127">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P127">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -7123,8 +7591,11 @@
       <c r="O128" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P128" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -7155,8 +7626,11 @@
       <c r="O129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -7187,8 +7661,11 @@
       <c r="O130" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P130" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -7219,8 +7696,11 @@
       <c r="O131">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -7251,8 +7731,11 @@
       <c r="O132" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P132" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -7283,8 +7766,11 @@
       <c r="O133">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P133">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -7315,8 +7801,11 @@
       <c r="O134" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P134" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -7347,8 +7836,11 @@
       <c r="O135">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -7382,8 +7874,11 @@
       <c r="O136" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P136" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -7414,8 +7909,11 @@
       <c r="O137">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P137">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -7446,8 +7944,11 @@
       <c r="O138" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P138" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -7478,8 +7979,11 @@
       <c r="O139">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -7510,8 +8014,11 @@
       <c r="O140" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P140" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -7542,8 +8049,11 @@
       <c r="O141" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P141" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -7574,8 +8084,11 @@
       <c r="O142" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P142" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -7606,8 +8119,11 @@
       <c r="O143" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P143" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -7638,8 +8154,11 @@
       <c r="O144" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P144" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -7670,8 +8189,11 @@
       <c r="O145" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P145" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -7702,8 +8224,11 @@
       <c r="O146" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P146" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -7734,8 +8259,11 @@
       <c r="O147" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P147" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -7766,8 +8294,11 @@
       <c r="O148" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P148" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -7798,8 +8329,11 @@
       <c r="O149" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -7830,8 +8364,11 @@
       <c r="O150" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P150" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -7862,8 +8399,11 @@
       <c r="O151" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P151" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -7894,8 +8434,11 @@
       <c r="O152">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P152">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -7926,8 +8469,11 @@
       <c r="O153" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P153" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -7958,8 +8504,11 @@
       <c r="O154">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -7990,8 +8539,11 @@
       <c r="O155" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P155" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -8022,8 +8574,11 @@
       <c r="O156">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -8054,8 +8609,11 @@
       <c r="O157" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P157" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -8086,8 +8644,11 @@
       <c r="O158">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P158">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -8118,8 +8679,11 @@
       <c r="O159" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P159" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -8150,8 +8714,11 @@
       <c r="O160">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P160">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -8182,8 +8749,11 @@
       <c r="O161" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P161" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -8214,8 +8784,11 @@
       <c r="O162">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P162" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -8246,8 +8819,11 @@
       <c r="O163" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P163" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -8278,8 +8854,11 @@
       <c r="O164">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P164" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -8310,8 +8889,11 @@
       <c r="O165" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P165" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -8342,8 +8924,11 @@
       <c r="O166">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -8374,8 +8959,11 @@
       <c r="O167" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P167" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -8406,8 +8994,11 @@
       <c r="O168">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -8438,8 +9029,11 @@
       <c r="O169" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P169" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -8470,8 +9064,11 @@
       <c r="O170">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -8502,8 +9099,11 @@
       <c r="O171" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P171" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -8534,8 +9134,11 @@
       <c r="O172">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P172">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -8566,8 +9169,11 @@
       <c r="O173" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P173" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -8598,8 +9204,11 @@
       <c r="O174">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P174">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -8630,8 +9239,11 @@
       <c r="O175" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P175" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -8662,8 +9274,11 @@
       <c r="O176">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P176">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -8694,8 +9309,11 @@
       <c r="O177" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P177" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -8726,8 +9344,11 @@
       <c r="O178">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P178">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -8758,8 +9379,11 @@
       <c r="O179" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P179" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -8790,8 +9414,11 @@
       <c r="O180">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P180">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -8822,8 +9449,11 @@
       <c r="O181" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P181" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -8854,8 +9484,11 @@
       <c r="O182">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P182">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -8886,8 +9519,11 @@
       <c r="O183" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P183" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -8918,8 +9554,11 @@
       <c r="O184">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P184">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -8950,8 +9589,11 @@
       <c r="O185" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P185" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -8982,8 +9624,11 @@
       <c r="O186">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P186">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -9014,8 +9659,11 @@
       <c r="O187" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P187" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -9046,8 +9694,11 @@
       <c r="O188" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P188" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -9081,8 +9732,11 @@
       <c r="O189" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P189" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -9113,8 +9767,11 @@
       <c r="O190" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P190" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -9145,8 +9802,11 @@
       <c r="O191" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P191" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -9177,8 +9837,11 @@
       <c r="O192" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P192" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -9209,8 +9872,11 @@
       <c r="O193" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P193" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -9244,8 +9910,11 @@
       <c r="O194" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P194" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -9276,8 +9945,11 @@
       <c r="O195" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P195" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -9308,8 +9980,11 @@
       <c r="O196" s="1">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P196" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -9340,8 +10015,11 @@
       <c r="O197">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P197">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -9372,8 +10050,11 @@
       <c r="O198" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P198" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -9404,8 +10085,11 @@
       <c r="O199">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P199">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -9436,8 +10120,11 @@
       <c r="O200" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P200" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -9468,8 +10155,11 @@
       <c r="O201">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P201">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -9500,8 +10190,11 @@
       <c r="O202" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P202" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -9532,8 +10225,11 @@
       <c r="O203">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P203">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -9564,8 +10260,11 @@
       <c r="O204" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P204" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -9596,8 +10295,11 @@
       <c r="O205">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -9628,8 +10330,11 @@
       <c r="O206" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P206" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -9660,8 +10365,11 @@
       <c r="O207">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P207">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -9692,8 +10400,11 @@
       <c r="O208" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P208" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -9724,8 +10435,11 @@
       <c r="O209">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P209">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -9756,8 +10470,11 @@
       <c r="O210" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P210" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -9788,8 +10505,11 @@
       <c r="O211" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P211" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -9820,8 +10540,11 @@
       <c r="O212">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P212">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -9852,8 +10575,11 @@
       <c r="O213" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P213" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -9884,8 +10610,11 @@
       <c r="O214">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P214">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -9916,8 +10645,11 @@
       <c r="O215" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P215" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -9948,8 +10680,11 @@
       <c r="O216">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P216">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -9980,8 +10715,11 @@
       <c r="O217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P217" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -10012,8 +10750,11 @@
       <c r="O218">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P218">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -10044,8 +10785,11 @@
       <c r="O219" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P219" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -10076,8 +10820,11 @@
       <c r="O220">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P220">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -10108,8 +10855,11 @@
       <c r="O221" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P221" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -10140,8 +10890,11 @@
       <c r="O222">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P222">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -10172,8 +10925,11 @@
       <c r="O223" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P223" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -10204,8 +10960,11 @@
       <c r="O224">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -10236,8 +10995,11 @@
       <c r="O225" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P225" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -10268,8 +11030,11 @@
       <c r="O226">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P226">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -10300,8 +11065,11 @@
       <c r="O227" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P227" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -10332,8 +11100,11 @@
       <c r="O228">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -10364,8 +11135,11 @@
       <c r="O229" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P229" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -10396,8 +11170,11 @@
       <c r="O230">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P230">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -10428,8 +11205,11 @@
       <c r="O231" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P231" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -10460,8 +11240,11 @@
       <c r="O232">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P232">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -10492,8 +11275,11 @@
       <c r="O233" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P233" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -10524,8 +11310,11 @@
       <c r="O234">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P234">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -10556,8 +11345,11 @@
       <c r="O235" s="1">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P235" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -10588,8 +11380,11 @@
       <c r="O236">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P236">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -10623,8 +11418,11 @@
       <c r="O237" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P237" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -10655,8 +11453,11 @@
       <c r="O238">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -10687,8 +11488,11 @@
       <c r="O239" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P239" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -10719,8 +11523,11 @@
       <c r="O240">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P240">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -10751,8 +11558,11 @@
       <c r="O241" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P241" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -10783,8 +11593,11 @@
       <c r="O242">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P242">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -10815,8 +11628,11 @@
       <c r="O243" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P243" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -10847,8 +11663,11 @@
       <c r="O244">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P244">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -10879,8 +11698,11 @@
       <c r="O245" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P245" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -10911,8 +11733,11 @@
       <c r="O246">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P246">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -10943,8 +11768,11 @@
       <c r="O247" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P247" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -10975,8 +11803,11 @@
       <c r="O248">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P248">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -11007,8 +11838,11 @@
       <c r="O249" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P249" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -11039,8 +11873,11 @@
       <c r="O250">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P250">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -11071,8 +11908,11 @@
       <c r="O251" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P251" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -11103,8 +11943,11 @@
       <c r="O252">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P252">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -11135,8 +11978,11 @@
       <c r="O253" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P253" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -11167,8 +12013,11 @@
       <c r="O254">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P254">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -11199,8 +12048,11 @@
       <c r="O255" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P255" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -11231,8 +12083,11 @@
       <c r="O256">
         <v>10</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P256">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -11263,8 +12118,11 @@
       <c r="O257" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P257" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -11295,8 +12153,11 @@
       <c r="O258" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P258" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -11327,8 +12188,11 @@
       <c r="O259">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P259">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -11359,8 +12223,11 @@
       <c r="O260" s="1">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P260" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -11391,8 +12258,11 @@
       <c r="O261" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P261" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -11423,8 +12293,11 @@
       <c r="O262" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P262" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -11455,8 +12328,11 @@
       <c r="O263" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P263" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -11487,8 +12363,11 @@
       <c r="O264" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P264" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -11519,8 +12398,11 @@
       <c r="O265" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P265" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -11551,8 +12433,11 @@
       <c r="O266" s="1">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P266" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -11583,8 +12468,11 @@
       <c r="O267" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P267" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -11615,8 +12503,11 @@
       <c r="O268" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P268" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -11647,8 +12538,11 @@
       <c r="O269" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P269" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -11679,8 +12573,11 @@
       <c r="O270" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P270" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -11711,8 +12608,11 @@
       <c r="O271" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P271" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -11743,8 +12643,11 @@
       <c r="O272" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P272" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -11775,8 +12678,11 @@
       <c r="O273" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P273" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -11807,8 +12713,11 @@
       <c r="O274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P274" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -11839,8 +12748,11 @@
       <c r="O275" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P275" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -11871,8 +12783,11 @@
       <c r="O276" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P276" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -11903,8 +12818,11 @@
       <c r="O277" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P277" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -11935,8 +12853,11 @@
       <c r="O278" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P278" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -11970,8 +12891,11 @@
       <c r="O279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P279" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -12002,8 +12926,11 @@
       <c r="O280" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P280" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -12034,8 +12961,11 @@
       <c r="O281" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P281" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -12066,8 +12996,11 @@
       <c r="O282" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P282" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -12101,8 +13034,11 @@
       <c r="O283" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P283" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -12133,8 +13069,11 @@
       <c r="O284">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P284" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -12165,8 +13104,11 @@
       <c r="O285" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P285" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -12197,8 +13139,11 @@
       <c r="O286" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P286" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -12229,8 +13174,11 @@
       <c r="O287" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P287" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -12261,8 +13209,11 @@
       <c r="O288">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P288">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -12293,8 +13244,11 @@
       <c r="O289" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P289" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -12325,8 +13279,11 @@
       <c r="O290">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -12357,8 +13314,11 @@
       <c r="O291" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P291" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -12389,8 +13349,11 @@
       <c r="O292">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P292">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -12421,8 +13384,11 @@
       <c r="O293" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P293" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -12453,8 +13419,11 @@
       <c r="O294">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P294">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -12485,8 +13454,11 @@
       <c r="O295" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P295" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -12517,8 +13489,11 @@
       <c r="O296">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -12549,8 +13524,11 @@
       <c r="O297" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P297" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -12581,8 +13559,11 @@
       <c r="O298">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P298">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -12613,8 +13594,11 @@
       <c r="O299" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P299" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -12645,8 +13629,11 @@
       <c r="O300">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P300">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -12677,8 +13664,11 @@
       <c r="O301" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P301" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -12709,8 +13699,11 @@
       <c r="O302">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P302">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -12741,8 +13734,11 @@
       <c r="O303" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P303" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -12773,8 +13769,11 @@
       <c r="O304">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -12805,8 +13804,11 @@
       <c r="O305" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P305" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -12837,8 +13839,11 @@
       <c r="O306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -12869,8 +13874,11 @@
       <c r="O307" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P307" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -12901,8 +13909,11 @@
       <c r="O308">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P308">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -12933,8 +13944,11 @@
       <c r="O309" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P309" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -12968,8 +13982,11 @@
       <c r="O310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P310">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -13000,8 +14017,11 @@
       <c r="O311" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P311" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -13032,8 +14052,11 @@
       <c r="O312">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -13064,8 +14087,11 @@
       <c r="O313" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P313" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -13096,8 +14122,11 @@
       <c r="O314">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P314" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -13128,8 +14157,11 @@
       <c r="O315" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -13160,8 +14192,11 @@
       <c r="O316">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P316">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -13192,8 +14227,11 @@
       <c r="O317" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P317" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -13224,8 +14262,11 @@
       <c r="O318">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -13256,8 +14297,11 @@
       <c r="O319" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P319" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -13288,8 +14332,11 @@
       <c r="O320">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P320">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -13320,8 +14367,11 @@
       <c r="O321" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P321" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -13355,8 +14405,11 @@
       <c r="O322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P322" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -13387,8 +14440,11 @@
       <c r="O323" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P323" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -13422,8 +14478,11 @@
       <c r="O324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P324" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -13454,8 +14513,11 @@
       <c r="O325" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P325">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -13486,8 +14548,11 @@
       <c r="O326">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P326">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -13518,8 +14583,11 @@
       <c r="O327" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P327" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -13550,8 +14618,11 @@
       <c r="O328" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P328" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -13582,8 +14653,11 @@
       <c r="O329" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P329">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -13614,8 +14688,11 @@
       <c r="O330" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P330" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -13646,8 +14723,11 @@
       <c r="O331" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P331" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -13678,8 +14758,11 @@
       <c r="O332" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P332" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -13710,8 +14793,11 @@
       <c r="O333">
         <v>5</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P333">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -13742,8 +14828,11 @@
       <c r="O334" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P334" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -13774,8 +14863,11 @@
       <c r="O335">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P335">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -13806,8 +14898,11 @@
       <c r="O336" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P336" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -13838,8 +14933,11 @@
       <c r="O337">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -13870,8 +14968,11 @@
       <c r="O338" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P338">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -13902,8 +15003,11 @@
       <c r="O339">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P339">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -13934,8 +15038,11 @@
       <c r="O340" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P340">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -13966,8 +15073,11 @@
       <c r="O341">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P341">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -13998,8 +15108,11 @@
       <c r="O342" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P342" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -14030,8 +15143,11 @@
       <c r="O343">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P343">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -14062,8 +15178,11 @@
       <c r="O344" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P344" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -14094,8 +15213,11 @@
       <c r="O345">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P345">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -14126,8 +15248,11 @@
       <c r="O346" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P346" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -14158,8 +15283,11 @@
       <c r="O347">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P347">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -14190,8 +15318,11 @@
       <c r="O348" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P348" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -14222,8 +15353,11 @@
       <c r="O349">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P349">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -14254,8 +15388,11 @@
       <c r="O350" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P350" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -14286,8 +15423,11 @@
       <c r="O351" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P351" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -14318,8 +15458,11 @@
       <c r="O352" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P352" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -14350,8 +15493,11 @@
       <c r="O353" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P353" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -14382,8 +15528,11 @@
       <c r="O354" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P354" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -14417,8 +15566,11 @@
       <c r="O355" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P355" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -14449,8 +15601,11 @@
       <c r="O356" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P356" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -14481,8 +15636,11 @@
       <c r="O357" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P357" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -14513,8 +15671,11 @@
       <c r="O358" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P358" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -14545,8 +15706,11 @@
       <c r="O359" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P359" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -14577,8 +15741,11 @@
       <c r="O360" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P360" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -14609,8 +15776,11 @@
       <c r="O361" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P361" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -14641,8 +15811,11 @@
       <c r="O362">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P362">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -14673,8 +15846,11 @@
       <c r="O363" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P363" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -14705,8 +15881,11 @@
       <c r="O364">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P364" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -14737,8 +15916,11 @@
       <c r="O365" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P365" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -14769,8 +15951,11 @@
       <c r="O366">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P366">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -14801,8 +15986,11 @@
       <c r="O367" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -14836,8 +16024,11 @@
       <c r="O368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -14868,8 +16059,11 @@
       <c r="O369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -14900,8 +16094,11 @@
       <c r="O370">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P370">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -14932,8 +16129,11 @@
       <c r="O371" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P371" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -14964,8 +16164,11 @@
       <c r="O372">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P372">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -14996,8 +16199,11 @@
       <c r="O373" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P373" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -15028,8 +16234,11 @@
       <c r="O374">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P374">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -15060,8 +16269,11 @@
       <c r="O375" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P375" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -15092,8 +16304,11 @@
       <c r="O376">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P376">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -15124,8 +16339,11 @@
       <c r="O377" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P377" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -15156,8 +16374,11 @@
       <c r="O378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P378">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -15188,8 +16409,11 @@
       <c r="O379" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P379" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -15223,8 +16447,11 @@
       <c r="O380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P380" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -15258,8 +16485,11 @@
       <c r="O381" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P381" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -15290,8 +16520,11 @@
       <c r="O382">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P382">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -15322,8 +16555,11 @@
       <c r="O383" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P383" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -15354,8 +16590,11 @@
       <c r="O384">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P384">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -15386,8 +16625,11 @@
       <c r="O385" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P385" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -15418,8 +16660,11 @@
       <c r="O386">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P386">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -15453,8 +16698,11 @@
       <c r="O387" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P387" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -15485,8 +16733,11 @@
       <c r="O388">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P388">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -15517,8 +16768,11 @@
       <c r="O389" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P389" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -15549,8 +16803,11 @@
       <c r="O390">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P390">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -15581,8 +16838,11 @@
       <c r="O391" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P391" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -15616,8 +16876,11 @@
       <c r="O392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P392" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -15648,8 +16911,11 @@
       <c r="O393" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P393" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -15680,8 +16946,11 @@
       <c r="O394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P394">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -15712,8 +16981,11 @@
       <c r="O395" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P395" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -15744,8 +17016,11 @@
       <c r="O396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -15776,8 +17051,11 @@
       <c r="O397" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P397" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -15808,8 +17086,11 @@
       <c r="O398" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P398" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -15843,8 +17124,11 @@
       <c r="O399">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P399" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -15875,8 +17159,11 @@
       <c r="O400" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P400" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -15907,8 +17194,11 @@
       <c r="O401">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P401" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -15939,8 +17229,11 @@
       <c r="O402" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P402" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -15974,8 +17267,11 @@
       <c r="O403">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="404" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P403" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -16009,8 +17305,11 @@
       <c r="O404" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P404" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -16041,8 +17340,11 @@
       <c r="O405">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="406" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P405" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -16073,8 +17375,11 @@
       <c r="O406" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P406" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -16105,8 +17410,11 @@
       <c r="O407">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P407">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -16137,8 +17445,11 @@
       <c r="O408" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P408" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -16169,8 +17480,11 @@
       <c r="O409">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="410" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P409">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -16201,8 +17515,11 @@
       <c r="O410" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P410" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -16233,8 +17550,11 @@
       <c r="O411">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="412" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P411">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -16265,8 +17585,11 @@
       <c r="O412" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P412" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -16297,8 +17620,11 @@
       <c r="O413">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P413">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -16329,8 +17655,11 @@
       <c r="O414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P414" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -16361,8 +17690,11 @@
       <c r="O415">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="416" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P415">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -16396,8 +17728,11 @@
       <c r="O416" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P416" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -16431,8 +17766,11 @@
       <c r="O417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P417" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -16463,8 +17801,11 @@
       <c r="O418" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P418" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -16495,8 +17836,11 @@
       <c r="O419">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="420" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P419">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -16527,8 +17871,11 @@
       <c r="O420" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P420" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -16562,8 +17909,11 @@
       <c r="O421" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P421" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -16594,8 +17944,11 @@
       <c r="O422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P422">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -16629,8 +17982,11 @@
       <c r="O423" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P423" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -16661,8 +18017,11 @@
       <c r="O424">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P424">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -16693,8 +18052,11 @@
       <c r="O425" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P425" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -16725,8 +18087,11 @@
       <c r="O426">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="427" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P426" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -16757,8 +18122,11 @@
       <c r="O427" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P427" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -16789,8 +18157,11 @@
       <c r="O428">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P428">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -16821,8 +18192,11 @@
       <c r="O429" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P429" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -16853,8 +18227,11 @@
       <c r="O430">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="431" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P430">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -16885,8 +18262,11 @@
       <c r="O431" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P431" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -16917,8 +18297,11 @@
       <c r="O432">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="433" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P432">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -16949,8 +18332,11 @@
       <c r="O433" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P433" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -16981,8 +18367,11 @@
       <c r="O434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P434">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -17013,8 +18402,11 @@
       <c r="O435" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P435" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -17045,8 +18437,11 @@
       <c r="O436">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="437" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P436">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -17077,8 +18472,11 @@
       <c r="O437" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P437" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -17109,8 +18507,11 @@
       <c r="O438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -17141,8 +18542,11 @@
       <c r="O439" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P439" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -17173,8 +18577,11 @@
       <c r="O440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P440">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -17205,8 +18612,11 @@
       <c r="O441" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P441" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -17240,8 +18650,11 @@
       <c r="O442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P442" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -17272,8 +18685,11 @@
       <c r="O443" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P443" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -17304,8 +18720,11 @@
       <c r="O444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P444" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -17336,8 +18755,11 @@
       <c r="O445" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P445" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -17368,8 +18790,11 @@
       <c r="O446">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="447" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P446">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -17400,8 +18825,11 @@
       <c r="O447" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P447" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -17432,8 +18860,11 @@
       <c r="O448">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="449" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P448">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -17464,8 +18895,11 @@
       <c r="O449" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P449" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -17496,8 +18930,11 @@
       <c r="O450">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="451" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P450">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -17531,8 +18968,11 @@
       <c r="O451" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P451" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -17561,10 +19001,13 @@
         <v>1.9</v>
       </c>
       <c r="O452">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P452">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -17595,8 +19038,11 @@
       <c r="O453" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P453" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -17627,8 +19073,11 @@
       <c r="O454">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P454">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -17659,8 +19108,11 @@
       <c r="O455" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P455" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -17691,8 +19143,11 @@
       <c r="O456">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -17723,8 +19178,11 @@
       <c r="O457" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P457" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -17755,8 +19213,11 @@
       <c r="O458">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="459" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P458">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -17787,8 +19248,11 @@
       <c r="O459" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P459" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -17819,8 +19283,11 @@
       <c r="O460">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="461" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P460">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -17851,8 +19318,11 @@
       <c r="O461" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P461" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -17883,8 +19353,11 @@
       <c r="O462">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="463" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P462">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -17915,8 +19388,11 @@
       <c r="O463" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P463" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -17947,8 +19423,11 @@
       <c r="O464">
         <v>6</v>
       </c>
-    </row>
-    <row r="465" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P464">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -17979,8 +19458,11 @@
       <c r="O465" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="466" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P465" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -18011,8 +19493,11 @@
       <c r="O466" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P466" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -18043,8 +19528,11 @@
       <c r="O467">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P467">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -18075,8 +19563,11 @@
       <c r="O468" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P468" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -18107,8 +19598,11 @@
       <c r="O469">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="470" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P469">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -18139,8 +19633,11 @@
       <c r="O470" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P470" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -18171,8 +19668,11 @@
       <c r="O471">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="472" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P471">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -18203,8 +19703,11 @@
       <c r="O472" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P472" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -18235,8 +19738,11 @@
       <c r="O473">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="474" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -18270,8 +19776,11 @@
       <c r="O474" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P474" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -18302,8 +19811,11 @@
       <c r="O475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P475">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -18334,8 +19846,11 @@
       <c r="O476" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P476" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -18366,8 +19881,11 @@
       <c r="O477">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="478" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P477">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -18398,8 +19916,11 @@
       <c r="O478" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P478" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -18430,8 +19951,11 @@
       <c r="O479">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="480" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P479">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -18462,8 +19986,11 @@
       <c r="O480" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P480" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -18494,8 +20021,11 @@
       <c r="O481">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="482" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P481">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -18526,8 +20056,11 @@
       <c r="O482" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P482" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -18558,8 +20091,11 @@
       <c r="O483">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="484" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P483">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -18590,8 +20126,11 @@
       <c r="O484" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P484" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -18622,8 +20161,11 @@
       <c r="O485">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="486" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P485">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -18654,8 +20196,11 @@
       <c r="O486" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P486" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -18686,8 +20231,11 @@
       <c r="O487">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="488" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P487">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -18718,8 +20266,11 @@
       <c r="O488" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="489" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P488" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -18750,8 +20301,11 @@
       <c r="O489" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P489" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -18782,8 +20336,11 @@
       <c r="O490" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="491" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P490" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -18814,8 +20371,11 @@
       <c r="O491" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P491" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -18846,8 +20406,11 @@
       <c r="O492" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="493" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P492" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -18878,8 +20441,11 @@
       <c r="O493" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P493" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -18910,8 +20476,11 @@
       <c r="O494" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="495" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P494" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -18945,8 +20514,11 @@
       <c r="O495" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P495" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -18977,8 +20549,11 @@
       <c r="O496" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P496" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -19009,8 +20584,11 @@
       <c r="O497" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P497" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -19041,8 +20619,11 @@
       <c r="O498">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -19073,8 +20654,11 @@
       <c r="O499" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P499" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -19105,8 +20689,11 @@
       <c r="O500">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="501" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P500">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -19137,8 +20724,11 @@
       <c r="O501" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P501" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -19169,8 +20759,11 @@
       <c r="O502">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="503" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P502">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -19201,8 +20794,11 @@
       <c r="O503" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P503" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -19233,8 +20829,11 @@
       <c r="O504">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="505" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P504">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -19265,8 +20864,11 @@
       <c r="O505" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P505" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -19297,8 +20899,11 @@
       <c r="O506">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="507" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P506">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -19329,8 +20934,11 @@
       <c r="O507" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P507" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -19361,8 +20969,11 @@
       <c r="O508">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="509" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P508">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -19393,8 +21004,11 @@
       <c r="O509" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P509" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -19425,8 +21039,11 @@
       <c r="O510">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P510">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -19457,8 +21074,11 @@
       <c r="O511" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P511" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -19489,8 +21109,11 @@
       <c r="O512">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="513" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P512">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -19521,8 +21144,11 @@
       <c r="O513" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P513" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -19553,8 +21179,11 @@
       <c r="O514">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="515" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P514">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -19585,8 +21214,11 @@
       <c r="O515" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P515" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -19617,8 +21249,11 @@
       <c r="O516">
         <v>5</v>
       </c>
-    </row>
-    <row r="517" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P516">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -19652,8 +21287,11 @@
       <c r="O517" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P517" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -19687,8 +21325,11 @@
       <c r="O518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P518" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -19719,8 +21360,11 @@
       <c r="O519" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P519" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -19751,8 +21395,11 @@
       <c r="O520">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="521" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P520">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -19783,8 +21430,11 @@
       <c r="O521" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P521" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -19815,8 +21465,11 @@
       <c r="O522">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="523" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P522">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -19847,8 +21500,11 @@
       <c r="O523" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P523" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -19879,8 +21535,11 @@
       <c r="O524">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="525" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P524">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -19911,8 +21570,11 @@
       <c r="O525" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P525" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -19943,8 +21605,11 @@
       <c r="O526">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="527" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P526">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -19975,8 +21640,11 @@
       <c r="O527" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P527" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -20007,8 +21675,11 @@
       <c r="O528">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="529" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P528">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>572</v>
       </c>
@@ -20039,8 +21710,11 @@
       <c r="O529" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P529" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -20071,8 +21745,11 @@
       <c r="O530">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="531" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P530">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>574</v>
       </c>
@@ -20103,8 +21780,11 @@
       <c r="O531" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P531" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -20138,8 +21818,11 @@
       <c r="O532">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="533" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P532">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>577</v>
       </c>
@@ -20170,8 +21853,11 @@
       <c r="O533" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P533" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>578</v>
       </c>
@@ -20202,8 +21888,11 @@
       <c r="O534">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="535" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P534">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>579</v>
       </c>
@@ -20234,8 +21923,11 @@
       <c r="O535" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="536" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P535" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>580</v>
       </c>
@@ -20266,8 +21958,11 @@
       <c r="O536" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P536" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>581</v>
       </c>
@@ -20298,8 +21993,11 @@
       <c r="O537" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="538" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P537" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>582</v>
       </c>
@@ -20330,8 +22028,11 @@
       <c r="O538" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P538" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>583</v>
       </c>
@@ -20362,8 +22063,11 @@
       <c r="O539" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="540" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P539" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>584</v>
       </c>
@@ -20394,8 +22098,11 @@
       <c r="O540" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P540" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -20426,8 +22133,11 @@
       <c r="O541" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="542" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P541" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>586</v>
       </c>
@@ -20458,8 +22168,11 @@
       <c r="O542" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P542" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>589</v>
       </c>
@@ -20490,8 +22203,11 @@
       <c r="O543">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="544" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P543">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>590</v>
       </c>
@@ -20522,8 +22238,11 @@
       <c r="O544" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P544" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>591</v>
       </c>
@@ -20554,8 +22273,11 @@
       <c r="O545">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="546" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P545">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>592</v>
       </c>
@@ -20586,8 +22308,11 @@
       <c r="O546" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P546" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>593</v>
       </c>
@@ -20618,8 +22343,11 @@
       <c r="O547">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="548" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P547">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>594</v>
       </c>
@@ -20650,8 +22378,11 @@
       <c r="O548" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P548" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>595</v>
       </c>
@@ -20682,8 +22413,11 @@
       <c r="O549">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="550" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P549">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>596</v>
       </c>
@@ -20714,8 +22448,11 @@
       <c r="O550" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P550" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>597</v>
       </c>
@@ -20746,8 +22483,11 @@
       <c r="O551">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="552" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P551">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>598</v>
       </c>
@@ -20781,8 +22521,11 @@
       <c r="O552" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P552" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>599</v>
       </c>
@@ -20813,8 +22556,11 @@
       <c r="O553">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="554" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P553">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>600</v>
       </c>
@@ -20845,8 +22591,11 @@
       <c r="O554" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P554" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>601</v>
       </c>
@@ -20877,8 +22626,11 @@
       <c r="O555">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="556" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P555">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>602</v>
       </c>
@@ -20909,8 +22661,11 @@
       <c r="O556" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P556" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>603</v>
       </c>
@@ -20941,8 +22696,11 @@
       <c r="O557">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="558" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P557">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>604</v>
       </c>
@@ -20973,8 +22731,11 @@
       <c r="O558" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="559" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P558" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>605</v>
       </c>
@@ -21005,8 +22766,11 @@
       <c r="O559" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P559" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -21037,8 +22801,11 @@
       <c r="O560" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="561" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P560" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>607</v>
       </c>
@@ -21069,8 +22836,11 @@
       <c r="O561" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P561" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -21101,8 +22871,11 @@
       <c r="O562" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="563" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P562" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>609</v>
       </c>
@@ -21133,8 +22906,11 @@
       <c r="O563" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P563" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -21165,8 +22941,11 @@
       <c r="O564" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="565" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P564" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>611</v>
       </c>
@@ -21197,8 +22976,11 @@
       <c r="O565" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P565" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>612</v>
       </c>
@@ -21229,8 +23011,11 @@
       <c r="O566" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="567" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P566" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>613</v>
       </c>
@@ -21261,8 +23046,11 @@
       <c r="O567" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P567" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>614</v>
       </c>
@@ -21293,8 +23081,11 @@
       <c r="O568" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="569" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P568" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>615</v>
       </c>
@@ -21325,8 +23116,11 @@
       <c r="O569" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P569" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>616</v>
       </c>
@@ -21357,8 +23151,11 @@
       <c r="O570" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="571" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P570" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>617</v>
       </c>
@@ -21389,8 +23186,11 @@
       <c r="O571" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P571" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>618</v>
       </c>
@@ -21421,8 +23221,11 @@
       <c r="O572">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="573" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P572">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>619</v>
       </c>
@@ -21453,8 +23256,11 @@
       <c r="O573" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P573" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>620</v>
       </c>
@@ -21485,8 +23291,11 @@
       <c r="O574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P574" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>621</v>
       </c>
@@ -21517,8 +23326,11 @@
       <c r="O575" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P575" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>622</v>
       </c>
@@ -21549,8 +23361,11 @@
       <c r="O576">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="577" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P576">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>623</v>
       </c>
@@ -21581,8 +23396,11 @@
       <c r="O577" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P577" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>624</v>
       </c>
@@ -21613,8 +23431,11 @@
       <c r="O578">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="579" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P578">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>625</v>
       </c>
@@ -21645,8 +23466,11 @@
       <c r="O579" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P579" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>626</v>
       </c>
@@ -21677,8 +23501,11 @@
       <c r="O580">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="581" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>627</v>
       </c>
@@ -21709,8 +23536,11 @@
       <c r="O581" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P581" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>628</v>
       </c>
@@ -21741,8 +23571,11 @@
       <c r="O582">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="583" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P582">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>629</v>
       </c>
@@ -21773,8 +23606,11 @@
       <c r="O583" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P583" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>630</v>
       </c>
@@ -21805,8 +23641,11 @@
       <c r="O584">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="585" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>631</v>
       </c>
@@ -21837,8 +23676,11 @@
       <c r="O585" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P585" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>632</v>
       </c>
@@ -21869,8 +23711,11 @@
       <c r="O586">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="587" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P586">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>633</v>
       </c>
@@ -21901,8 +23746,11 @@
       <c r="O587" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P587" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>634</v>
       </c>
@@ -21936,8 +23784,11 @@
       <c r="O588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P588" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -21971,8 +23822,11 @@
       <c r="O589" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P589" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>638</v>
       </c>
@@ -22003,8 +23857,11 @@
       <c r="O590">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="591" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P590">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>639</v>
       </c>
@@ -22035,8 +23892,11 @@
       <c r="O591" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P591" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>640</v>
       </c>
@@ -22067,8 +23927,11 @@
       <c r="O592">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="593" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P592">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>641</v>
       </c>
@@ -22099,8 +23962,11 @@
       <c r="O593" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P593" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -22131,8 +23997,11 @@
       <c r="O594">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="595" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P594">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>643</v>
       </c>
@@ -22163,8 +24032,11 @@
       <c r="O595" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P595" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>644</v>
       </c>
@@ -22195,8 +24067,11 @@
       <c r="O596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P596">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>645</v>
       </c>
@@ -22227,8 +24102,11 @@
       <c r="O597" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P597" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>646</v>
       </c>
@@ -22259,8 +24137,11 @@
       <c r="O598">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="599" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P598">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>647</v>
       </c>
@@ -22291,8 +24172,11 @@
       <c r="O599" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P599" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>648</v>
       </c>
@@ -22323,8 +24207,11 @@
       <c r="O600">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="601" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P600">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>649</v>
       </c>
@@ -22355,8 +24242,11 @@
       <c r="O601" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P601" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>650</v>
       </c>
@@ -22387,8 +24277,11 @@
       <c r="O602">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P602">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>651</v>
       </c>
@@ -22422,8 +24315,11 @@
       <c r="O603" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P603" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>653</v>
       </c>
@@ -22457,8 +24353,11 @@
       <c r="O604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P604" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>654</v>
       </c>
@@ -22489,8 +24388,11 @@
       <c r="O605" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P605" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>655</v>
       </c>
@@ -22521,8 +24423,11 @@
       <c r="O606" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P606" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>656</v>
       </c>
@@ -22538,6 +24443,9 @@
       <c r="E607" t="s">
         <v>588</v>
       </c>
+      <c r="F607" t="s">
+        <v>711</v>
+      </c>
       <c r="J607">
         <v>1</v>
       </c>
@@ -22553,8 +24461,11 @@
       <c r="O607">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="608" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P607">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>657</v>
       </c>
@@ -22585,8 +24496,11 @@
       <c r="O608" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P608" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>658</v>
       </c>
@@ -22617,8 +24531,11 @@
       <c r="O609" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="610" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P609" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>659</v>
       </c>
@@ -22649,8 +24566,11 @@
       <c r="O610" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P610" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>660</v>
       </c>
@@ -22681,8 +24601,11 @@
       <c r="O611" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="612" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P611" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>661</v>
       </c>
@@ -22716,8 +24639,11 @@
       <c r="O612" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P612" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>662</v>
       </c>
@@ -22748,8 +24674,11 @@
       <c r="O613" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="614" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P613" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>663</v>
       </c>
@@ -22783,8 +24712,11 @@
       <c r="O614" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P614" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>665</v>
       </c>
@@ -22815,8 +24747,11 @@
       <c r="O615" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="616" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P615" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>666</v>
       </c>
@@ -22847,8 +24782,11 @@
       <c r="O616" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P616" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -22879,8 +24817,11 @@
       <c r="O617">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="618" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P617">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>668</v>
       </c>
@@ -22911,8 +24852,11 @@
       <c r="O618" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P618" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>669</v>
       </c>
@@ -22943,8 +24887,11 @@
       <c r="O619">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="620" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P619">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>670</v>
       </c>
@@ -22978,8 +24925,11 @@
       <c r="O620" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P620" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>671</v>
       </c>
@@ -23010,8 +24960,11 @@
       <c r="O621">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="622" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P621" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>672</v>
       </c>
@@ -23042,8 +24995,11 @@
       <c r="O622" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P622" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -23074,8 +25030,11 @@
       <c r="O623">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="624" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P623" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>674</v>
       </c>
@@ -23106,8 +25065,11 @@
       <c r="O624" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P624" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>675</v>
       </c>
@@ -23138,8 +25100,11 @@
       <c r="O625">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="626" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P625" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>676</v>
       </c>
@@ -23170,8 +25135,11 @@
       <c r="O626" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P626" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>677</v>
       </c>
@@ -23202,8 +25170,11 @@
       <c r="O627">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="628" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P627" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>678</v>
       </c>
@@ -23234,8 +25205,11 @@
       <c r="O628" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P628" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>679</v>
       </c>
@@ -23266,8 +25240,11 @@
       <c r="O629">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="630" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P629" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>680</v>
       </c>
@@ -23298,8 +25275,11 @@
       <c r="O630" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P630" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>681</v>
       </c>
@@ -23329,16 +25309,20 @@
       </c>
       <c r="O631">
         <v>0.8</v>
+      </c>
+      <c r="P631" s="1">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="quercus"/>
+        <filter val="populus"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\Fuelinex\fuelinex\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D9E699-0A7C-43C9-B501-9F532B0CBF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371ACE4E-51B9-954A-8DC2-FA11FF166063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="718">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2197,6 +2197,15 @@
   <si>
     <t>1.9 (died at tip)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy 171: apical shoot dead</t>
+  </si>
+  <si>
+    <t>measuring sideshoot</t>
+  </si>
+  <si>
+    <t>doy 171: no more leaves, branches yellow-greenish</t>
   </si>
 </sst>
 </file>
@@ -2207,28 +2216,28 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2236,7 +2245,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2244,7 +2253,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2252,14 +2261,14 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2267,7 +2276,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2275,7 +2284,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2283,28 +2292,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2312,14 +2321,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="major"/>
@@ -2328,20 +2337,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3073,19 +3082,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P631"/>
+  <dimension ref="A1:Q631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A600" zoomScale="107" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="Q614" sqref="Q614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3134,8 +3142,11 @@
       <c r="P1" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3181,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3240,7 +3251,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3275,7 +3286,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3310,7 +3321,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3356,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3380,7 +3391,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3415,7 +3426,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3534,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3593,7 +3604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3663,7 +3674,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3733,7 +3744,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3768,7 +3779,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3946,7 +3957,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3981,7 +3992,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4016,7 +4027,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4051,7 +4062,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4086,7 +4097,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4156,7 +4167,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -4191,7 +4202,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4226,7 +4237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4261,7 +4272,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4296,7 +4307,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4331,7 +4342,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4366,7 +4377,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4404,7 +4415,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4439,7 +4450,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4474,7 +4485,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4509,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4544,7 +4555,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4614,7 +4625,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4649,7 +4660,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4684,7 +4695,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4719,7 +4730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4754,7 +4765,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4789,7 +4800,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4859,7 +4870,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4905,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4929,7 +4940,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4964,7 +4975,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -4999,7 +5010,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5034,7 +5045,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -5069,7 +5080,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5104,7 +5115,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -5139,7 +5150,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5174,7 +5185,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5244,7 +5255,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -5279,7 +5290,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -5314,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -5349,7 +5360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -5384,7 +5395,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -5419,7 +5430,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -5454,7 +5465,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5489,7 +5500,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5524,7 +5535,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5594,7 +5605,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5629,7 +5640,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5664,7 +5675,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5699,7 +5710,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5734,7 +5745,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5769,7 +5780,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5804,7 +5815,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5874,7 +5885,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5909,7 +5920,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5944,7 +5955,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5979,7 +5990,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -6014,7 +6025,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6049,7 +6060,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -6084,7 +6095,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -6224,7 +6235,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -6259,7 +6270,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -6294,7 +6305,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -6329,7 +6340,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -6364,7 +6375,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6399,7 +6410,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6434,7 +6445,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6469,7 +6480,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6504,7 +6515,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6539,7 +6550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6574,7 +6585,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6609,7 +6620,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6644,7 +6655,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6679,7 +6690,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6749,7 +6760,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6784,7 +6795,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6819,7 +6830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6927,7 +6938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6962,7 +6973,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -6997,7 +7008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -7070,7 +7081,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -7105,7 +7116,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -7140,7 +7151,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -7175,7 +7186,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -7210,7 +7221,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -7245,7 +7256,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -7280,7 +7291,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -7315,7 +7326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -7350,7 +7361,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -7385,7 +7396,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -7420,7 +7431,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -7455,7 +7466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7490,7 +7501,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -7525,7 +7536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -7560,7 +7571,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -7595,7 +7606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -7630,7 +7641,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -7665,7 +7676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -7700,7 +7711,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -7735,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="134" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -7805,7 +7816,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -7840,7 +7851,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -7878,7 +7889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -7913,7 +7924,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -7948,7 +7959,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -7983,7 +7994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -8018,7 +8029,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="141" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -8053,7 +8064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -8088,7 +8099,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -8123,7 +8134,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -8158,7 +8169,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -8193,7 +8204,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -8228,7 +8239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -8263,7 +8274,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8298,7 +8309,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -8333,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -8368,7 +8379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -8403,7 +8414,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -8438,7 +8449,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -8473,7 +8484,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -8508,7 +8519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -8543,7 +8554,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -8578,7 +8589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -8613,7 +8624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -8648,7 +8659,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -8683,7 +8694,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -8718,7 +8729,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -8753,7 +8764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -8788,7 +8799,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -8823,7 +8834,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -8858,7 +8869,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -8893,7 +8904,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -8928,7 +8939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -8963,7 +8974,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -8998,7 +9009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -9033,7 +9044,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -9068,7 +9079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -9103,7 +9114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -9138,7 +9149,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -9173,7 +9184,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -9208,7 +9219,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -9243,7 +9254,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="177" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -9313,7 +9324,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -9348,7 +9359,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -9383,7 +9394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -9418,7 +9429,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="181" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -9453,7 +9464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -9487,8 +9498,11 @@
       <c r="P182">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -9522,8 +9536,11 @@
       <c r="P183" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q183" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -9555,10 +9572,13 @@
         <v>2.8</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+      <c r="Q184">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -9592,8 +9612,11 @@
       <c r="P185" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q185" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -9627,8 +9650,11 @@
       <c r="P186">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -9662,8 +9688,11 @@
       <c r="P187" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q187" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -9697,8 +9726,11 @@
       <c r="P188" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q188" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -9735,8 +9767,11 @@
       <c r="P189" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q189" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -9770,8 +9805,11 @@
       <c r="P190" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q190" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -9805,8 +9843,11 @@
       <c r="P191" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q191" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -9840,8 +9881,11 @@
       <c r="P192" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q192" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -9875,8 +9919,11 @@
       <c r="P193" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q193" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -9913,8 +9960,11 @@
       <c r="P194" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q194" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -9948,8 +9998,11 @@
       <c r="P195" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q195" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -9983,8 +10036,11 @@
       <c r="P196" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q196" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -10018,8 +10074,11 @@
       <c r="P197">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -10053,8 +10112,11 @@
       <c r="P198" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q198" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -10088,8 +10150,11 @@
       <c r="P199">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -10123,8 +10188,11 @@
       <c r="P200" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q200" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -10158,8 +10226,11 @@
       <c r="P201">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -10193,8 +10264,11 @@
       <c r="P202" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q202" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -10228,8 +10302,11 @@
       <c r="P203">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -10263,8 +10340,11 @@
       <c r="P204" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q204" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -10298,8 +10378,11 @@
       <c r="P205">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -10333,8 +10416,11 @@
       <c r="P206" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q206" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -10368,8 +10454,11 @@
       <c r="P207">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -10403,8 +10492,11 @@
       <c r="P208" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q208" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -10438,8 +10530,11 @@
       <c r="P209">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -10473,8 +10568,11 @@
       <c r="P210" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q210" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -10508,8 +10606,11 @@
       <c r="P211" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q211" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -10543,8 +10644,11 @@
       <c r="P212">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -10578,8 +10682,11 @@
       <c r="P213" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q213" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -10613,8 +10720,11 @@
       <c r="P214">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -10648,8 +10758,11 @@
       <c r="P215" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q215" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -10683,8 +10796,11 @@
       <c r="P216">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -10718,8 +10834,11 @@
       <c r="P217" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q217" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -10753,8 +10872,11 @@
       <c r="P218">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -10788,8 +10910,11 @@
       <c r="P219" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q219" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -10823,8 +10948,11 @@
       <c r="P220">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -10858,8 +10986,11 @@
       <c r="P221" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q221" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -10893,8 +11024,11 @@
       <c r="P222">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -10928,8 +11062,11 @@
       <c r="P223" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q223" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -10963,8 +11100,11 @@
       <c r="P224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -10998,8 +11138,11 @@
       <c r="P225" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q225" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -11033,8 +11176,11 @@
       <c r="P226">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -11068,8 +11214,11 @@
       <c r="P227" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q227" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -11103,8 +11252,11 @@
       <c r="P228">
         <v>12</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -11138,8 +11290,11 @@
       <c r="P229" s="1">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q229" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -11173,8 +11328,11 @@
       <c r="P230">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -11208,8 +11366,11 @@
       <c r="P231" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q231" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -11243,8 +11404,11 @@
       <c r="P232">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -11278,8 +11442,11 @@
       <c r="P233" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q233" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -11313,8 +11480,11 @@
       <c r="P234">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -11348,8 +11518,11 @@
       <c r="P235" s="1">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q235" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -11383,8 +11556,11 @@
       <c r="P236">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -11421,8 +11597,11 @@
       <c r="P237" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q237" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -11456,8 +11635,11 @@
       <c r="P238">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -11491,8 +11673,11 @@
       <c r="P239" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q239" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -11526,8 +11711,11 @@
       <c r="P240">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -11561,8 +11749,11 @@
       <c r="P241" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q241" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -11596,8 +11787,11 @@
       <c r="P242">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -11631,8 +11825,11 @@
       <c r="P243" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q243" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -11666,8 +11863,11 @@
       <c r="P244">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -11701,8 +11901,11 @@
       <c r="P245" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q245" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -11736,8 +11939,11 @@
       <c r="P246">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -11771,8 +11977,11 @@
       <c r="P247" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q247" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -11806,8 +12015,11 @@
       <c r="P248">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -11841,8 +12053,11 @@
       <c r="P249" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q249" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -11876,8 +12091,11 @@
       <c r="P250">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -11911,8 +12129,11 @@
       <c r="P251" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q251" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -11946,8 +12167,11 @@
       <c r="P252">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -11981,8 +12205,11 @@
       <c r="P253" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q253" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -12016,8 +12243,11 @@
       <c r="P254">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -12051,8 +12281,11 @@
       <c r="P255" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q255" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -12086,8 +12319,11 @@
       <c r="P256">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -12121,8 +12357,11 @@
       <c r="P257" s="1">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q257" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -12156,8 +12395,11 @@
       <c r="P258" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q258" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -12191,8 +12433,11 @@
       <c r="P259">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -12226,8 +12471,11 @@
       <c r="P260" s="1">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q260" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -12261,8 +12509,11 @@
       <c r="P261" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q261" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -12296,8 +12547,11 @@
       <c r="P262" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q262" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -12331,8 +12585,11 @@
       <c r="P263" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q263" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -12366,8 +12623,11 @@
       <c r="P264" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q264" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -12401,8 +12661,11 @@
       <c r="P265" s="1">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q265" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -12436,8 +12699,11 @@
       <c r="P266" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q266" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -12471,8 +12737,11 @@
       <c r="P267" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q267" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -12506,8 +12775,11 @@
       <c r="P268" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q268" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -12541,8 +12813,11 @@
       <c r="P269" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q269" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -12576,8 +12851,11 @@
       <c r="P270" s="1">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q270" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -12611,8 +12889,11 @@
       <c r="P271" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q271" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -12647,7 +12928,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -12682,7 +12963,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -12717,7 +12998,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -12752,7 +13033,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -12787,7 +13068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -12822,7 +13103,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -12857,7 +13138,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -12895,7 +13176,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -12930,7 +13211,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -12965,7 +13246,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -13000,7 +13281,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="283" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -13038,7 +13319,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -13073,7 +13354,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -13108,7 +13389,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -13143,7 +13424,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="287" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -13178,7 +13459,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -13213,7 +13494,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -13248,7 +13529,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -13283,7 +13564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -13318,7 +13599,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -13353,7 +13634,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -13388,7 +13669,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -13423,7 +13704,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -13458,7 +13739,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -13493,7 +13774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -13528,7 +13809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -13563,7 +13844,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="299" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -13598,7 +13879,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -13633,7 +13914,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -13668,7 +13949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -13703,7 +13984,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="303" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -13738,7 +14019,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -13773,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -13808,7 +14089,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -13843,7 +14124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -13878,7 +14159,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -13913,7 +14194,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="309" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -13948,7 +14229,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -13986,7 +14267,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="311" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -14021,7 +14302,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -14056,7 +14337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -14091,7 +14372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -14126,7 +14407,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="315" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -14161,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -14196,7 +14477,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="317" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -14231,7 +14512,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -14266,7 +14547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -14301,7 +14582,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -14336,7 +14617,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="321" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -14371,7 +14652,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -14409,7 +14690,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -14444,7 +14725,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -14482,7 +14763,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="325" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -14517,7 +14798,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -14552,7 +14833,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="327" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -14587,7 +14868,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="328" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -14622,7 +14903,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -14657,7 +14938,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -14692,7 +14973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -14727,7 +15008,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="332" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -14762,7 +15043,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -14797,7 +15078,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="334" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -14832,7 +15113,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -14867,7 +15148,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="336" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -14902,7 +15183,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -14937,7 +15218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -14972,7 +15253,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -15007,7 +15288,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="340" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -15042,7 +15323,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -15077,7 +15358,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="342" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -15112,7 +15393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -15147,7 +15428,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="344" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -15182,7 +15463,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -15217,7 +15498,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="346" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -15252,7 +15533,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -15287,7 +15568,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="348" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -15322,7 +15603,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -15357,7 +15638,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="350" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -15392,7 +15673,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -15427,7 +15708,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -15462,7 +15743,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -15497,7 +15778,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -15532,7 +15813,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="355" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -15570,7 +15851,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -15605,7 +15886,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="357" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -15640,7 +15921,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -15675,7 +15956,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="359" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -15710,7 +15991,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -15745,7 +16026,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="361" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -15780,7 +16061,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -15814,8 +16095,11 @@
       <c r="P362">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q362">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -15849,8 +16133,11 @@
       <c r="P363" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q363" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -15884,8 +16171,11 @@
       <c r="P364" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q364">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -15919,8 +16209,11 @@
       <c r="P365" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q365" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -15954,8 +16247,11 @@
       <c r="P366">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q366">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -15989,8 +16285,11 @@
       <c r="P367" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -16027,8 +16326,11 @@
       <c r="P368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -16044,6 +16346,9 @@
       <c r="E369" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="F369" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="H369" s="1">
         <v>0.4</v>
       </c>
@@ -16062,8 +16367,11 @@
       <c r="P369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q369" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -16097,8 +16405,11 @@
       <c r="P370">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q370">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -16132,8 +16443,11 @@
       <c r="P371" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q371" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -16167,8 +16481,11 @@
       <c r="P372">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="373" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q372">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -16202,8 +16519,11 @@
       <c r="P373" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q373" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -16237,8 +16557,11 @@
       <c r="P374">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q374">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -16272,8 +16595,11 @@
       <c r="P375" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q375" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -16307,8 +16633,11 @@
       <c r="P376">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="377" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q376">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -16342,8 +16671,11 @@
       <c r="P377" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q377" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -16377,8 +16709,11 @@
       <c r="P378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q378">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -16412,8 +16747,11 @@
       <c r="P379" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q379" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -16450,8 +16788,11 @@
       <c r="P380" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="381" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q380" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -16488,8 +16829,11 @@
       <c r="P381" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q381" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -16523,8 +16867,11 @@
       <c r="P382">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="383" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q382">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -16558,8 +16905,11 @@
       <c r="P383" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q383" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -16593,8 +16943,11 @@
       <c r="P384">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="385" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q384">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -16628,8 +16981,11 @@
       <c r="P385" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q385" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -16663,8 +17019,11 @@
       <c r="P386">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="387" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q386">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -16701,8 +17060,11 @@
       <c r="P387" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q387" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -16736,8 +17098,11 @@
       <c r="P388">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q388">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -16771,8 +17136,11 @@
       <c r="P389" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q389" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -16806,8 +17174,11 @@
       <c r="P390">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="391" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q390">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -16841,8 +17212,11 @@
       <c r="P391" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q391" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -16879,8 +17253,11 @@
       <c r="P392" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="393" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q392" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -16914,8 +17291,11 @@
       <c r="P393" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q393" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -16931,6 +17311,9 @@
       <c r="E394" t="s">
         <v>391</v>
       </c>
+      <c r="F394" t="s">
+        <v>716</v>
+      </c>
       <c r="H394">
         <v>0.6</v>
       </c>
@@ -16949,8 +17332,11 @@
       <c r="P394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q394">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -16984,8 +17370,11 @@
       <c r="P395" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q395" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -17019,8 +17408,11 @@
       <c r="P396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -17054,8 +17446,11 @@
       <c r="P397" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="398" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q397" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -17089,8 +17484,11 @@
       <c r="P398" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q398" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -17127,8 +17525,11 @@
       <c r="P399" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="400" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q399" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -17162,8 +17563,11 @@
       <c r="P400" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q400" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -17197,8 +17601,11 @@
       <c r="P401" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q401" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -17232,8 +17639,11 @@
       <c r="P402" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q402" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -17270,8 +17680,11 @@
       <c r="P403" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="404" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q403" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -17308,8 +17721,11 @@
       <c r="P404" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q404" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -17343,8 +17759,11 @@
       <c r="P405" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="406" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q405" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -17378,8 +17797,11 @@
       <c r="P406" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q406" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -17413,8 +17835,11 @@
       <c r="P407">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="408" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q407">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -17448,8 +17873,11 @@
       <c r="P408" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q408" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -17483,8 +17911,11 @@
       <c r="P409">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="410" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q409">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -17518,8 +17949,11 @@
       <c r="P410" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q410" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -17553,8 +17987,11 @@
       <c r="P411">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="412" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q411">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -17588,8 +18025,11 @@
       <c r="P412" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q412" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -17623,8 +18063,11 @@
       <c r="P413">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="414" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q413">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -17658,8 +18101,11 @@
       <c r="P414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q414" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -17693,8 +18139,11 @@
       <c r="P415">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="416" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q415">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -17731,8 +18180,11 @@
       <c r="P416" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q416" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -17769,8 +18221,11 @@
       <c r="P417" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="418" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -17804,8 +18259,11 @@
       <c r="P418" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q418" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -17839,8 +18297,11 @@
       <c r="P419">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="420" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q419">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -17874,8 +18335,11 @@
       <c r="P420" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="421" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q420" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -17912,8 +18376,11 @@
       <c r="P421" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q421" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -17947,8 +18414,11 @@
       <c r="P422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q422">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -17985,8 +18455,11 @@
       <c r="P423" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q423" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -18020,8 +18493,11 @@
       <c r="P424">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="425" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q424">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -18055,8 +18531,11 @@
       <c r="P425" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q425" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -18072,6 +18551,9 @@
       <c r="E426" t="s">
         <v>391</v>
       </c>
+      <c r="F426" t="s">
+        <v>715</v>
+      </c>
       <c r="H426">
         <v>0.9</v>
       </c>
@@ -18090,8 +18572,11 @@
       <c r="P426" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="427" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q426" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -18125,8 +18610,11 @@
       <c r="P427" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q427" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -18160,8 +18648,11 @@
       <c r="P428">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="429" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q428">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -18195,8 +18686,11 @@
       <c r="P429" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q429" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -18230,8 +18724,11 @@
       <c r="P430">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="431" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q430">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -18247,6 +18744,9 @@
       <c r="E431" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="F431" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="H431" s="1">
         <v>3.9</v>
       </c>
@@ -18265,8 +18765,11 @@
       <c r="P431" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q431" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -18300,8 +18803,11 @@
       <c r="P432">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="433" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q432">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -18335,8 +18841,11 @@
       <c r="P433" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q433" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -18370,8 +18879,11 @@
       <c r="P434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q434">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -18405,8 +18917,11 @@
       <c r="P435" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q435" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -18440,8 +18955,11 @@
       <c r="P436">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="437" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q436">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -18475,8 +18993,11 @@
       <c r="P437" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q437" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -18510,8 +19031,11 @@
       <c r="P438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -18545,8 +19069,11 @@
       <c r="P439" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q439" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -18580,8 +19107,11 @@
       <c r="P440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q440">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -18615,8 +19145,11 @@
       <c r="P441" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q441" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -18653,8 +19186,11 @@
       <c r="P442" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="443" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q442" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -18688,8 +19224,11 @@
       <c r="P443" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q443" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -18723,8 +19262,11 @@
       <c r="P444" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="445" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q444" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -18758,8 +19300,11 @@
       <c r="P445" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -18793,8 +19338,11 @@
       <c r="P446">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="447" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q446">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -18828,8 +19376,11 @@
       <c r="P447" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q447" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -18863,8 +19414,11 @@
       <c r="P448">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="449" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q448">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -18898,8 +19452,11 @@
       <c r="P449" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q449" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -18933,8 +19490,11 @@
       <c r="P450">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="451" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q450">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -18971,8 +19531,11 @@
       <c r="P451" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q451" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -19007,7 +19570,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -19042,7 +19605,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -19077,7 +19640,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="455" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -19112,7 +19675,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -19147,7 +19710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -19182,7 +19745,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -19217,7 +19780,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -19252,7 +19815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -19287,7 +19850,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="461" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -19322,7 +19885,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -19357,7 +19920,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="463" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -19392,7 +19955,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -19427,7 +19990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -19462,7 +20025,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="466" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -19497,7 +20060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -19532,7 +20095,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="468" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -19567,7 +20130,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -19602,7 +20165,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="470" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -19637,7 +20200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -19672,7 +20235,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="472" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -19707,7 +20270,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -19742,7 +20305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -19780,7 +20343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -19815,7 +20378,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="476" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -19850,7 +20413,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -19885,7 +20448,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="478" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -19920,7 +20483,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -19955,7 +20518,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="480" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -19990,7 +20553,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -20025,7 +20588,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="482" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -20060,7 +20623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -20095,7 +20658,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="484" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -20130,7 +20693,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -20165,7 +20728,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="486" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -20200,7 +20763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -20235,7 +20798,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="488" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -20270,7 +20833,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="489" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -20305,7 +20868,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -20340,7 +20903,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="491" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -20375,7 +20938,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -20410,7 +20973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -20445,7 +21008,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -20480,7 +21043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -20518,7 +21081,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -20553,7 +21116,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="497" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -20588,7 +21151,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -20623,7 +21186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -20658,7 +21221,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -20693,7 +21256,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="501" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -20728,7 +21291,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -20763,7 +21326,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="503" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -20798,7 +21361,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -20833,7 +21396,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="505" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -20868,7 +21431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -20903,7 +21466,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="507" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -20938,7 +21501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -20973,7 +21536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -21008,7 +21571,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -21043,7 +21606,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="511" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -21078,7 +21641,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -21113,7 +21676,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="513" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -21148,7 +21711,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -21183,7 +21746,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="515" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -21218,7 +21781,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -21253,7 +21816,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="517" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -21291,7 +21854,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -21329,7 +21892,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="519" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -21364,7 +21927,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -21399,7 +21962,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="521" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -21434,7 +21997,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -21469,7 +22032,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="523" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -21504,7 +22067,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -21539,7 +22102,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="525" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -21574,7 +22137,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -21609,7 +22172,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="527" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -21644,7 +22207,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -21679,7 +22242,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="529" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>572</v>
       </c>
@@ -21714,7 +22277,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -21749,7 +22312,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="531" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>574</v>
       </c>
@@ -21784,7 +22347,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -21822,7 +22385,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="533" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>577</v>
       </c>
@@ -21857,7 +22420,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>578</v>
       </c>
@@ -21892,7 +22455,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="535" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>579</v>
       </c>
@@ -21927,7 +22490,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="536" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>580</v>
       </c>
@@ -21962,7 +22525,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>581</v>
       </c>
@@ -21997,7 +22560,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="538" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>582</v>
       </c>
@@ -22032,7 +22595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>583</v>
       </c>
@@ -22067,7 +22630,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="540" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>584</v>
       </c>
@@ -22102,7 +22665,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -22137,7 +22700,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="542" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>586</v>
       </c>
@@ -22171,8 +22734,11 @@
       <c r="P542" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q542" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>589</v>
       </c>
@@ -22206,8 +22772,11 @@
       <c r="P543">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="544" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q543">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>590</v>
       </c>
@@ -22241,8 +22810,11 @@
       <c r="P544" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q544" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>591</v>
       </c>
@@ -22276,8 +22848,11 @@
       <c r="P545">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="546" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q545">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>592</v>
       </c>
@@ -22311,8 +22886,11 @@
       <c r="P546" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q546" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>593</v>
       </c>
@@ -22346,8 +22924,11 @@
       <c r="P547">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="548" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q547">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>594</v>
       </c>
@@ -22381,8 +22962,11 @@
       <c r="P548" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q548" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>595</v>
       </c>
@@ -22416,8 +23000,11 @@
       <c r="P549">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="550" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q549">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>596</v>
       </c>
@@ -22451,8 +23038,11 @@
       <c r="P550" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q550" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>597</v>
       </c>
@@ -22486,8 +23076,11 @@
       <c r="P551">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="552" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q551">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>598</v>
       </c>
@@ -22524,8 +23117,11 @@
       <c r="P552" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>599</v>
       </c>
@@ -22559,8 +23155,11 @@
       <c r="P553">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="554" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q553">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>600</v>
       </c>
@@ -22594,8 +23193,11 @@
       <c r="P554" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q554" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>601</v>
       </c>
@@ -22629,8 +23231,11 @@
       <c r="P555">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="556" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q555">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>602</v>
       </c>
@@ -22664,8 +23269,11 @@
       <c r="P556" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q556" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>603</v>
       </c>
@@ -22681,6 +23289,9 @@
       <c r="E557" t="s">
         <v>588</v>
       </c>
+      <c r="F557" t="s">
+        <v>715</v>
+      </c>
       <c r="J557">
         <v>0.3</v>
       </c>
@@ -22699,8 +23310,11 @@
       <c r="P557">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="558" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q557" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>604</v>
       </c>
@@ -22734,8 +23348,11 @@
       <c r="P558" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="559" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q558" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>605</v>
       </c>
@@ -22769,8 +23386,11 @@
       <c r="P559" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q559" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -22804,8 +23424,11 @@
       <c r="P560" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="561" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q560" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>607</v>
       </c>
@@ -22839,8 +23462,11 @@
       <c r="P561" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q561" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -22874,8 +23500,11 @@
       <c r="P562" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="563" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q562" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>609</v>
       </c>
@@ -22909,8 +23538,11 @@
       <c r="P563" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q563" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -22944,8 +23576,11 @@
       <c r="P564" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="565" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q564" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>611</v>
       </c>
@@ -22979,8 +23614,11 @@
       <c r="P565" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q565" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>612</v>
       </c>
@@ -22996,6 +23634,9 @@
       <c r="E566" t="s">
         <v>588</v>
       </c>
+      <c r="F566" t="s">
+        <v>715</v>
+      </c>
       <c r="J566">
         <v>0.4</v>
       </c>
@@ -23014,8 +23655,11 @@
       <c r="P566" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="567" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q566" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>613</v>
       </c>
@@ -23049,8 +23693,11 @@
       <c r="P567" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q567" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>614</v>
       </c>
@@ -23084,8 +23731,11 @@
       <c r="P568" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q568" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>615</v>
       </c>
@@ -23119,8 +23769,11 @@
       <c r="P569" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q569" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>616</v>
       </c>
@@ -23154,8 +23807,11 @@
       <c r="P570" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="571" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q570" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>617</v>
       </c>
@@ -23189,8 +23845,11 @@
       <c r="P571" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q571" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>618</v>
       </c>
@@ -23224,8 +23883,11 @@
       <c r="P572">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="573" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q572">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>619</v>
       </c>
@@ -23259,8 +23921,11 @@
       <c r="P573" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q573" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>620</v>
       </c>
@@ -23294,8 +23959,11 @@
       <c r="P574" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="575" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q574" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>621</v>
       </c>
@@ -23311,6 +23979,9 @@
       <c r="E575" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="F575" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="J575" s="1">
         <v>0.9</v>
       </c>
@@ -23329,8 +24000,11 @@
       <c r="P575" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q575" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>622</v>
       </c>
@@ -23346,6 +24020,9 @@
       <c r="E576" t="s">
         <v>588</v>
       </c>
+      <c r="F576" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="J576">
         <v>0.3</v>
       </c>
@@ -23364,8 +24041,11 @@
       <c r="P576">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="577" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q576" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>623</v>
       </c>
@@ -23399,8 +24079,11 @@
       <c r="P577" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q577" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>624</v>
       </c>
@@ -23434,8 +24117,11 @@
       <c r="P578">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="579" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q578">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>625</v>
       </c>
@@ -23469,8 +24155,11 @@
       <c r="P579" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q579" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>626</v>
       </c>
@@ -23504,8 +24193,11 @@
       <c r="P580">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q580">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>627</v>
       </c>
@@ -23539,8 +24231,11 @@
       <c r="P581" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q581" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>628</v>
       </c>
@@ -23574,8 +24269,11 @@
       <c r="P582">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="583" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q582">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>629</v>
       </c>
@@ -23609,8 +24307,11 @@
       <c r="P583" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q583" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>630</v>
       </c>
@@ -23644,8 +24345,11 @@
       <c r="P584">
         <v>1</v>
       </c>
-    </row>
-    <row r="585" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q584">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>631</v>
       </c>
@@ -23679,8 +24383,11 @@
       <c r="P585" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q585" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>632</v>
       </c>
@@ -23714,8 +24421,11 @@
       <c r="P586">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="587" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>633</v>
       </c>
@@ -23749,8 +24459,11 @@
       <c r="P587" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q587" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>634</v>
       </c>
@@ -23787,8 +24500,11 @@
       <c r="P588" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="589" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q588" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -23825,8 +24541,11 @@
       <c r="P589" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>638</v>
       </c>
@@ -23860,8 +24579,11 @@
       <c r="P590">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="591" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q590">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>639</v>
       </c>
@@ -23895,8 +24617,11 @@
       <c r="P591" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q591" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>640</v>
       </c>
@@ -23930,8 +24655,11 @@
       <c r="P592">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="593" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q592">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>641</v>
       </c>
@@ -23965,8 +24693,11 @@
       <c r="P593" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q593" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -24000,8 +24731,11 @@
       <c r="P594">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="595" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>643</v>
       </c>
@@ -24035,8 +24769,11 @@
       <c r="P595" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q595" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>644</v>
       </c>
@@ -24070,8 +24807,11 @@
       <c r="P596">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="597" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q596">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>645</v>
       </c>
@@ -24105,8 +24845,11 @@
       <c r="P597" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q597" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>646</v>
       </c>
@@ -24140,8 +24883,11 @@
       <c r="P598">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="599" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q598">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>647</v>
       </c>
@@ -24175,8 +24921,11 @@
       <c r="P599" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q599" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>648</v>
       </c>
@@ -24210,8 +24959,11 @@
       <c r="P600">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="601" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q600">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>649</v>
       </c>
@@ -24227,6 +24979,9 @@
       <c r="E601" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="F601" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="J601" s="1">
         <v>0.4</v>
       </c>
@@ -24245,8 +25000,11 @@
       <c r="P601" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q601" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>650</v>
       </c>
@@ -24280,8 +25038,11 @@
       <c r="P602">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="603" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q602">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>651</v>
       </c>
@@ -24318,8 +25079,11 @@
       <c r="P603" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>653</v>
       </c>
@@ -24356,8 +25120,11 @@
       <c r="P604" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="605" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>654</v>
       </c>
@@ -24391,8 +25158,11 @@
       <c r="P605" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="606" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>655</v>
       </c>
@@ -24426,8 +25196,11 @@
       <c r="P606" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q606" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>656</v>
       </c>
@@ -24464,8 +25237,11 @@
       <c r="P607">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="608" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q607">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>657</v>
       </c>
@@ -24499,8 +25275,11 @@
       <c r="P608" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q608" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>658</v>
       </c>
@@ -24516,6 +25295,9 @@
       <c r="E609" t="s">
         <v>588</v>
       </c>
+      <c r="F609" t="s">
+        <v>715</v>
+      </c>
       <c r="J609">
         <v>0.4</v>
       </c>
@@ -24534,8 +25316,11 @@
       <c r="P609" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="610" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q609" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>659</v>
       </c>
@@ -24569,8 +25354,11 @@
       <c r="P610" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q610" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>660</v>
       </c>
@@ -24604,8 +25392,11 @@
       <c r="P611" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="612" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q611" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>661</v>
       </c>
@@ -24642,8 +25433,11 @@
       <c r="P612" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>662</v>
       </c>
@@ -24677,8 +25471,11 @@
       <c r="P613" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="614" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q613" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>663</v>
       </c>
@@ -24715,8 +25512,11 @@
       <c r="P614" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q614" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>665</v>
       </c>
@@ -24750,8 +25550,11 @@
       <c r="P615" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="616" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q615" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>666</v>
       </c>
@@ -24785,8 +25588,11 @@
       <c r="P616" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q616" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -24820,8 +25626,11 @@
       <c r="P617">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="618" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q617">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="618" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>668</v>
       </c>
@@ -24855,8 +25664,11 @@
       <c r="P618" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q618" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>669</v>
       </c>
@@ -24890,8 +25702,11 @@
       <c r="P619">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="620" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q619">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>670</v>
       </c>
@@ -24928,8 +25743,11 @@
       <c r="P620" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q620" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>671</v>
       </c>
@@ -24963,8 +25781,11 @@
       <c r="P621" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="622" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q621">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>672</v>
       </c>
@@ -24998,8 +25819,11 @@
       <c r="P622" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q622" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -25033,8 +25857,11 @@
       <c r="P623" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="624" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q623">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>674</v>
       </c>
@@ -25068,8 +25895,11 @@
       <c r="P624" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q624" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>675</v>
       </c>
@@ -25103,8 +25933,11 @@
       <c r="P625" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="626" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q625">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>676</v>
       </c>
@@ -25138,8 +25971,11 @@
       <c r="P626" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q626" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>677</v>
       </c>
@@ -25173,8 +26009,11 @@
       <c r="P627" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="628" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q627">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>678</v>
       </c>
@@ -25208,8 +26047,11 @@
       <c r="P628" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q628" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>679</v>
       </c>
@@ -25243,8 +26085,11 @@
       <c r="P629" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="630" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q629">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>680</v>
       </c>
@@ -25278,8 +26123,11 @@
       <c r="P630" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q630" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>681</v>
       </c>
@@ -25312,13 +26160,16 @@
       </c>
       <c r="P631" s="1">
         <v>1.4</v>
+      </c>
+      <c r="Q631">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="populus"/>
+        <filter val="sequoiadendron"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371ACE4E-51B9-954A-8DC2-FA11FF166063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E50B0F-71AF-FB4E-84AC-A1F18B1BC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="720">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2139,10 +2139,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>12.5 (apex may die)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>0.7 (maybe last time typo)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2206,6 +2202,15 @@
   </si>
   <si>
     <t>doy 171: no more leaves, branches yellow-greenish</t>
+  </si>
+  <si>
+    <t>doy 164: apical shoot broken</t>
+  </si>
+  <si>
+    <t>doy 171: measurement from 164 is probably wrong</t>
+  </si>
+  <si>
+    <t>doy 164/171: dead tip</t>
   </si>
 </sst>
 </file>
@@ -3084,8 +3089,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" zoomScale="107" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="Q614" sqref="Q614"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="Q347" sqref="Q347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,6 +3185,9 @@
       <c r="P2">
         <v>14.8</v>
       </c>
+      <c r="Q2">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3215,6 +3223,9 @@
       <c r="P3" s="1">
         <v>12.7</v>
       </c>
+      <c r="Q3" s="1">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3250,6 +3261,9 @@
       <c r="P4">
         <v>17.5</v>
       </c>
+      <c r="Q4">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3285,6 +3299,9 @@
       <c r="P5" s="1">
         <v>11.5</v>
       </c>
+      <c r="Q5" s="1">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3320,6 +3337,9 @@
       <c r="P6">
         <v>18.600000000000001</v>
       </c>
+      <c r="Q6">
+        <v>18.899999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3355,6 +3375,9 @@
       <c r="P7" s="1">
         <v>2.5</v>
       </c>
+      <c r="Q7" s="1">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3390,6 +3413,9 @@
       <c r="P8">
         <v>8.3000000000000007</v>
       </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3425,6 +3451,9 @@
       <c r="P9" s="1">
         <v>16.5</v>
       </c>
+      <c r="Q9" s="1">
+        <v>16.100000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3460,6 +3489,9 @@
       <c r="P10">
         <v>12</v>
       </c>
+      <c r="Q10">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3495,6 +3527,9 @@
       <c r="P11" s="1">
         <v>4.7</v>
       </c>
+      <c r="Q11" s="1">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3533,6 +3568,9 @@
       <c r="P12">
         <v>4.5999999999999996</v>
       </c>
+      <c r="Q12">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3568,6 +3606,9 @@
       <c r="P13" s="1">
         <v>6.2</v>
       </c>
+      <c r="Q13" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3603,6 +3644,9 @@
       <c r="P14">
         <v>6</v>
       </c>
+      <c r="Q14">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3638,6 +3682,9 @@
       <c r="P15" s="1">
         <v>13</v>
       </c>
+      <c r="Q15" s="1">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3673,8 +3720,11 @@
       <c r="P16">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3708,8 +3758,11 @@
       <c r="P17" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3743,8 +3796,11 @@
       <c r="P18">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3778,8 +3834,11 @@
       <c r="P19" s="1">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3813,8 +3872,11 @@
       <c r="P20">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3845,8 +3907,11 @@
       <c r="P21" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3883,8 +3948,11 @@
       <c r="P22">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3918,8 +3986,11 @@
       <c r="P23" s="1">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3956,8 +4027,11 @@
       <c r="P24">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3991,8 +4065,11 @@
       <c r="P25" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4026,8 +4103,11 @@
       <c r="P26">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4061,8 +4141,11 @@
       <c r="P27" s="1">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4078,6 +4161,9 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
+      <c r="F28" t="s">
+        <v>717</v>
+      </c>
       <c r="G28">
         <v>6.9</v>
       </c>
@@ -4093,11 +4179,14 @@
       <c r="O28">
         <v>11.8</v>
       </c>
-      <c r="P28" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>12.5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -4131,8 +4220,11 @@
       <c r="P29" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4148,6 +4240,9 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
+      <c r="F30" t="s">
+        <v>718</v>
+      </c>
       <c r="G30">
         <v>5</v>
       </c>
@@ -4166,8 +4261,11 @@
       <c r="P30">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -4201,8 +4299,11 @@
       <c r="P31" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="1">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4236,8 +4337,11 @@
       <c r="P32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4271,8 +4375,11 @@
       <c r="P33" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4306,8 +4413,11 @@
       <c r="P34">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4341,8 +4451,11 @@
       <c r="P35" s="1">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4376,8 +4489,11 @@
       <c r="P36">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4530,11 @@
       <c r="P37" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4568,11 @@
       <c r="P38">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4484,8 +4606,11 @@
       <c r="P39" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4519,8 +4644,11 @@
       <c r="P40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4554,8 +4682,11 @@
       <c r="P41" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4589,8 +4720,11 @@
       <c r="P42">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4624,8 +4758,11 @@
       <c r="P43" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4659,8 +4796,11 @@
       <c r="P44">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4694,8 +4834,11 @@
       <c r="P45" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4729,8 +4872,11 @@
       <c r="P46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4764,8 +4910,11 @@
       <c r="P47" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4799,8 +4948,11 @@
       <c r="P48" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q48" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4834,8 +4986,11 @@
       <c r="P49">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4869,8 +5024,11 @@
       <c r="P50" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q50" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4904,8 +5062,11 @@
       <c r="P51" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -4939,8 +5100,11 @@
       <c r="P52" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4974,8 +5138,11 @@
       <c r="P53" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="1">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -5009,8 +5176,11 @@
       <c r="P54" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5044,8 +5214,11 @@
       <c r="P55" s="1">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -5079,8 +5252,11 @@
       <c r="P56" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q56" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5114,8 +5290,11 @@
       <c r="P57" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -5149,8 +5328,11 @@
       <c r="P58" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q58" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5184,8 +5366,11 @@
       <c r="P59" s="1">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q59" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -5219,8 +5404,11 @@
       <c r="P60" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5254,8 +5442,11 @@
       <c r="P61" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -5289,8 +5480,11 @@
       <c r="P62" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -5324,8 +5518,11 @@
       <c r="P63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -5359,8 +5556,11 @@
       <c r="P64" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -5394,8 +5594,11 @@
       <c r="P65">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -5429,8 +5632,11 @@
       <c r="P66" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -5464,8 +5670,11 @@
       <c r="P67">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5499,8 +5708,11 @@
       <c r="P68" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5534,8 +5746,11 @@
       <c r="P69">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5569,8 +5784,11 @@
       <c r="P70" s="1">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5604,8 +5822,11 @@
       <c r="P71" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5639,8 +5860,11 @@
       <c r="P72" s="1">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q72" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5898,11 @@
       <c r="P73" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5709,8 +5936,11 @@
       <c r="P74" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5744,8 +5974,11 @@
       <c r="P75" s="1">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5779,8 +6012,11 @@
       <c r="P76" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -5814,8 +6050,11 @@
       <c r="P77" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5847,10 +6086,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="P78">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q78">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5884,8 +6126,11 @@
       <c r="P79" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q79" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5919,8 +6164,11 @@
       <c r="P80" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5954,8 +6202,11 @@
       <c r="P81" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q81" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5989,8 +6240,11 @@
       <c r="P82">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -6024,8 +6278,11 @@
       <c r="P83" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q83" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6059,8 +6316,11 @@
       <c r="P84">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -6094,8 +6354,11 @@
       <c r="P85" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q85" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -6129,8 +6392,11 @@
       <c r="P86">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -6164,8 +6430,11 @@
       <c r="P87" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q87" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -6199,8 +6468,11 @@
       <c r="P88">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -6234,8 +6506,11 @@
       <c r="P89" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q89" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -6269,8 +6544,11 @@
       <c r="P90" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -6304,8 +6582,11 @@
       <c r="P91" s="1">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q91" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -6339,8 +6620,11 @@
       <c r="P92">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -6374,8 +6658,11 @@
       <c r="P93" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q93" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6409,8 +6696,11 @@
       <c r="P94">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6442,10 +6732,13 @@
         <v>132</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6479,8 +6772,11 @@
       <c r="P96">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6514,8 +6810,11 @@
       <c r="P97" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q97" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6549,8 +6848,11 @@
       <c r="P98">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6584,8 +6886,11 @@
       <c r="P99" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q99" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6619,8 +6924,11 @@
       <c r="P100">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6654,8 +6962,11 @@
       <c r="P101" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q101" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6689,8 +7000,11 @@
       <c r="P102">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -6724,8 +7038,11 @@
       <c r="P103" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q103" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6759,8 +7076,11 @@
       <c r="P104">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6794,8 +7114,11 @@
       <c r="P105" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q105" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6829,8 +7152,11 @@
       <c r="P106">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6864,8 +7190,11 @@
       <c r="P107" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q107" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -6899,8 +7228,11 @@
       <c r="P108">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6937,8 +7269,11 @@
       <c r="P109" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -6972,8 +7307,11 @@
       <c r="P110">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -7007,8 +7345,11 @@
       <c r="P111" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q111" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -7042,8 +7383,11 @@
       <c r="P112">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -7078,10 +7422,13 @@
         <v>132</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -7115,8 +7462,11 @@
       <c r="P114">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -7150,8 +7500,11 @@
       <c r="P115" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q115" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -7185,8 +7538,11 @@
       <c r="P116">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -7220,8 +7576,11 @@
       <c r="P117" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q117" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -7255,8 +7614,11 @@
       <c r="P118" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q118" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -7290,8 +7652,11 @@
       <c r="P119" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q119" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -7325,8 +7690,11 @@
       <c r="P120" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q120" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -7360,8 +7728,11 @@
       <c r="P121" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q121" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -7393,10 +7764,13 @@
         <v>6.3</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -7430,8 +7804,11 @@
       <c r="P123">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -7465,8 +7842,11 @@
       <c r="P124" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q124" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7500,8 +7880,11 @@
       <c r="P125">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -7535,8 +7918,11 @@
       <c r="P126" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q126" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -7570,8 +7956,11 @@
       <c r="P127">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -7605,8 +7994,11 @@
       <c r="P128" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q128" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -7640,8 +8032,11 @@
       <c r="P129">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -7675,8 +8070,11 @@
       <c r="P130" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q130" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -7710,8 +8108,11 @@
       <c r="P131">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -7745,8 +8146,11 @@
       <c r="P132" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q132" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -7780,8 +8184,11 @@
       <c r="P133">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -7815,8 +8222,11 @@
       <c r="P134" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q134" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -7850,8 +8260,11 @@
       <c r="P135">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -7888,8 +8301,11 @@
       <c r="P136" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q136" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -7923,8 +8339,11 @@
       <c r="P137">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -7958,8 +8377,11 @@
       <c r="P138" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q138" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -7993,8 +8415,11 @@
       <c r="P139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -8028,8 +8453,11 @@
       <c r="P140" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q140" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -8063,8 +8491,11 @@
       <c r="P141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q141" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -8098,8 +8529,11 @@
       <c r="P142" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q142" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -8133,8 +8567,11 @@
       <c r="P143" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q143" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -8168,8 +8605,11 @@
       <c r="P144" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q144" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -8203,8 +8643,11 @@
       <c r="P145" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q145" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -8238,8 +8681,11 @@
       <c r="P146" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q146" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -8273,8 +8719,11 @@
       <c r="P147" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q147" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8308,8 +8757,11 @@
       <c r="P148" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q148" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -8343,8 +8795,11 @@
       <c r="P149" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -8378,8 +8833,11 @@
       <c r="P150" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q150" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -8413,8 +8871,11 @@
       <c r="P151" s="1">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q151" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -8448,8 +8909,11 @@
       <c r="P152">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q152">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -8483,8 +8947,11 @@
       <c r="P153" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q153" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -8518,8 +8985,11 @@
       <c r="P154">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -8553,8 +9023,11 @@
       <c r="P155" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q155" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -8588,8 +9061,11 @@
       <c r="P156">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -8623,8 +9099,11 @@
       <c r="P157" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q157" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -8658,8 +9137,11 @@
       <c r="P158">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q158">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -8693,8 +9175,11 @@
       <c r="P159" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q159" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -8728,8 +9213,11 @@
       <c r="P160">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -8763,8 +9251,11 @@
       <c r="P161" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q161" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -8796,10 +9287,13 @@
         <v>5.4</v>
       </c>
       <c r="P162" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="Q162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -8833,8 +9327,11 @@
       <c r="P163" s="1">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q163" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -8866,10 +9363,13 @@
         <v>5.5</v>
       </c>
       <c r="P164" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+      <c r="Q164">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -8903,8 +9403,11 @@
       <c r="P165" s="1">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q165" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -8938,8 +9441,11 @@
       <c r="P166">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q166">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -8973,8 +9479,11 @@
       <c r="P167" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q167" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -9008,8 +9517,11 @@
       <c r="P168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -9043,8 +9555,11 @@
       <c r="P169" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q169" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -9078,8 +9593,11 @@
       <c r="P170">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -9113,8 +9631,11 @@
       <c r="P171" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q171" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -9148,8 +9669,11 @@
       <c r="P172">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q172">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -9183,8 +9707,11 @@
       <c r="P173" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q173" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -9218,8 +9745,11 @@
       <c r="P174">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q174">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -9253,8 +9783,11 @@
       <c r="P175" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q175" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -9287,6 +9820,9 @@
       </c>
       <c r="P176">
         <v>9.4</v>
+      </c>
+      <c r="Q176">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="177" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9323,6 +9859,9 @@
       <c r="P177" s="1">
         <v>4.3</v>
       </c>
+      <c r="Q177" s="1">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -9358,6 +9897,9 @@
       <c r="P178">
         <v>9.8000000000000007</v>
       </c>
+      <c r="Q178">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="179" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
@@ -9393,6 +9935,9 @@
       <c r="P179" s="1">
         <v>9</v>
       </c>
+      <c r="Q179" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -9428,6 +9973,9 @@
       <c r="P180">
         <v>14.7</v>
       </c>
+      <c r="Q180">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="181" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
@@ -9463,6 +10011,9 @@
       <c r="P181" s="1">
         <v>6</v>
       </c>
+      <c r="Q181" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -12893,7 +13444,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="272" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -12927,8 +13478,11 @@
       <c r="P272" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q272" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -12962,8 +13516,11 @@
       <c r="P273" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q273" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -12997,8 +13554,11 @@
       <c r="P274" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q274" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -13032,8 +13592,11 @@
       <c r="P275" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q275" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -13067,8 +13630,11 @@
       <c r="P276" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q276" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -13102,8 +13668,11 @@
       <c r="P277" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q277" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -13137,8 +13706,11 @@
       <c r="P278" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q278" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -13173,10 +13745,13 @@
         <v>132</v>
       </c>
       <c r="P279" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -13210,8 +13785,11 @@
       <c r="P280" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -13245,8 +13823,11 @@
       <c r="P281" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q281" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -13280,8 +13861,11 @@
       <c r="P282" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q282" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -13316,10 +13900,13 @@
         <v>132</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -13335,6 +13922,9 @@
       <c r="E284" t="s">
         <v>297</v>
       </c>
+      <c r="F284" t="s">
+        <v>719</v>
+      </c>
       <c r="I284">
         <v>1.2</v>
       </c>
@@ -13351,10 +13941,13 @@
         <v>3.2</v>
       </c>
       <c r="P284" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -13388,8 +13981,11 @@
       <c r="P285" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q285" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -13423,8 +14019,11 @@
       <c r="P286" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q286" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -13458,8 +14057,11 @@
       <c r="P287" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q287" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -13493,8 +14095,11 @@
       <c r="P288">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q288">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -13528,8 +14133,11 @@
       <c r="P289" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q289" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -13563,8 +14171,11 @@
       <c r="P290">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q290">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -13598,8 +14209,11 @@
       <c r="P291" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q291" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -13633,8 +14247,11 @@
       <c r="P292">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q292">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -13668,8 +14285,11 @@
       <c r="P293" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q293" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -13703,8 +14323,11 @@
       <c r="P294">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q294">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -13738,8 +14361,11 @@
       <c r="P295" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q295" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -13773,8 +14399,11 @@
       <c r="P296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q296">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -13808,8 +14437,11 @@
       <c r="P297" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q297" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -13843,8 +14475,11 @@
       <c r="P298">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q298">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -13878,8 +14513,11 @@
       <c r="P299" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q299" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -13913,8 +14551,11 @@
       <c r="P300">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q300">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -13948,8 +14589,11 @@
       <c r="P301" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q301" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -13983,8 +14627,11 @@
       <c r="P302">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q302">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -14018,8 +14665,11 @@
       <c r="P303" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q303" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -14053,8 +14703,11 @@
       <c r="P304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q304">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -14088,8 +14741,11 @@
       <c r="P305" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q305" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -14123,8 +14779,11 @@
       <c r="P306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q306">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -14158,8 +14817,11 @@
       <c r="P307" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q307" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -14193,8 +14855,11 @@
       <c r="P308">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q308">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -14228,8 +14893,11 @@
       <c r="P309" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q309" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -14266,8 +14934,11 @@
       <c r="P310">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q310">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -14301,8 +14972,11 @@
       <c r="P311" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q311" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -14336,8 +15010,11 @@
       <c r="P312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q312">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -14371,8 +15048,11 @@
       <c r="P313" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q313" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -14404,10 +15084,13 @@
         <v>1.3</v>
       </c>
       <c r="P314" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+      <c r="Q314">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -14441,8 +15124,11 @@
       <c r="P315" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q315" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -14476,8 +15162,11 @@
       <c r="P316">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q316">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -14511,8 +15200,11 @@
       <c r="P317" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q317" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -14546,8 +15238,11 @@
       <c r="P318">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q318">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -14581,8 +15276,11 @@
       <c r="P319" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q319" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -14616,8 +15314,11 @@
       <c r="P320">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q320">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -14651,8 +15352,11 @@
       <c r="P321" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q321" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -14687,10 +15391,13 @@
         <v>132</v>
       </c>
       <c r="P322" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -14724,8 +15431,11 @@
       <c r="P323" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q323" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -14760,10 +15470,13 @@
         <v>132</v>
       </c>
       <c r="P324" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -14797,8 +15510,11 @@
       <c r="P325">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q325" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -14832,8 +15548,11 @@
       <c r="P326">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q326">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -14867,8 +15586,11 @@
       <c r="P327" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q327" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -14902,8 +15624,11 @@
       <c r="P328" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q328" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -14937,8 +15662,11 @@
       <c r="P329">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q329" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -14972,8 +15700,11 @@
       <c r="P330" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q330" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -15007,8 +15738,11 @@
       <c r="P331" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q331" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -15042,8 +15776,11 @@
       <c r="P332" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q332" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -15077,8 +15814,11 @@
       <c r="P333">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q333">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -15112,8 +15852,11 @@
       <c r="P334" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q334" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -15147,8 +15890,11 @@
       <c r="P335">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q335">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -15182,8 +15928,11 @@
       <c r="P336" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q336" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -15217,8 +15966,11 @@
       <c r="P337">
         <v>5</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q337">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -15252,8 +16004,11 @@
       <c r="P338">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q338" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -15287,8 +16042,11 @@
       <c r="P339">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q339">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -15322,8 +16080,11 @@
       <c r="P340">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q340" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -15357,8 +16118,11 @@
       <c r="P341">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q341">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -15392,8 +16156,11 @@
       <c r="P342" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q342" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -15427,8 +16194,11 @@
       <c r="P343">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q343">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -15462,8 +16232,11 @@
       <c r="P344" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q344" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -15497,8 +16270,11 @@
       <c r="P345">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -15532,8 +16308,11 @@
       <c r="P346" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q346" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -15567,8 +16346,11 @@
       <c r="P347">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q347">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -15602,8 +16384,11 @@
       <c r="P348" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q348" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -15637,8 +16422,11 @@
       <c r="P349">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q349">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -15672,8 +16460,11 @@
       <c r="P350" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q350" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -15707,8 +16498,11 @@
       <c r="P351" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q351" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -15742,8 +16536,11 @@
       <c r="P352" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="353" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q352" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -15777,8 +16574,11 @@
       <c r="P353" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q353" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -15812,8 +16612,11 @@
       <c r="P354" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q354" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -15848,10 +16651,13 @@
         <v>132</v>
       </c>
       <c r="P355" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q355" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -15885,8 +16691,11 @@
       <c r="P356" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q356" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -15918,10 +16727,13 @@
         <v>7.7</v>
       </c>
       <c r="P357" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+      <c r="Q357" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -15955,8 +16767,11 @@
       <c r="P358" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q358" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -15990,8 +16805,11 @@
       <c r="P359" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q359" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -16025,8 +16843,11 @@
       <c r="P360" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="361" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q360" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -16059,6 +16880,9 @@
       </c>
       <c r="P361" s="1">
         <v>1.3</v>
+      </c>
+      <c r="Q361" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -16169,7 +16993,7 @@
         <v>1.7</v>
       </c>
       <c r="P364" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q364">
         <v>0.8</v>
@@ -16347,7 +17171,7 @@
         <v>391</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H369" s="1">
         <v>0.4</v>
@@ -16786,7 +17610,7 @@
         <v>132</v>
       </c>
       <c r="P380" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q380" t="s">
         <v>132</v>
@@ -17058,7 +17882,7 @@
         <v>132</v>
       </c>
       <c r="P387" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q387" s="1" t="s">
         <v>132</v>
@@ -17251,7 +18075,7 @@
         <v>132</v>
       </c>
       <c r="P392" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q392" t="s">
         <v>132</v>
@@ -17312,7 +18136,7 @@
         <v>391</v>
       </c>
       <c r="F394" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H394">
         <v>0.6</v>
@@ -17637,7 +18461,7 @@
         <v>132</v>
       </c>
       <c r="P402" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q402" s="1" t="s">
         <v>132</v>
@@ -17719,7 +18543,7 @@
         <v>132</v>
       </c>
       <c r="P404" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q404" s="1" t="s">
         <v>132</v>
@@ -18178,7 +19002,7 @@
         <v>132</v>
       </c>
       <c r="P416" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q416" s="1" t="s">
         <v>132</v>
@@ -18219,7 +19043,7 @@
         <v>132</v>
       </c>
       <c r="P417" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q417" t="s">
         <v>132</v>
@@ -18374,7 +19198,7 @@
         <v>132</v>
       </c>
       <c r="P421" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q421" s="1" t="s">
         <v>132</v>
@@ -18453,7 +19277,7 @@
         <v>132</v>
       </c>
       <c r="P423" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q423" s="1" t="s">
         <v>132</v>
@@ -18552,7 +19376,7 @@
         <v>391</v>
       </c>
       <c r="F426" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H426">
         <v>0.9</v>
@@ -18570,7 +19394,7 @@
         <v>0.9</v>
       </c>
       <c r="P426" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q426" t="s">
         <v>132</v>
@@ -18684,7 +19508,7 @@
         <v>132</v>
       </c>
       <c r="P429" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q429" s="1" t="s">
         <v>132</v>
@@ -18745,7 +19569,7 @@
         <v>391</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H431" s="1">
         <v>3.9</v>
@@ -19184,7 +20008,7 @@
         <v>132</v>
       </c>
       <c r="P442" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q442" t="s">
         <v>132</v>
@@ -19260,7 +20084,7 @@
         <v>132</v>
       </c>
       <c r="P444" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q444" t="s">
         <v>132</v>
@@ -19529,7 +20353,7 @@
         <v>132</v>
       </c>
       <c r="P451" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q451" s="1" t="s">
         <v>132</v>
@@ -19569,6 +20393,9 @@
       <c r="P452">
         <v>2.2000000000000002</v>
       </c>
+      <c r="Q452">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="453" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
@@ -19604,6 +20431,9 @@
       <c r="P453" s="1">
         <v>2.7</v>
       </c>
+      <c r="Q453" s="1">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
@@ -19639,6 +20469,9 @@
       <c r="P454">
         <v>1.6</v>
       </c>
+      <c r="Q454">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="455" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
@@ -19674,6 +20507,9 @@
       <c r="P455" s="1">
         <v>3.2</v>
       </c>
+      <c r="Q455" s="1">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -19709,6 +20545,9 @@
       <c r="P456">
         <v>4</v>
       </c>
+      <c r="Q456">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="457" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
@@ -19744,6 +20583,9 @@
       <c r="P457" s="1">
         <v>1.9</v>
       </c>
+      <c r="Q457" s="1">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -19779,6 +20621,9 @@
       <c r="P458">
         <v>4.0999999999999996</v>
       </c>
+      <c r="Q458">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="459" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
@@ -19814,6 +20659,9 @@
       <c r="P459" s="1">
         <v>3</v>
       </c>
+      <c r="Q459" s="1">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -19849,6 +20697,9 @@
       <c r="P460">
         <v>1.3</v>
       </c>
+      <c r="Q460">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="461" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
@@ -19884,6 +20735,9 @@
       <c r="P461" s="1">
         <v>3.5</v>
       </c>
+      <c r="Q461" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -19919,6 +20773,9 @@
       <c r="P462">
         <v>1.3</v>
       </c>
+      <c r="Q462">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="463" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
@@ -19954,6 +20811,9 @@
       <c r="P463" s="1">
         <v>4.5</v>
       </c>
+      <c r="Q463" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -19989,8 +20849,11 @@
       <c r="P464">
         <v>6</v>
       </c>
-    </row>
-    <row r="465" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q464">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -20024,8 +20887,11 @@
       <c r="P465" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q465" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -20059,8 +20925,11 @@
       <c r="P466" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q466" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -20094,8 +20963,11 @@
       <c r="P467">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="468" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q467">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -20129,8 +21001,11 @@
       <c r="P468" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q468" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -20164,8 +21039,11 @@
       <c r="P469">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="470" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q469">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -20199,8 +21077,11 @@
       <c r="P470" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q470" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -20234,8 +21115,11 @@
       <c r="P471">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="472" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q471">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -20269,8 +21153,11 @@
       <c r="P472" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q472" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -20304,8 +21191,11 @@
       <c r="P473">
         <v>2</v>
       </c>
-    </row>
-    <row r="474" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q473">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -20342,8 +21232,11 @@
       <c r="P474" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q474" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -20377,8 +21270,11 @@
       <c r="P475">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="476" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q475">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -20412,8 +21308,11 @@
       <c r="P476" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q476" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -20447,8 +21346,11 @@
       <c r="P477">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="478" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q477">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -20482,8 +21384,11 @@
       <c r="P478" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q478" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -20517,8 +21422,11 @@
       <c r="P479">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="480" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q479">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -20552,8 +21460,11 @@
       <c r="P480" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q480" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -20587,8 +21498,11 @@
       <c r="P481">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="482" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q481">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -20622,8 +21536,11 @@
       <c r="P482" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q482" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -20657,8 +21574,11 @@
       <c r="P483">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="484" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q483">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -20692,8 +21612,11 @@
       <c r="P484" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q484" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -20727,8 +21650,11 @@
       <c r="P485">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="486" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q485">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -20762,8 +21688,11 @@
       <c r="P486" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q486" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -20797,8 +21726,11 @@
       <c r="P487">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="488" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q487">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -20832,8 +21764,11 @@
       <c r="P488" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="489" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q488" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -20867,8 +21802,11 @@
       <c r="P489" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q489" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -20902,8 +21840,11 @@
       <c r="P490" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="491" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q490" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -20937,8 +21878,11 @@
       <c r="P491" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q491" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -20972,8 +21916,11 @@
       <c r="P492" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="493" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q492" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -21007,8 +21954,11 @@
       <c r="P493" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q493" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -21042,8 +21992,11 @@
       <c r="P494" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q494" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -21078,10 +22031,13 @@
         <v>132</v>
       </c>
       <c r="P495" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -21115,8 +22071,11 @@
       <c r="P496" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="497" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q496" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -21150,8 +22109,11 @@
       <c r="P497" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q497" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -21185,8 +22147,11 @@
       <c r="P498">
         <v>2</v>
       </c>
-    </row>
-    <row r="499" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q498">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -21220,8 +22185,11 @@
       <c r="P499" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q499" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -21255,8 +22223,11 @@
       <c r="P500">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="501" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q500">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -21290,8 +22261,11 @@
       <c r="P501" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q501" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -21325,8 +22299,11 @@
       <c r="P502">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="503" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q502">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -21360,8 +22337,11 @@
       <c r="P503" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q503" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -21395,8 +22375,11 @@
       <c r="P504">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="505" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q504">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -21430,8 +22413,11 @@
       <c r="P505" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q505" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -21465,8 +22451,11 @@
       <c r="P506">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="507" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q506">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -21500,8 +22489,11 @@
       <c r="P507" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q507" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -21535,8 +22527,11 @@
       <c r="P508">
         <v>5</v>
       </c>
-    </row>
-    <row r="509" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q508">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -21570,8 +22565,11 @@
       <c r="P509" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q509" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -21605,8 +22603,11 @@
       <c r="P510">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q510">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="511" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -21640,8 +22641,11 @@
       <c r="P511" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q511" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -21675,8 +22679,11 @@
       <c r="P512">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="513" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q512">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -21710,8 +22717,11 @@
       <c r="P513" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q513" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -21745,8 +22755,11 @@
       <c r="P514">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="515" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q514">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -21780,8 +22793,11 @@
       <c r="P515" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q515" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -21815,8 +22831,11 @@
       <c r="P516">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="517" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q516">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -21851,10 +22870,13 @@
         <v>132</v>
       </c>
       <c r="P517" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -21889,10 +22911,13 @@
         <v>132</v>
       </c>
       <c r="P518" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="519" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="Q518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -21926,8 +22951,11 @@
       <c r="P519" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q519" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -21961,8 +22989,11 @@
       <c r="P520">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="521" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q520">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -21996,8 +23027,11 @@
       <c r="P521" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q521" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -22031,8 +23065,11 @@
       <c r="P522">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="523" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q522">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -22066,8 +23103,11 @@
       <c r="P523" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q523" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -22101,8 +23141,11 @@
       <c r="P524">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="525" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q524">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -22136,8 +23179,11 @@
       <c r="P525" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q525" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -22171,8 +23217,11 @@
       <c r="P526">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="527" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q526">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -22206,8 +23255,11 @@
       <c r="P527" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q527" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -22239,6 +23291,9 @@
         <v>5.5</v>
       </c>
       <c r="P528">
+        <v>5.5</v>
+      </c>
+      <c r="Q528">
         <v>5.5</v>
       </c>
     </row>
@@ -22276,6 +23331,9 @@
       <c r="P529" s="1">
         <v>3.4</v>
       </c>
+      <c r="Q529" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="530" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
@@ -22311,6 +23369,9 @@
       <c r="P530">
         <v>1.6</v>
       </c>
+      <c r="Q530">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="531" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
@@ -22346,6 +23407,9 @@
       <c r="P531" s="1">
         <v>4.0999999999999996</v>
       </c>
+      <c r="Q531" s="1">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="532" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
@@ -22384,6 +23448,9 @@
       <c r="P532">
         <v>2.9</v>
       </c>
+      <c r="Q532">
+        <v>3</v>
+      </c>
     </row>
     <row r="533" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
@@ -22419,6 +23486,9 @@
       <c r="P533" s="1">
         <v>3.8</v>
       </c>
+      <c r="Q533" s="1">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="534" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
@@ -22454,6 +23524,9 @@
       <c r="P534">
         <v>3.8</v>
       </c>
+      <c r="Q534">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="535" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
@@ -22489,6 +23562,9 @@
       <c r="P535" s="1">
         <v>5.4</v>
       </c>
+      <c r="Q535" s="1">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="536" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
@@ -22524,6 +23600,9 @@
       <c r="P536" s="1">
         <v>2.5</v>
       </c>
+      <c r="Q536" s="1">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="537" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
@@ -22559,6 +23638,9 @@
       <c r="P537" s="1">
         <v>4.2</v>
       </c>
+      <c r="Q537" s="1">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="538" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
@@ -22594,6 +23676,9 @@
       <c r="P538" s="1">
         <v>5</v>
       </c>
+      <c r="Q538" s="1">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="539" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
@@ -22629,6 +23714,9 @@
       <c r="P539" s="1">
         <v>3.6</v>
       </c>
+      <c r="Q539" s="1">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="540" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
@@ -22664,6 +23752,9 @@
       <c r="P540" s="1">
         <v>6.3</v>
       </c>
+      <c r="Q540" s="1">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="541" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
@@ -22699,8 +23790,11 @@
       <c r="P541" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="542" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q541" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>586</v>
       </c>
@@ -22738,7 +23832,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>589</v>
       </c>
@@ -22776,7 +23870,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="544" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>590</v>
       </c>
@@ -22814,7 +23908,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>591</v>
       </c>
@@ -22852,7 +23946,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="546" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>592</v>
       </c>
@@ -22890,7 +23984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>593</v>
       </c>
@@ -22928,7 +24022,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="548" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>594</v>
       </c>
@@ -22966,7 +24060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>595</v>
       </c>
@@ -23004,7 +24098,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="550" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>596</v>
       </c>
@@ -23042,7 +24136,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>597</v>
       </c>
@@ -23080,7 +24174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="552" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>598</v>
       </c>
@@ -23115,13 +24209,13 @@
         <v>132</v>
       </c>
       <c r="P552" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q552" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>599</v>
       </c>
@@ -23159,7 +24253,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="554" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>600</v>
       </c>
@@ -23197,7 +24291,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>601</v>
       </c>
@@ -23235,7 +24329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="556" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>602</v>
       </c>
@@ -23273,7 +24367,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>603</v>
       </c>
@@ -23290,7 +24384,7 @@
         <v>588</v>
       </c>
       <c r="F557" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J557">
         <v>0.3</v>
@@ -23314,7 +24408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>604</v>
       </c>
@@ -23352,7 +24446,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="559" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>605</v>
       </c>
@@ -23390,7 +24484,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -23428,7 +24522,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="561" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>607</v>
       </c>
@@ -23466,7 +24560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -23504,7 +24598,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="563" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>609</v>
       </c>
@@ -23542,7 +24636,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -23580,7 +24674,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>611</v>
       </c>
@@ -23618,7 +24712,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>612</v>
       </c>
@@ -23635,7 +24729,7 @@
         <v>588</v>
       </c>
       <c r="F566" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J566">
         <v>0.4</v>
@@ -23659,7 +24753,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="567" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>613</v>
       </c>
@@ -23697,7 +24791,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>614</v>
       </c>
@@ -23735,7 +24829,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="569" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>615</v>
       </c>
@@ -23773,7 +24867,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>616</v>
       </c>
@@ -23811,7 +24905,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="571" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>617</v>
       </c>
@@ -23849,7 +24943,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>618</v>
       </c>
@@ -23887,7 +24981,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="573" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>619</v>
       </c>
@@ -23925,7 +25019,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>620</v>
       </c>
@@ -23957,13 +25051,13 @@
         <v>132</v>
       </c>
       <c r="P574" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q574" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="575" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>621</v>
       </c>
@@ -23980,7 +25074,7 @@
         <v>588</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J575" s="1">
         <v>0.9</v>
@@ -24004,7 +25098,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>622</v>
       </c>
@@ -24021,7 +25115,7 @@
         <v>588</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J576">
         <v>0.3</v>
@@ -24045,7 +25139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="577" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>623</v>
       </c>
@@ -24083,7 +25177,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>624</v>
       </c>
@@ -24121,7 +25215,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="579" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>625</v>
       </c>
@@ -24159,7 +25253,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>626</v>
       </c>
@@ -24197,7 +25291,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="581" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>627</v>
       </c>
@@ -24235,7 +25329,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>628</v>
       </c>
@@ -24273,7 +25367,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="583" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>629</v>
       </c>
@@ -24311,7 +25405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>630</v>
       </c>
@@ -24349,7 +25443,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="585" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>631</v>
       </c>
@@ -24387,7 +25481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>632</v>
       </c>
@@ -24425,7 +25519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>633</v>
       </c>
@@ -24463,7 +25557,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>634</v>
       </c>
@@ -24498,13 +25592,13 @@
         <v>132</v>
       </c>
       <c r="P588" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q588" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="589" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -24539,13 +25633,13 @@
         <v>132</v>
       </c>
       <c r="P589" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q589" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>638</v>
       </c>
@@ -24583,7 +25677,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="591" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>639</v>
       </c>
@@ -24621,7 +25715,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>640</v>
       </c>
@@ -24659,7 +25753,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="593" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>641</v>
       </c>
@@ -24697,7 +25791,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -24735,7 +25829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>643</v>
       </c>
@@ -24773,7 +25867,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>644</v>
       </c>
@@ -24811,7 +25905,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="597" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>645</v>
       </c>
@@ -24849,7 +25943,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>646</v>
       </c>
@@ -24887,7 +25981,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="599" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>647</v>
       </c>
@@ -24925,7 +26019,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>648</v>
       </c>
@@ -24963,7 +26057,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="601" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>649</v>
       </c>
@@ -24980,7 +26074,7 @@
         <v>588</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J601" s="1">
         <v>0.4</v>
@@ -25004,7 +26098,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>650</v>
       </c>
@@ -25042,7 +26136,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="603" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>651</v>
       </c>
@@ -25077,13 +26171,13 @@
         <v>132</v>
       </c>
       <c r="P603" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q603" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>653</v>
       </c>
@@ -25118,13 +26212,13 @@
         <v>132</v>
       </c>
       <c r="P604" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q604" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="605" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>654</v>
       </c>
@@ -25156,13 +26250,13 @@
         <v>132</v>
       </c>
       <c r="P605" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q605" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="606" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>655</v>
       </c>
@@ -25200,7 +26294,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>656</v>
       </c>
@@ -25217,7 +26311,7 @@
         <v>588</v>
       </c>
       <c r="F607" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J607">
         <v>1</v>
@@ -25241,7 +26335,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="608" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>657</v>
       </c>
@@ -25279,7 +26373,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>658</v>
       </c>
@@ -25296,7 +26390,7 @@
         <v>588</v>
       </c>
       <c r="F609" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J609">
         <v>0.4</v>
@@ -25320,7 +26414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="610" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>659</v>
       </c>
@@ -25358,7 +26452,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>660</v>
       </c>
@@ -25396,7 +26490,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="612" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>661</v>
       </c>
@@ -25431,13 +26525,13 @@
         <v>132</v>
       </c>
       <c r="P612" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q612" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>662</v>
       </c>
@@ -25475,7 +26569,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="614" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>663</v>
       </c>
@@ -25516,7 +26610,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>665</v>
       </c>
@@ -25554,7 +26648,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="616" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>666</v>
       </c>
@@ -25592,7 +26686,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -25630,7 +26724,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="618" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>668</v>
       </c>
@@ -25668,7 +26762,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>669</v>
       </c>
@@ -25706,7 +26800,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="620" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>670</v>
       </c>
@@ -25741,13 +26835,13 @@
         <v>0.6</v>
       </c>
       <c r="P620" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q620" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>671</v>
       </c>
@@ -25785,7 +26879,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="622" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>672</v>
       </c>
@@ -25823,7 +26917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -25861,7 +26955,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>674</v>
       </c>
@@ -25899,7 +26993,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>675</v>
       </c>
@@ -25937,7 +27031,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="626" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>676</v>
       </c>
@@ -25975,7 +27069,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>677</v>
       </c>
@@ -26013,7 +27107,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="628" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>678</v>
       </c>
@@ -26051,7 +27145,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>679</v>
       </c>
@@ -26089,7 +27183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="630" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>680</v>
       </c>
@@ -26127,7 +27221,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>681</v>
       </c>
@@ -26169,7 +27263,7 @@
   <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="sequoiadendron"/>
+        <filter val="populus"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E50B0F-71AF-FB4E-84AC-A1F18B1BC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D207C-ED50-1646-919B-909789588C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3740" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="707">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2080,24 +2080,12 @@
     <t>Segi_WarmS/WarmF_B3_R15_nitro</t>
   </si>
   <si>
-    <t>not doing great. Took initial measure on side branch; doy 143 apical bud is dead</t>
-  </si>
-  <si>
-    <t>doy 143 center shoot dead, only one surviving</t>
-  </si>
-  <si>
     <t>didn't root; doy 143 dead</t>
   </si>
   <si>
-    <t>doy 143 apical shoot probably dead; no measurement</t>
-  </si>
-  <si>
     <t>dead; doy 143 most branches dead, weakly resprouting at bottom</t>
   </si>
   <si>
-    <t>doy 143 previous measurement possibly from another shoot</t>
-  </si>
-  <si>
     <t>doy 143 just noticed somebody clogged the dripper so it did not get water for a long time, doesn't show drought stress syndromes</t>
   </si>
   <si>
@@ -2117,84 +2105,16 @@
   </si>
   <si>
     <t>initial measurement; looks dead but branches tender; doy157: dead</t>
-  </si>
-  <si>
-    <t>5.5 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.8 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.2 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7 (maybe last time typo)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>na</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1 (taller offshoot)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 (offshoot, from last branch point)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 (taller offshoot)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 (taller offshoot)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.8 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (measured longest)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>central stem</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6 (discrepancy)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9 (died at tip)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>doy 171: apical shoot dead</t>
   </si>
   <si>
@@ -2210,7 +2130,31 @@
     <t>doy 171: measurement from 164 is probably wrong</t>
   </si>
   <si>
-    <t>doy 164/171: dead tip</t>
+    <t>doy164:(discrepancy)</t>
+  </si>
+  <si>
+    <t>doy164: (measured longest)</t>
+  </si>
+  <si>
+    <t>doy143 center shoot dead, only one surviving</t>
+  </si>
+  <si>
+    <t>doy143: previous measurement possibly from another shoot</t>
+  </si>
+  <si>
+    <t>doy143 apical shoot probably dead; no measurement</t>
+  </si>
+  <si>
+    <t>doy164/171: dead tip</t>
+  </si>
+  <si>
+    <t>doy164:(maybe last time typo)</t>
+  </si>
+  <si>
+    <t>not doing great. Took initial measure on side branch; doy 143 apical bud is dead; doy164: (offshoot, from last branch point)</t>
+  </si>
+  <si>
+    <t>doy164: (taller offshoot) ; doy 171: apical shoot dead</t>
   </si>
 </sst>
 </file>
@@ -3086,16 +3030,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="Q347" sqref="Q347"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="12" width="11" customWidth="1"/>
+    <col min="13" max="17" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3151,7 +3099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3189,7 +3137,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3175,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3265,7 +3213,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3303,7 +3251,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3341,7 +3289,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3379,7 +3327,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3455,7 +3403,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3493,7 +3441,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3531,7 +3479,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3572,7 +3520,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3610,7 +3558,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3648,7 +3596,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3686,7 +3634,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +3672,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3762,7 +3710,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3800,7 +3748,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3838,7 +3786,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3876,7 +3824,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3911,7 +3859,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3952,7 +3900,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3990,7 +3938,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4007,7 +3955,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G24">
         <v>4.4000000000000004</v>
@@ -4031,7 +3979,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -4069,7 +4017,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4107,7 +4055,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4145,7 +4093,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4162,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="G28">
         <v>6.9</v>
@@ -4186,7 +4134,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -4224,7 +4172,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +4189,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -4265,7 +4213,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -4303,7 +4251,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4341,7 +4289,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4379,7 +4327,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4417,7 +4365,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4455,7 +4403,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4493,7 +4441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4534,7 +4482,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4572,7 +4520,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4610,7 +4558,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4648,7 +4596,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4686,7 +4634,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4724,7 +4672,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4762,7 +4710,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4800,7 +4748,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4838,7 +4786,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4876,7 +4824,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4914,7 +4862,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4952,7 +4900,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4990,7 +4938,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -5028,7 +4976,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5066,7 +5014,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -5104,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5142,7 +5090,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -5158,6 +5106,9 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F54" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="G54" s="1">
         <v>10</v>
       </c>
@@ -5173,14 +5124,14 @@
       <c r="O54" s="1">
         <v>11</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>697</v>
+      <c r="P54" s="1">
+        <v>10.8</v>
       </c>
       <c r="Q54" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5218,7 +5169,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -5256,7 +5207,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5294,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -5310,6 +5261,9 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="G58" s="1">
         <v>10</v>
       </c>
@@ -5325,14 +5279,14 @@
       <c r="O58" s="1">
         <v>12.1</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>699</v>
+      <c r="P58" s="1">
+        <v>11.5</v>
       </c>
       <c r="Q58" s="1">
         <v>11.4</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5370,7 +5324,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -5408,7 +5362,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5446,7 +5400,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -5484,7 +5438,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -5522,7 +5476,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -5560,7 +5514,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -5598,7 +5552,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -5636,7 +5590,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -5674,7 +5628,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5712,7 +5666,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5750,7 +5704,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5788,7 +5742,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5826,7 +5780,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5864,7 +5818,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5902,7 +5856,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5940,7 +5894,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5978,7 +5932,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6016,7 +5970,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -6054,7 +6008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -6092,7 +6046,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -6108,6 +6062,9 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F79" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="G79" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -6123,14 +6080,14 @@
       <c r="O79" s="1">
         <v>6.2</v>
       </c>
-      <c r="P79" s="1" t="s">
-        <v>695</v>
+      <c r="P79" s="1">
+        <v>5.5</v>
       </c>
       <c r="Q79" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -6146,6 +6103,9 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
+      <c r="F80" t="s">
+        <v>698</v>
+      </c>
       <c r="G80">
         <v>7</v>
       </c>
@@ -6161,14 +6121,14 @@
       <c r="O80">
         <v>8</v>
       </c>
-      <c r="P80" t="s">
-        <v>696</v>
+      <c r="P80">
+        <v>7.2</v>
       </c>
       <c r="Q80">
         <v>7.9</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -6206,7 +6166,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -6244,7 +6204,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -6282,7 +6242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6320,7 +6280,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -6358,7 +6318,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -6396,7 +6356,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -6434,7 +6394,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -6472,7 +6432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -6510,7 +6470,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -6526,6 +6486,9 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
+      <c r="F90" t="s">
+        <v>698</v>
+      </c>
       <c r="G90">
         <v>9.1</v>
       </c>
@@ -6541,14 +6504,14 @@
       <c r="O90">
         <v>10.5</v>
       </c>
-      <c r="P90" t="s">
-        <v>698</v>
+      <c r="P90">
+        <v>10.199999999999999</v>
       </c>
       <c r="Q90">
         <v>10.1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -6586,7 +6549,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -6624,7 +6587,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -6662,7 +6625,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6700,7 +6663,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6716,6 +6679,9 @@
       <c r="E95" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="F95" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H95" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -6731,14 +6697,14 @@
       <c r="O95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P95" s="1" t="s">
-        <v>706</v>
+      <c r="P95" s="1">
+        <v>3.8</v>
       </c>
       <c r="Q95" s="1">
         <v>5.8</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6776,7 +6742,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6814,7 +6780,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6852,7 +6818,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6890,7 +6856,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6928,7 +6894,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6966,7 +6932,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -7004,7 +6970,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -7042,7 +7008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -7080,7 +7046,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -7118,7 +7084,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -7156,7 +7122,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -7194,7 +7160,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -7232,7 +7198,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -7273,7 +7239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -7311,7 +7277,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -7349,7 +7315,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -7387,7 +7353,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -7404,7 +7370,7 @@
         <v>108</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>132</v>
@@ -7422,13 +7388,13 @@
         <v>132</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>701</v>
+        <v>132</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -7466,7 +7432,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -7504,7 +7470,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -7542,7 +7508,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -7580,7 +7546,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -7618,7 +7584,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -7656,7 +7622,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -7694,7 +7660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -7732,7 +7698,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="122" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -7748,6 +7714,9 @@
       <c r="E122" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="F122" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H122" s="1">
         <v>1.6</v>
       </c>
@@ -7763,14 +7732,14 @@
       <c r="O122" s="1">
         <v>6.3</v>
       </c>
-      <c r="P122" s="1" t="s">
-        <v>707</v>
+      <c r="P122" s="1">
+        <v>10</v>
       </c>
       <c r="Q122" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -7808,7 +7777,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -7846,7 +7815,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7884,7 +7853,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -7922,7 +7891,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -7960,7 +7929,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -7998,7 +7967,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -8036,7 +8005,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -8074,7 +8043,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -8112,7 +8081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -8150,7 +8119,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -8188,7 +8157,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="134" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -8226,7 +8195,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -8264,7 +8233,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="136" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -8305,7 +8274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -8343,7 +8312,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="138" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -8381,7 +8350,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -8419,7 +8388,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -8457,7 +8426,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -8495,7 +8464,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -8533,7 +8502,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -8571,7 +8540,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -8609,7 +8578,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -8647,7 +8616,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -8685,7 +8654,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -8723,7 +8692,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8761,7 +8730,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -8799,7 +8768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -8837,7 +8806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -8875,7 +8844,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -8913,7 +8882,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="153" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -8951,7 +8920,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -8989,7 +8958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -9027,7 +8996,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -9065,7 +9034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -9103,7 +9072,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -9141,7 +9110,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="159" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -9179,7 +9148,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -9217,7 +9186,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="161" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -9255,7 +9224,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -9271,6 +9240,9 @@
       <c r="E162" t="s">
         <v>108</v>
       </c>
+      <c r="F162" t="s">
+        <v>698</v>
+      </c>
       <c r="H162">
         <v>4.3</v>
       </c>
@@ -9286,14 +9258,14 @@
       <c r="O162">
         <v>5.4</v>
       </c>
-      <c r="P162" t="s">
-        <v>708</v>
+      <c r="P162">
+        <v>5</v>
       </c>
       <c r="Q162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -9331,7 +9303,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -9347,6 +9319,9 @@
       <c r="E164" t="s">
         <v>108</v>
       </c>
+      <c r="F164" t="s">
+        <v>698</v>
+      </c>
       <c r="H164">
         <v>3.2</v>
       </c>
@@ -9362,14 +9337,14 @@
       <c r="O164">
         <v>5.5</v>
       </c>
-      <c r="P164" t="s">
-        <v>709</v>
+      <c r="P164">
+        <v>4.3</v>
       </c>
       <c r="Q164">
         <v>5.3</v>
       </c>
     </row>
-    <row r="165" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -9407,7 +9382,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -9445,7 +9420,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="167" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -9483,7 +9458,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -9521,7 +9496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -9559,7 +9534,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -9597,7 +9572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -9635,7 +9610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -9673,7 +9648,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -9711,7 +9686,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -9749,7 +9724,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="175" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -9787,7 +9762,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -9825,7 +9800,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -9863,7 +9838,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -9901,7 +9876,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="179" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -9939,7 +9914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -9977,7 +9952,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="181" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -10015,7 +9990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -10053,7 +10028,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="183" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -10091,7 +10066,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -10129,7 +10104,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="185" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -10167,7 +10142,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -10205,7 +10180,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="187" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -10243,7 +10218,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -10281,7 +10256,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -10322,7 +10297,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -10360,7 +10335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -10398,7 +10373,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -10436,7 +10411,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -10474,7 +10449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -10491,7 +10466,7 @@
         <v>204</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="I194" s="1">
         <v>0.8</v>
@@ -10515,7 +10490,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -10553,7 +10528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -10591,7 +10566,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -10629,7 +10604,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="198" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -10667,7 +10642,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -10705,7 +10680,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="200" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -10743,7 +10718,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -10781,7 +10756,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -10819,7 +10794,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -10857,7 +10832,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="204" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -10895,7 +10870,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -10933,7 +10908,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="206" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -10971,7 +10946,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -11009,7 +10984,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="208" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -11047,7 +11022,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -11085,7 +11060,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -11123,7 +11098,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="211" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -11161,7 +11136,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -11199,7 +11174,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="213" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -11237,7 +11212,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -11275,7 +11250,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="215" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -11313,7 +11288,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -11351,7 +11326,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="217" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -11389,7 +11364,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -11427,7 +11402,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="219" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -11465,7 +11440,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -11503,7 +11478,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="221" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -11541,7 +11516,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -11579,7 +11554,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -11617,7 +11592,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -11655,7 +11630,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="225" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -11693,7 +11668,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -11731,7 +11706,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="227" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -11769,7 +11744,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -11807,7 +11782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -11845,7 +11820,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -11883,7 +11858,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="231" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -11921,7 +11896,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -11959,7 +11934,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="233" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -11997,7 +11972,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -12035,7 +12010,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="235" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -12073,7 +12048,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -12111,7 +12086,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="237" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -12128,7 +12103,7 @@
         <v>204</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="I237" s="1">
         <v>1.2</v>
@@ -12152,7 +12127,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -12190,7 +12165,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="239" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -12228,7 +12203,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -12266,7 +12241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -12304,7 +12279,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -12342,7 +12317,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="243" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -12380,7 +12355,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -12418,7 +12393,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="245" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -12456,7 +12431,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -12494,7 +12469,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -12532,7 +12507,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -12570,7 +12545,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="249" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -12608,7 +12583,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -12646,7 +12621,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="251" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -12684,7 +12659,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -12722,7 +12697,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="253" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -12760,7 +12735,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -12798,7 +12773,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="255" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -12836,7 +12811,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -12874,7 +12849,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="257" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -12912,7 +12887,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -12950,7 +12925,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -12988,7 +12963,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="260" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -13026,7 +13001,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -13064,7 +13039,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="262" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -13102,7 +13077,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -13140,7 +13115,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="264" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -13178,7 +13153,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -13216,7 +13191,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="266" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -13254,7 +13229,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -13292,7 +13267,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="268" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -13330,7 +13305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -13368,7 +13343,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="270" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -13406,7 +13381,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -13727,7 +13702,7 @@
         <v>297</v>
       </c>
       <c r="F279" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="I279">
         <v>0.5</v>
@@ -13745,7 +13720,7 @@
         <v>132</v>
       </c>
       <c r="P279" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q279" t="s">
         <v>132</v>
@@ -13900,7 +13875,7 @@
         <v>132</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q283" s="1" t="s">
         <v>132</v>
@@ -13923,7 +13898,7 @@
         <v>297</v>
       </c>
       <c r="F284" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="I284">
         <v>1.2</v>
@@ -13940,8 +13915,8 @@
       <c r="O284">
         <v>3.2</v>
       </c>
-      <c r="P284" t="s">
-        <v>713</v>
+      <c r="P284">
+        <v>1.9</v>
       </c>
       <c r="Q284" t="s">
         <v>132</v>
@@ -15068,6 +15043,9 @@
       <c r="E314" t="s">
         <v>297</v>
       </c>
+      <c r="F314" t="s">
+        <v>698</v>
+      </c>
       <c r="I314">
         <v>0.8</v>
       </c>
@@ -15083,8 +15061,8 @@
       <c r="O314">
         <v>1.3</v>
       </c>
-      <c r="P314" t="s">
-        <v>711</v>
+      <c r="P314">
+        <v>1</v>
       </c>
       <c r="Q314">
         <v>1.1000000000000001</v>
@@ -15391,7 +15369,7 @@
         <v>132</v>
       </c>
       <c r="P322" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q322" t="s">
         <v>132</v>
@@ -15470,7 +15448,7 @@
         <v>132</v>
       </c>
       <c r="P324" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q324" t="s">
         <v>132</v>
@@ -16633,7 +16611,7 @@
         <v>297</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I355" s="1">
         <v>0.3</v>
@@ -16651,7 +16629,7 @@
         <v>132</v>
       </c>
       <c r="P355" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q355" s="1" t="s">
         <v>132</v>
@@ -16711,6 +16689,9 @@
       <c r="E357" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="F357" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="I357" s="1">
         <v>3.6</v>
       </c>
@@ -16726,8 +16707,8 @@
       <c r="O357" s="1">
         <v>7.7</v>
       </c>
-      <c r="P357" t="s">
-        <v>712</v>
+      <c r="P357">
+        <v>6.6</v>
       </c>
       <c r="Q357" s="1">
         <v>6.9</v>
@@ -16885,7 +16866,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -16923,7 +16904,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="363" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -16961,7 +16942,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -16977,6 +16958,9 @@
       <c r="E364" t="s">
         <v>391</v>
       </c>
+      <c r="F364" t="s">
+        <v>704</v>
+      </c>
       <c r="H364">
         <v>0.8</v>
       </c>
@@ -16992,14 +16976,14 @@
       <c r="O364">
         <v>1.7</v>
       </c>
-      <c r="P364" t="s">
-        <v>700</v>
+      <c r="P364">
+        <v>0.7</v>
       </c>
       <c r="Q364">
         <v>0.8</v>
       </c>
     </row>
-    <row r="365" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -17037,7 +17021,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -17075,7 +17059,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="367" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -17113,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -17154,7 +17138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -17171,7 +17155,7 @@
         <v>391</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="H369" s="1">
         <v>0.4</v>
@@ -17195,7 +17179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -17233,7 +17217,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="371" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -17271,7 +17255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -17309,7 +17293,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="373" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -17347,7 +17331,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -17385,7 +17369,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="375" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -17423,7 +17407,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -17461,7 +17445,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="377" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -17499,7 +17483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -17537,7 +17521,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="379" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -17575,7 +17559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -17610,13 +17594,13 @@
         <v>132</v>
       </c>
       <c r="P380" t="s">
-        <v>703</v>
+        <v>132</v>
       </c>
       <c r="Q380" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="381" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -17657,7 +17641,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -17695,7 +17679,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="383" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -17733,7 +17717,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -17771,7 +17755,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="385" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -17809,7 +17793,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="386" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -17847,7 +17831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -17882,13 +17866,13 @@
         <v>132</v>
       </c>
       <c r="P387" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q387" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -17926,7 +17910,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="389" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -17964,7 +17948,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="390" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -18002,7 +17986,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="391" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -18040,7 +18024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -18057,7 +18041,7 @@
         <v>391</v>
       </c>
       <c r="F392" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="H392">
         <v>0.4</v>
@@ -18074,14 +18058,14 @@
       <c r="O392" t="s">
         <v>132</v>
       </c>
-      <c r="P392" t="s">
-        <v>703</v>
+      <c r="P392">
+        <v>0.5</v>
       </c>
       <c r="Q392" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -18119,7 +18103,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -18136,7 +18120,7 @@
         <v>391</v>
       </c>
       <c r="F394" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="H394">
         <v>0.6</v>
@@ -18160,7 +18144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="395" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -18198,7 +18182,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -18236,7 +18220,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="397" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -18274,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -18312,7 +18296,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -18353,7 +18337,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="400" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -18391,7 +18375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -18429,7 +18413,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="402" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -18461,13 +18445,13 @@
         <v>132</v>
       </c>
       <c r="P402" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q402" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -18484,7 +18468,7 @@
         <v>391</v>
       </c>
       <c r="F403" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H403">
         <v>0.7</v>
@@ -18508,7 +18492,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="404" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -18543,13 +18527,13 @@
         <v>132</v>
       </c>
       <c r="P404" s="1" t="s">
-        <v>705</v>
+        <v>132</v>
       </c>
       <c r="Q404" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -18587,7 +18571,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -18625,7 +18609,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -18663,7 +18647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="408" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -18701,7 +18685,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -18739,7 +18723,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="410" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -18777,7 +18761,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -18815,7 +18799,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="412" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -18853,7 +18837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -18891,7 +18875,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="414" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -18929,7 +18913,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -18967,7 +18951,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="416" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -19002,13 +18986,13 @@
         <v>132</v>
       </c>
       <c r="P416" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q416" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="417" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -19043,13 +19027,13 @@
         <v>132</v>
       </c>
       <c r="P417" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q417" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="418" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -19087,7 +19071,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="419" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -19125,7 +19109,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -19163,7 +19147,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="421" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -19198,13 +19182,13 @@
         <v>132</v>
       </c>
       <c r="P421" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q421" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -19242,7 +19226,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="423" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -19277,13 +19261,13 @@
         <v>132</v>
       </c>
       <c r="P423" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q423" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="424" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -19321,7 +19305,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="425" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -19359,7 +19343,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="426" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -19376,7 +19360,7 @@
         <v>391</v>
       </c>
       <c r="F426" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H426">
         <v>0.9</v>
@@ -19393,14 +19377,14 @@
       <c r="O426">
         <v>0.9</v>
       </c>
-      <c r="P426" t="s">
-        <v>702</v>
+      <c r="P426">
+        <v>1</v>
       </c>
       <c r="Q426" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="427" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -19438,7 +19422,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -19476,7 +19460,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="429" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -19508,13 +19492,13 @@
         <v>132</v>
       </c>
       <c r="P429" s="1" t="s">
-        <v>705</v>
+        <v>132</v>
       </c>
       <c r="Q429" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -19552,7 +19536,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="431" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -19569,7 +19553,7 @@
         <v>391</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="H431" s="1">
         <v>3.9</v>
@@ -19593,7 +19577,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -19631,7 +19615,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="433" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -19669,7 +19653,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -19707,7 +19691,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="435" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -19745,7 +19729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -19783,7 +19767,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="437" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -19821,7 +19805,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="438" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -19859,7 +19843,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -19897,7 +19881,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="440" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -19935,7 +19919,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="441" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -19973,7 +19957,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="442" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -20008,13 +19992,13 @@
         <v>132</v>
       </c>
       <c r="P442" t="s">
-        <v>704</v>
+        <v>132</v>
       </c>
       <c r="Q442" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="443" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -20052,7 +20036,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="444" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -20084,13 +20068,13 @@
         <v>132</v>
       </c>
       <c r="P444" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q444" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="445" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -20128,7 +20112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -20166,7 +20150,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="447" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -20204,7 +20188,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -20242,7 +20226,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="449" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -20280,7 +20264,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -20318,7 +20302,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="451" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -20335,7 +20319,7 @@
         <v>391</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H451" s="1">
         <v>0.4</v>
@@ -20353,13 +20337,13 @@
         <v>132</v>
       </c>
       <c r="P451" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q451" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="452" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -20397,7 +20381,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -20435,7 +20419,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -20473,7 +20457,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="455" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -20511,7 +20495,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -20549,7 +20533,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="457" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -20587,7 +20571,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -20625,7 +20609,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="459" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -20663,7 +20647,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -20701,7 +20685,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="461" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -20739,7 +20723,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -20777,7 +20761,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="463" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -20815,7 +20799,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -20853,7 +20837,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="465" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -20891,7 +20875,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="466" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -20929,7 +20913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -20967,7 +20951,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="468" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -21005,7 +20989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -21043,7 +21027,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="470" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -21081,7 +21065,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -21119,7 +21103,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="472" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -21157,7 +21141,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -21195,7 +21179,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="474" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -21236,7 +21220,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -21274,7 +21258,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="476" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -21312,7 +21296,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -21350,7 +21334,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="478" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -21388,7 +21372,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -21426,7 +21410,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="480" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -21464,7 +21448,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -21502,7 +21486,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="482" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -21540,7 +21524,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -21578,7 +21562,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="484" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -21616,7 +21600,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="485" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -21654,7 +21638,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="486" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -21692,7 +21676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -21730,7 +21714,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="488" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -21768,7 +21752,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="489" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -21806,7 +21790,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -21844,7 +21828,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="491" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -21882,7 +21866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -21920,7 +21904,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="493" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -21958,7 +21942,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="494" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -21996,7 +21980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -22031,13 +22015,13 @@
         <v>132</v>
       </c>
       <c r="P495" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q495" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -22075,7 +22059,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="497" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -22113,7 +22097,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -22151,7 +22135,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="499" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -22189,7 +22173,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="500" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -22227,7 +22211,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="501" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -22265,7 +22249,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="502" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -22303,7 +22287,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="503" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -22341,7 +22325,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="504" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -22379,7 +22363,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="505" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -22417,7 +22401,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="506" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -22455,7 +22439,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="507" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -22493,7 +22477,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="508" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -22531,7 +22515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -22569,7 +22553,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="510" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -22607,7 +22591,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="511" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -22645,7 +22629,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="512" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -22683,7 +22667,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="513" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -22721,7 +22705,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="514" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -22759,7 +22743,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="515" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -22797,7 +22781,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="516" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -22835,7 +22819,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="517" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -22852,7 +22836,7 @@
         <v>493</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J517" s="1">
         <v>0.4</v>
@@ -22870,13 +22854,13 @@
         <v>132</v>
       </c>
       <c r="P517" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q517" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -22893,7 +22877,7 @@
         <v>493</v>
       </c>
       <c r="F518" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J518">
         <v>0.7</v>
@@ -22911,13 +22895,13 @@
         <v>132</v>
       </c>
       <c r="P518" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q518" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -22955,7 +22939,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="520" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -22993,7 +22977,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="521" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -23031,7 +23015,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="522" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -23069,7 +23053,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="523" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -23107,7 +23091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -23145,7 +23129,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="525" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -23183,7 +23167,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="526" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -23221,7 +23205,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="527" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -23259,7 +23243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -23297,7 +23281,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="529" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>572</v>
       </c>
@@ -23335,7 +23319,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="530" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -23373,7 +23357,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="531" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>574</v>
       </c>
@@ -23411,7 +23395,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="532" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -23452,7 +23436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>577</v>
       </c>
@@ -23490,7 +23474,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="534" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>578</v>
       </c>
@@ -23528,7 +23512,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="535" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>579</v>
       </c>
@@ -23566,7 +23550,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="536" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>580</v>
       </c>
@@ -23604,7 +23588,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="537" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>581</v>
       </c>
@@ -23642,7 +23626,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="538" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>582</v>
       </c>
@@ -23680,7 +23664,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="539" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>583</v>
       </c>
@@ -23718,7 +23702,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="540" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>584</v>
       </c>
@@ -23756,7 +23740,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="541" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -23794,7 +23778,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="542" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>586</v>
       </c>
@@ -23832,7 +23816,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="543" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>589</v>
       </c>
@@ -23870,7 +23854,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="544" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>590</v>
       </c>
@@ -23908,7 +23892,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="545" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>591</v>
       </c>
@@ -23946,7 +23930,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="546" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>592</v>
       </c>
@@ -23984,7 +23968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="547" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>593</v>
       </c>
@@ -24022,7 +24006,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="548" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>594</v>
       </c>
@@ -24060,7 +24044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>595</v>
       </c>
@@ -24098,7 +24082,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="550" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>596</v>
       </c>
@@ -24136,7 +24120,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="551" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>597</v>
       </c>
@@ -24174,7 +24158,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="552" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>598</v>
       </c>
@@ -24191,7 +24175,7 @@
         <v>588</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J552" s="1">
         <v>0.5</v>
@@ -24209,13 +24193,13 @@
         <v>132</v>
       </c>
       <c r="P552" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q552" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="553" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>599</v>
       </c>
@@ -24253,7 +24237,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="554" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>600</v>
       </c>
@@ -24291,7 +24275,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="555" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>601</v>
       </c>
@@ -24329,7 +24313,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="556" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>602</v>
       </c>
@@ -24367,7 +24351,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="557" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>603</v>
       </c>
@@ -24384,7 +24368,7 @@
         <v>588</v>
       </c>
       <c r="F557" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="J557">
         <v>0.3</v>
@@ -24408,7 +24392,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>604</v>
       </c>
@@ -24446,7 +24430,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="559" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>605</v>
       </c>
@@ -24484,7 +24468,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="560" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -24522,7 +24506,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="561" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>607</v>
       </c>
@@ -24560,7 +24544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="562" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -24598,7 +24582,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="563" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>609</v>
       </c>
@@ -24636,7 +24620,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="564" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -24674,7 +24658,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="565" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>611</v>
       </c>
@@ -24712,7 +24696,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="566" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>612</v>
       </c>
@@ -24729,7 +24713,7 @@
         <v>588</v>
       </c>
       <c r="F566" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="J566">
         <v>0.4</v>
@@ -24753,7 +24737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="567" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>613</v>
       </c>
@@ -24791,7 +24775,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="568" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>614</v>
       </c>
@@ -24829,7 +24813,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="569" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>615</v>
       </c>
@@ -24867,7 +24851,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="570" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>616</v>
       </c>
@@ -24905,7 +24889,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="571" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>617</v>
       </c>
@@ -24943,7 +24927,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="572" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>618</v>
       </c>
@@ -24981,7 +24965,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="573" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>619</v>
       </c>
@@ -25019,7 +25003,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="574" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>620</v>
       </c>
@@ -25051,13 +25035,13 @@
         <v>132</v>
       </c>
       <c r="P574" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q574" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="575" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>621</v>
       </c>
@@ -25074,7 +25058,7 @@
         <v>588</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="J575" s="1">
         <v>0.9</v>
@@ -25098,7 +25082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="576" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>622</v>
       </c>
@@ -25115,7 +25099,7 @@
         <v>588</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="J576">
         <v>0.3</v>
@@ -25139,7 +25123,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="577" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>623</v>
       </c>
@@ -25177,7 +25161,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="578" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>624</v>
       </c>
@@ -25215,7 +25199,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="579" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>625</v>
       </c>
@@ -25253,7 +25237,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="580" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>626</v>
       </c>
@@ -25291,7 +25275,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="581" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>627</v>
       </c>
@@ -25329,7 +25313,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="582" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>628</v>
       </c>
@@ -25367,7 +25351,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="583" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>629</v>
       </c>
@@ -25405,7 +25389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="584" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>630</v>
       </c>
@@ -25443,7 +25427,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="585" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>631</v>
       </c>
@@ -25481,7 +25465,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="586" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>632</v>
       </c>
@@ -25519,7 +25503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>633</v>
       </c>
@@ -25557,7 +25541,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="588" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>634</v>
       </c>
@@ -25592,13 +25576,13 @@
         <v>132</v>
       </c>
       <c r="P588" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q588" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="589" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -25633,13 +25617,13 @@
         <v>132</v>
       </c>
       <c r="P589" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q589" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>638</v>
       </c>
@@ -25677,7 +25661,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="591" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>639</v>
       </c>
@@ -25715,7 +25699,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="592" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>640</v>
       </c>
@@ -25753,7 +25737,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="593" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>641</v>
       </c>
@@ -25791,7 +25775,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="594" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -25829,7 +25813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>643</v>
       </c>
@@ -25867,7 +25851,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="596" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>644</v>
       </c>
@@ -25905,7 +25889,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="597" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>645</v>
       </c>
@@ -25943,7 +25927,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="598" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>646</v>
       </c>
@@ -25981,7 +25965,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="599" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>647</v>
       </c>
@@ -26019,7 +26003,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="600" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>648</v>
       </c>
@@ -26057,7 +26041,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="601" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>649</v>
       </c>
@@ -26074,7 +26058,7 @@
         <v>588</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="J601" s="1">
         <v>0.4</v>
@@ -26098,7 +26082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="602" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>650</v>
       </c>
@@ -26136,7 +26120,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="603" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>651</v>
       </c>
@@ -26171,13 +26155,13 @@
         <v>132</v>
       </c>
       <c r="P603" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q603" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="604" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>653</v>
       </c>
@@ -26212,13 +26196,13 @@
         <v>132</v>
       </c>
       <c r="P604" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q604" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="605" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>654</v>
       </c>
@@ -26250,13 +26234,13 @@
         <v>132</v>
       </c>
       <c r="P605" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q605" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="606" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>655</v>
       </c>
@@ -26294,7 +26278,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="607" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>656</v>
       </c>
@@ -26311,7 +26295,7 @@
         <v>588</v>
       </c>
       <c r="F607" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="J607">
         <v>1</v>
@@ -26335,7 +26319,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="608" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>657</v>
       </c>
@@ -26373,7 +26357,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="609" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>658</v>
       </c>
@@ -26390,7 +26374,7 @@
         <v>588</v>
       </c>
       <c r="F609" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="J609">
         <v>0.4</v>
@@ -26414,7 +26398,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="610" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>659</v>
       </c>
@@ -26452,7 +26436,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="611" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>660</v>
       </c>
@@ -26490,7 +26474,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="612" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>661</v>
       </c>
@@ -26507,7 +26491,7 @@
         <v>588</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J612" s="1">
         <v>0.5</v>
@@ -26525,13 +26509,13 @@
         <v>132</v>
       </c>
       <c r="P612" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q612" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="613" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>662</v>
       </c>
@@ -26569,7 +26553,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="614" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>663</v>
       </c>
@@ -26610,7 +26594,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="615" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>665</v>
       </c>
@@ -26648,7 +26632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="616" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>666</v>
       </c>
@@ -26686,7 +26670,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="617" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -26724,7 +26708,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="618" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>668</v>
       </c>
@@ -26762,7 +26746,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="619" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>669</v>
       </c>
@@ -26800,7 +26784,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="620" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>670</v>
       </c>
@@ -26817,7 +26801,7 @@
         <v>588</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J620" s="1">
         <v>0.5</v>
@@ -26835,13 +26819,13 @@
         <v>0.6</v>
       </c>
       <c r="P620" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q620" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="621" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>671</v>
       </c>
@@ -26879,7 +26863,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="622" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>672</v>
       </c>
@@ -26917,7 +26901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -26955,7 +26939,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>674</v>
       </c>
@@ -26993,7 +26977,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="625" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>675</v>
       </c>
@@ -27031,7 +27015,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="626" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>676</v>
       </c>
@@ -27069,7 +27053,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="627" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>677</v>
       </c>
@@ -27107,7 +27091,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="628" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>678</v>
       </c>
@@ -27145,7 +27129,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="629" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>679</v>
       </c>
@@ -27183,7 +27167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="630" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>680</v>
       </c>
@@ -27221,7 +27205,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="631" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>681</v>
       </c>
@@ -27260,13 +27244,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="populus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D631" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/shoot_elongation.xlsx
+++ b/data/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D207C-ED50-1646-919B-909789588C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C084A1-DD5C-AB46-91A9-91BA16161119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3740" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="707">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3030,11 +3030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q631"/>
+  <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="133" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3046,7 +3046,7 @@
     <col min="13" max="17" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3098,8 +3098,11 @@
       <c r="Q1" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3136,8 +3139,11 @@
       <c r="Q2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3174,8 +3180,11 @@
       <c r="Q3" s="1">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3212,8 +3221,11 @@
       <c r="Q4">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3250,8 +3262,11 @@
       <c r="Q5" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3288,8 +3303,11 @@
       <c r="Q6">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3326,8 +3344,11 @@
       <c r="Q7" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3364,8 +3385,11 @@
       <c r="Q8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3402,8 +3426,11 @@
       <c r="Q9" s="1">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3440,8 +3467,11 @@
       <c r="Q10">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3478,8 +3508,11 @@
       <c r="Q11" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3519,8 +3552,11 @@
       <c r="Q12">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3557,8 +3593,11 @@
       <c r="Q13" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3595,8 +3634,11 @@
       <c r="Q14">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3633,8 +3675,11 @@
       <c r="Q15" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3671,8 +3716,11 @@
       <c r="Q16">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3709,8 +3757,11 @@
       <c r="Q17" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3747,8 +3798,11 @@
       <c r="Q18">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3785,8 +3839,11 @@
       <c r="Q19" s="1">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3823,8 +3880,11 @@
       <c r="Q20">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3858,8 +3918,11 @@
       <c r="Q21" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3899,8 +3962,11 @@
       <c r="Q22">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3937,8 +4003,11 @@
       <c r="Q23" s="1">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3978,8 +4047,11 @@
       <c r="Q24">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -4016,8 +4088,11 @@
       <c r="Q25" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4054,8 +4129,11 @@
       <c r="Q26">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4092,8 +4170,11 @@
       <c r="Q27" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4133,8 +4214,11 @@
       <c r="Q28" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -4171,8 +4255,11 @@
       <c r="Q29" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4212,8 +4299,11 @@
       <c r="Q30">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -4250,8 +4340,11 @@
       <c r="Q31" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4288,8 +4381,11 @@
       <c r="Q32">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4326,8 +4422,11 @@
       <c r="Q33" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4364,8 +4463,11 @@
       <c r="Q34">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4402,8 +4504,11 @@
       <c r="Q35" s="1">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4440,8 +4545,11 @@
       <c r="Q36">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4481,8 +4589,11 @@
       <c r="Q37" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4519,8 +4630,11 @@
       <c r="Q38">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4557,8 +4671,11 @@
       <c r="Q39" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4595,8 +4712,11 @@
       <c r="Q40">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4633,8 +4753,11 @@
       <c r="Q41" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4671,8 +4794,11 @@
       <c r="Q42">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4709,8 +4835,11 @@
       <c r="Q43" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4747,8 +4876,11 @@
       <c r="Q44">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4785,8 +4917,11 @@
       <c r="Q45" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4823,8 +4958,11 @@
       <c r="Q46">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4861,8 +4999,11 @@
       <c r="Q47" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R47" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4899,8 +5040,11 @@
       <c r="Q48" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4937,8 +5081,11 @@
       <c r="Q49">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -4975,8 +5122,11 @@
       <c r="Q50" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5013,8 +5163,11 @@
       <c r="Q51" s="1">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R51" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -5051,8 +5204,11 @@
       <c r="Q52" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5089,8 +5245,11 @@
       <c r="Q53" s="1">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R53" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -5130,8 +5289,11 @@
       <c r="Q54" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5168,8 +5330,11 @@
       <c r="Q55" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R55" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -5206,8 +5371,11 @@
       <c r="Q56" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5244,8 +5412,11 @@
       <c r="Q57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R57" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -5285,8 +5456,11 @@
       <c r="Q58" s="1">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5323,8 +5497,11 @@
       <c r="Q59" s="1">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R59" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -5361,8 +5538,11 @@
       <c r="Q60" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5399,8 +5579,11 @@
       <c r="Q61" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R61" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -5437,8 +5620,11 @@
       <c r="Q62" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -5475,8 +5661,11 @@
       <c r="Q63">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -5513,8 +5702,11 @@
       <c r="Q64" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -5551,8 +5743,11 @@
       <c r="Q65">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -5589,8 +5784,11 @@
       <c r="Q66" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -5627,8 +5825,11 @@
       <c r="Q67">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5665,8 +5866,11 @@
       <c r="Q68" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -5703,8 +5907,11 @@
       <c r="Q69">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -5741,8 +5948,11 @@
       <c r="Q70" s="1">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R70" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5779,8 +5989,11 @@
       <c r="Q71" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5817,8 +6030,11 @@
       <c r="Q72" s="1">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R72" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5855,8 +6071,11 @@
       <c r="Q73" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5893,8 +6112,11 @@
       <c r="Q74" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R74" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -5931,8 +6153,11 @@
       <c r="Q75" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5969,8 +6194,11 @@
       <c r="Q76" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R76" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -6007,8 +6235,11 @@
       <c r="Q77" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -6045,8 +6276,11 @@
       <c r="Q78">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="Q79" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -6127,8 +6364,11 @@
       <c r="Q80">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -6165,8 +6405,11 @@
       <c r="Q81" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -6203,8 +6446,11 @@
       <c r="Q82">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -6241,8 +6487,11 @@
       <c r="Q83" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -6279,8 +6528,11 @@
       <c r="Q84">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R84">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -6317,8 +6569,11 @@
       <c r="Q85" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -6355,8 +6610,11 @@
       <c r="Q86">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R86">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -6393,8 +6651,11 @@
       <c r="Q87" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -6431,8 +6692,11 @@
       <c r="Q88">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -6469,8 +6733,11 @@
       <c r="Q89" s="1">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -6510,8 +6777,11 @@
       <c r="Q90">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R90">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
@@ -6548,8 +6818,11 @@
       <c r="Q91" s="1">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -6586,8 +6859,11 @@
       <c r="Q92">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R92">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -6624,8 +6900,11 @@
       <c r="Q93" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6662,8 +6941,11 @@
       <c r="Q94">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R94">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6703,8 +6985,11 @@
       <c r="Q95" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6741,8 +7026,11 @@
       <c r="Q96">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R96">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6779,8 +7067,11 @@
       <c r="Q97" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6817,8 +7108,11 @@
       <c r="Q98">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R98">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6855,8 +7149,11 @@
       <c r="Q99" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6893,8 +7190,11 @@
       <c r="Q100">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R100">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6931,8 +7231,11 @@
       <c r="Q101" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6969,8 +7272,11 @@
       <c r="Q102">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R102">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -7007,8 +7313,11 @@
       <c r="Q103" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -7045,8 +7354,11 @@
       <c r="Q104">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R104">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -7083,8 +7395,11 @@
       <c r="Q105" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -7121,8 +7436,11 @@
       <c r="Q106">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R106">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -7159,8 +7477,11 @@
       <c r="Q107" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -7197,8 +7518,11 @@
       <c r="Q108">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -7238,8 +7562,11 @@
       <c r="Q109" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -7276,8 +7603,11 @@
       <c r="Q110">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -7314,8 +7644,11 @@
       <c r="Q111" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" s="1">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -7352,8 +7685,11 @@
       <c r="Q112">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R112">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -7393,8 +7729,11 @@
       <c r="Q113" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -7431,8 +7770,11 @@
       <c r="Q114">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -7469,8 +7811,11 @@
       <c r="Q115" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -7507,8 +7852,11 @@
       <c r="Q116">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R116">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -7545,8 +7893,11 @@
       <c r="Q117" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R117" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -7583,8 +7934,11 @@
       <c r="Q118" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -7621,8 +7975,11 @@
       <c r="Q119" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R119" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -7659,8 +8016,11 @@
       <c r="Q120" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -7697,8 +8057,11 @@
       <c r="Q121" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R121" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
@@ -7738,8 +8101,11 @@
       <c r="Q122" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -7776,8 +8142,11 @@
       <c r="Q123">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -7814,8 +8183,11 @@
       <c r="Q124" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7852,8 +8224,11 @@
       <c r="Q125">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R125">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -7890,8 +8265,11 @@
       <c r="Q126" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -7928,8 +8306,11 @@
       <c r="Q127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -7966,8 +8347,11 @@
       <c r="Q128" s="1">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -8004,8 +8388,11 @@
       <c r="Q129">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R129">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -8042,8 +8429,11 @@
       <c r="Q130" s="1">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -8080,8 +8470,11 @@
       <c r="Q131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>151</v>
       </c>
@@ -8118,8 +8511,11 @@
       <c r="Q132" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -8156,8 +8552,11 @@
       <c r="Q133">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R133">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>153</v>
       </c>
@@ -8194,8 +8593,11 @@
       <c r="Q134" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -8232,8 +8634,11 @@
       <c r="Q135">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R135">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>155</v>
       </c>
@@ -8273,8 +8678,11 @@
       <c r="Q136" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -8311,8 +8719,11 @@
       <c r="Q137">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R137">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -8349,8 +8760,11 @@
       <c r="Q138" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -8387,8 +8801,11 @@
       <c r="Q139">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R139">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -8425,8 +8842,11 @@
       <c r="Q140" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R140" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -8463,8 +8883,11 @@
       <c r="Q141" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -8501,8 +8924,11 @@
       <c r="Q142" s="1">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R142" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>163</v>
       </c>
@@ -8539,8 +8965,11 @@
       <c r="Q143" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -8577,8 +9006,11 @@
       <c r="Q144" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R144" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
@@ -8615,8 +9047,11 @@
       <c r="Q145" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R145" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -8653,8 +9088,11 @@
       <c r="Q146" s="1">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R146" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -8691,8 +9129,11 @@
       <c r="Q147" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8729,8 +9170,11 @@
       <c r="Q148" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R148" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -8767,8 +9211,11 @@
       <c r="Q149" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -8805,8 +9252,11 @@
       <c r="Q150" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R150" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>171</v>
       </c>
@@ -8843,8 +9293,11 @@
       <c r="Q151" s="1">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -8881,8 +9334,11 @@
       <c r="Q152">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R152">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>173</v>
       </c>
@@ -8919,8 +9375,11 @@
       <c r="Q153" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -8957,8 +9416,11 @@
       <c r="Q154">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -8995,8 +9457,11 @@
       <c r="Q155" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R155" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -9033,8 +9498,11 @@
       <c r="Q156">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
@@ -9071,8 +9539,11 @@
       <c r="Q157" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -9109,8 +9580,11 @@
       <c r="Q158">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R158">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -9147,8 +9621,11 @@
       <c r="Q159" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -9185,8 +9662,11 @@
       <c r="Q160">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R160">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>181</v>
       </c>
@@ -9223,8 +9703,11 @@
       <c r="Q161" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -9264,8 +9747,11 @@
       <c r="Q162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>183</v>
       </c>
@@ -9302,8 +9788,11 @@
       <c r="Q163" s="1">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -9343,8 +9832,11 @@
       <c r="Q164">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R164">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
@@ -9381,8 +9873,11 @@
       <c r="Q165" s="1">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R165" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -9419,8 +9914,11 @@
       <c r="Q166">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
@@ -9457,8 +9955,11 @@
       <c r="Q167" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -9495,8 +9996,11 @@
       <c r="Q168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
@@ -9533,8 +10037,11 @@
       <c r="Q169" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R169" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -9571,8 +10078,11 @@
       <c r="Q170">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
@@ -9609,8 +10119,11 @@
       <c r="Q171" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -9647,8 +10160,11 @@
       <c r="Q172">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R172">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>193</v>
       </c>
@@ -9685,8 +10201,11 @@
       <c r="Q173" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -9723,8 +10242,11 @@
       <c r="Q174">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R174">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -9761,8 +10283,11 @@
       <c r="Q175" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -9799,8 +10324,11 @@
       <c r="Q176">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R176">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>197</v>
       </c>
@@ -9837,8 +10365,11 @@
       <c r="Q177" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -9875,8 +10406,11 @@
       <c r="Q178">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R178">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
@@ -9913,8 +10447,11 @@
       <c r="Q179" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -9951,8 +10488,11 @@
       <c r="Q180">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R180">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>201</v>
       </c>
@@ -9989,8 +10529,11 @@
       <c r="Q181" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -10027,8 +10570,11 @@
       <c r="Q182">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R182">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -10065,8 +10611,11 @@
       <c r="Q183" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -10103,8 +10652,11 @@
       <c r="Q184">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R184">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -10141,8 +10693,11 @@
       <c r="Q185" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -10179,8 +10734,11 @@
       <c r="Q186">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R186">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -10217,8 +10775,11 @@
       <c r="Q187" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R187" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -10255,8 +10816,11 @@
       <c r="Q188" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -10296,8 +10860,11 @@
       <c r="Q189" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R189" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>213</v>
       </c>
@@ -10334,8 +10901,11 @@
       <c r="Q190" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -10372,8 +10942,11 @@
       <c r="Q191" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R191" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>215</v>
       </c>
@@ -10410,8 +10983,11 @@
       <c r="Q192" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -10448,8 +11024,11 @@
       <c r="Q193" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R193" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>217</v>
       </c>
@@ -10489,8 +11068,11 @@
       <c r="Q194" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -10527,8 +11109,11 @@
       <c r="Q195" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R195" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>219</v>
       </c>
@@ -10565,8 +11150,11 @@
       <c r="Q196" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -10603,8 +11191,11 @@
       <c r="Q197">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R197">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>221</v>
       </c>
@@ -10641,8 +11232,11 @@
       <c r="Q198" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -10679,8 +11273,11 @@
       <c r="Q199">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R199">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>223</v>
       </c>
@@ -10717,8 +11314,11 @@
       <c r="Q200" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -10755,8 +11355,11 @@
       <c r="Q201">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R201">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>225</v>
       </c>
@@ -10793,8 +11396,11 @@
       <c r="Q202" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R202" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -10831,8 +11437,11 @@
       <c r="Q203">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R203">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>227</v>
       </c>
@@ -10869,8 +11478,11 @@
       <c r="Q204" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R204" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -10907,8 +11519,11 @@
       <c r="Q205">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R205">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -10945,8 +11560,11 @@
       <c r="Q206" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R206" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -10983,8 +11601,11 @@
       <c r="Q207">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R207">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -11021,8 +11642,11 @@
       <c r="Q208" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R208" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -11059,8 +11683,11 @@
       <c r="Q209">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R209">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>233</v>
       </c>
@@ -11097,8 +11724,11 @@
       <c r="Q210" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R210" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>234</v>
       </c>
@@ -11135,8 +11765,11 @@
       <c r="Q211" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R211" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -11173,8 +11806,11 @@
       <c r="Q212">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R212">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>236</v>
       </c>
@@ -11211,8 +11847,11 @@
       <c r="Q213" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R213" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -11249,8 +11888,11 @@
       <c r="Q214">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>238</v>
       </c>
@@ -11287,8 +11929,11 @@
       <c r="Q215" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R215" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -11325,8 +11970,11 @@
       <c r="Q216">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R216">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
@@ -11363,8 +12011,11 @@
       <c r="Q217" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R217" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -11401,8 +12052,11 @@
       <c r="Q218">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R218">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>242</v>
       </c>
@@ -11439,8 +12093,11 @@
       <c r="Q219" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -11477,8 +12134,11 @@
       <c r="Q220">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R220">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>244</v>
       </c>
@@ -11515,8 +12175,11 @@
       <c r="Q221" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R221" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -11553,8 +12216,11 @@
       <c r="Q222">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R222">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>246</v>
       </c>
@@ -11591,8 +12257,11 @@
       <c r="Q223" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R223" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -11629,8 +12298,11 @@
       <c r="Q224">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R224">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -11667,8 +12339,11 @@
       <c r="Q225" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R225" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -11705,8 +12380,11 @@
       <c r="Q226">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R226">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -11743,8 +12421,11 @@
       <c r="Q227" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -11781,8 +12462,11 @@
       <c r="Q228">
         <v>12</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R228">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>252</v>
       </c>
@@ -11819,8 +12503,11 @@
       <c r="Q229" s="1">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R229" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -11857,8 +12544,11 @@
       <c r="Q230">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R230">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>254</v>
       </c>
@@ -11895,8 +12585,11 @@
       <c r="Q231" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R231" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -11933,8 +12626,11 @@
       <c r="Q232">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R232">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>256</v>
       </c>
@@ -11971,8 +12667,11 @@
       <c r="Q233" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -12009,8 +12708,11 @@
       <c r="Q234">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R234">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>258</v>
       </c>
@@ -12047,8 +12749,11 @@
       <c r="Q235" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -12085,8 +12790,11 @@
       <c r="Q236">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R236">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>260</v>
       </c>
@@ -12126,8 +12834,11 @@
       <c r="Q237" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -12164,8 +12875,11 @@
       <c r="Q238">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R238">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>262</v>
       </c>
@@ -12202,8 +12916,11 @@
       <c r="Q239" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R239" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -12240,8 +12957,11 @@
       <c r="Q240">
         <v>14</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R240">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>264</v>
       </c>
@@ -12278,8 +12998,11 @@
       <c r="Q241" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R241" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -12316,8 +13039,11 @@
       <c r="Q242">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R242">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>266</v>
       </c>
@@ -12354,8 +13080,11 @@
       <c r="Q243" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -12392,8 +13121,11 @@
       <c r="Q244">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R244">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>268</v>
       </c>
@@ -12430,8 +13162,11 @@
       <c r="Q245" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -12468,8 +13203,11 @@
       <c r="Q246">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R246">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
@@ -12506,8 +13244,11 @@
       <c r="Q247" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -12544,8 +13285,11 @@
       <c r="Q248">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R248">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>272</v>
       </c>
@@ -12582,8 +13326,11 @@
       <c r="Q249" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R249" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -12620,8 +13367,11 @@
       <c r="Q250">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R250">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -12658,8 +13408,11 @@
       <c r="Q251" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R251" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -12696,8 +13449,11 @@
       <c r="Q252">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R252">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>276</v>
       </c>
@@ -12734,8 +13490,11 @@
       <c r="Q253" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R253" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -12772,8 +13531,11 @@
       <c r="Q254">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R254">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>278</v>
       </c>
@@ -12810,8 +13572,11 @@
       <c r="Q255" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R255" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -12848,8 +13613,11 @@
       <c r="Q256">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R256">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>280</v>
       </c>
@@ -12886,8 +13654,11 @@
       <c r="Q257" s="1">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R257" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>281</v>
       </c>
@@ -12924,8 +13695,11 @@
       <c r="Q258" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R258" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -12962,8 +13736,11 @@
       <c r="Q259">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R259">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
@@ -13000,8 +13777,11 @@
       <c r="Q260" s="1">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R260" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -13038,8 +13818,11 @@
       <c r="Q261" s="1">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R261" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -13076,8 +13859,11 @@
       <c r="Q262" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -13114,8 +13900,11 @@
       <c r="Q263" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R263" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>287</v>
       </c>
@@ -13152,8 +13941,11 @@
       <c r="Q264" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -13190,8 +13982,11 @@
       <c r="Q265" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R265" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
@@ -13228,8 +14023,11 @@
       <c r="Q266" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -13266,8 +14064,11 @@
       <c r="Q267" s="1">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R267" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>291</v>
       </c>
@@ -13304,8 +14105,11 @@
       <c r="Q268" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -13342,8 +14146,11 @@
       <c r="Q269" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R269" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>293</v>
       </c>
@@ -13380,8 +14187,11 @@
       <c r="Q270" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R270" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -13418,8 +14228,11 @@
       <c r="Q271" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R271" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>295</v>
       </c>
@@ -13456,8 +14269,11 @@
       <c r="Q272" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R272" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -13494,8 +14310,11 @@
       <c r="Q273" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R273" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>299</v>
       </c>
@@ -13532,8 +14351,11 @@
       <c r="Q274" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R274" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -13570,8 +14392,11 @@
       <c r="Q275" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R275" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>301</v>
       </c>
@@ -13608,8 +14433,11 @@
       <c r="Q276" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R276" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -13646,8 +14474,11 @@
       <c r="Q277" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R277" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>303</v>
       </c>
@@ -13684,8 +14515,11 @@
       <c r="Q278" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R278" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -13725,8 +14559,11 @@
       <c r="Q279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>305</v>
       </c>
@@ -13763,8 +14600,11 @@
       <c r="Q280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>306</v>
       </c>
@@ -13801,8 +14641,11 @@
       <c r="Q281" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R281" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -13839,8 +14682,11 @@
       <c r="Q282" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R282" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>308</v>
       </c>
@@ -13880,8 +14726,11 @@
       <c r="Q283" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R283" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -13921,8 +14770,11 @@
       <c r="Q284" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R284" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>310</v>
       </c>
@@ -13959,8 +14811,11 @@
       <c r="Q285" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -13997,8 +14852,11 @@
       <c r="Q286" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R286" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>312</v>
       </c>
@@ -14035,8 +14893,11 @@
       <c r="Q287" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R287" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -14073,8 +14934,11 @@
       <c r="Q288">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R288">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>314</v>
       </c>
@@ -14111,8 +14975,11 @@
       <c r="Q289" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R289" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -14149,8 +15016,11 @@
       <c r="Q290">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R290">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>316</v>
       </c>
@@ -14187,8 +15057,11 @@
       <c r="Q291" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R291" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -14225,8 +15098,11 @@
       <c r="Q292">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R292">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>318</v>
       </c>
@@ -14263,8 +15139,11 @@
       <c r="Q293" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R293" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -14301,8 +15180,11 @@
       <c r="Q294">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R294">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>320</v>
       </c>
@@ -14339,8 +15221,11 @@
       <c r="Q295" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R295" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -14377,8 +15262,11 @@
       <c r="Q296">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R296">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>322</v>
       </c>
@@ -14415,8 +15303,11 @@
       <c r="Q297" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R297" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -14453,8 +15344,11 @@
       <c r="Q298">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R298">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>324</v>
       </c>
@@ -14491,8 +15385,11 @@
       <c r="Q299" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R299" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -14529,8 +15426,11 @@
       <c r="Q300">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R300">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>326</v>
       </c>
@@ -14567,8 +15467,11 @@
       <c r="Q301" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R301" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -14605,8 +15508,11 @@
       <c r="Q302">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R302">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>328</v>
       </c>
@@ -14643,8 +15549,11 @@
       <c r="Q303" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R303" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -14681,8 +15590,11 @@
       <c r="Q304">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R304">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>330</v>
       </c>
@@ -14719,8 +15631,11 @@
       <c r="Q305" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R305" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -14757,8 +15672,11 @@
       <c r="Q306">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R306">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>332</v>
       </c>
@@ -14795,8 +15713,11 @@
       <c r="Q307" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R307" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -14833,8 +15754,11 @@
       <c r="Q308">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R308">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>334</v>
       </c>
@@ -14871,8 +15795,11 @@
       <c r="Q309" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R309" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -14912,8 +15839,11 @@
       <c r="Q310">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R310">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>337</v>
       </c>
@@ -14950,8 +15880,11 @@
       <c r="Q311" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R311" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -14988,8 +15921,11 @@
       <c r="Q312">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R312">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>339</v>
       </c>
@@ -15026,8 +15962,11 @@
       <c r="Q313" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R313" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -15067,8 +16006,11 @@
       <c r="Q314">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R314">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>341</v>
       </c>
@@ -15105,8 +16047,11 @@
       <c r="Q315" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R315" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -15143,8 +16088,11 @@
       <c r="Q316">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R316">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>343</v>
       </c>
@@ -15181,8 +16129,11 @@
       <c r="Q317" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R317" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -15219,8 +16170,11 @@
       <c r="Q318">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R318">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>345</v>
       </c>
@@ -15257,8 +16211,11 @@
       <c r="Q319" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R319" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -15295,8 +16252,11 @@
       <c r="Q320">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R320">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -15333,8 +16293,11 @@
       <c r="Q321" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R321" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -15374,8 +16337,11 @@
       <c r="Q322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>349</v>
       </c>
@@ -15412,8 +16378,11 @@
       <c r="Q323" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R323" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -15453,8 +16422,11 @@
       <c r="Q324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>352</v>
       </c>
@@ -15491,8 +16463,11 @@
       <c r="Q325" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R325" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -15529,8 +16504,11 @@
       <c r="Q326">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R326">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>354</v>
       </c>
@@ -15567,8 +16545,11 @@
       <c r="Q327" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R327" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>355</v>
       </c>
@@ -15605,8 +16586,11 @@
       <c r="Q328" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R328" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -15643,8 +16627,11 @@
       <c r="Q329" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R329" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>357</v>
       </c>
@@ -15681,8 +16668,11 @@
       <c r="Q330" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R330" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -15719,8 +16709,11 @@
       <c r="Q331" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R331" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>359</v>
       </c>
@@ -15757,8 +16750,11 @@
       <c r="Q332" s="1">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R332" s="1">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -15795,8 +16791,11 @@
       <c r="Q333">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R333">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
@@ -15833,8 +16832,11 @@
       <c r="Q334" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R334" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -15871,8 +16873,11 @@
       <c r="Q335">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R335">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
@@ -15909,8 +16914,11 @@
       <c r="Q336" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R336" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -15947,8 +16955,11 @@
       <c r="Q337">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R337">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
@@ -15985,8 +16996,11 @@
       <c r="Q338" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R338" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -16023,8 +17037,11 @@
       <c r="Q339">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
@@ -16061,8 +17078,11 @@
       <c r="Q340" s="1">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R340" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -16099,8 +17119,11 @@
       <c r="Q341">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R341">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>369</v>
       </c>
@@ -16137,8 +17160,11 @@
       <c r="Q342" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R342" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -16175,8 +17201,11 @@
       <c r="Q343">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R343">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>371</v>
       </c>
@@ -16213,8 +17242,11 @@
       <c r="Q344" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R344" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -16251,8 +17283,11 @@
       <c r="Q345">
         <v>7</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R345">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>373</v>
       </c>
@@ -16289,8 +17324,11 @@
       <c r="Q346" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R346" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -16327,8 +17365,11 @@
       <c r="Q347">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R347">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -16365,8 +17406,11 @@
       <c r="Q348" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R348" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -16403,8 +17447,11 @@
       <c r="Q349">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="350" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R349">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>377</v>
       </c>
@@ -16441,8 +17488,11 @@
       <c r="Q350" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="351" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R350" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>378</v>
       </c>
@@ -16479,8 +17529,11 @@
       <c r="Q351" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R351" s="1">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -16517,8 +17570,11 @@
       <c r="Q352" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="353" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R352" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>380</v>
       </c>
@@ -16555,8 +17611,11 @@
       <c r="Q353" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R353" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -16593,8 +17652,11 @@
       <c r="Q354" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="355" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R354" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>382</v>
       </c>
@@ -16634,8 +17696,11 @@
       <c r="Q355" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R355" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -16672,8 +17737,11 @@
       <c r="Q356" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="357" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R356" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>384</v>
       </c>
@@ -16713,8 +17781,11 @@
       <c r="Q357" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R357" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -16751,8 +17822,11 @@
       <c r="Q358" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="359" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R358" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>386</v>
       </c>
@@ -16789,8 +17863,11 @@
       <c r="Q359" s="1">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R359" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -16827,8 +17904,11 @@
       <c r="Q360" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="361" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R360" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>388</v>
       </c>
@@ -16865,8 +17945,11 @@
       <c r="Q361" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R361" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -16903,8 +17986,11 @@
       <c r="Q362">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R362">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>392</v>
       </c>
@@ -16941,8 +18027,11 @@
       <c r="Q363" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R363" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -16982,8 +18071,11 @@
       <c r="Q364">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R364">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>394</v>
       </c>
@@ -17020,8 +18112,11 @@
       <c r="Q365" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R365" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -17058,8 +18153,11 @@
       <c r="Q366">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="367" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R366">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>396</v>
       </c>
@@ -17096,8 +18194,11 @@
       <c r="Q367" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -17137,8 +18238,11 @@
       <c r="Q368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R368">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>399</v>
       </c>
@@ -17178,8 +18282,11 @@
       <c r="Q369" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R369" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -17216,8 +18323,11 @@
       <c r="Q370">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="371" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R370">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>401</v>
       </c>
@@ -17254,8 +18364,11 @@
       <c r="Q371" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R371" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -17292,8 +18405,11 @@
       <c r="Q372">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="373" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R372">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>403</v>
       </c>
@@ -17330,8 +18446,11 @@
       <c r="Q373" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R373" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -17368,8 +18487,11 @@
       <c r="Q374">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R374">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>405</v>
       </c>
@@ -17406,8 +18528,11 @@
       <c r="Q375" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R375" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -17444,8 +18569,11 @@
       <c r="Q376">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="377" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R376">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>407</v>
       </c>
@@ -17482,8 +18610,11 @@
       <c r="Q377" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R377" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -17520,8 +18651,11 @@
       <c r="Q378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R378">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>409</v>
       </c>
@@ -17558,8 +18692,11 @@
       <c r="Q379" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R379" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -17599,8 +18736,11 @@
       <c r="Q380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R380" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>412</v>
       </c>
@@ -17640,8 +18780,11 @@
       <c r="Q381" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R381" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -17678,8 +18821,11 @@
       <c r="Q382">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="383" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R382">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>415</v>
       </c>
@@ -17716,8 +18862,11 @@
       <c r="Q383" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R383" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -17754,8 +18903,11 @@
       <c r="Q384">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="385" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R384">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>417</v>
       </c>
@@ -17792,8 +18944,11 @@
       <c r="Q385" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R385" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -17830,8 +18985,11 @@
       <c r="Q386">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R386">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>419</v>
       </c>
@@ -17871,8 +19029,11 @@
       <c r="Q387" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R387" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -17909,8 +19070,11 @@
       <c r="Q388">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="389" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R388">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -17947,8 +19111,11 @@
       <c r="Q389" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R389" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -17985,8 +19152,11 @@
       <c r="Q390">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="391" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R390">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>424</v>
       </c>
@@ -18023,8 +19193,11 @@
       <c r="Q391" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R391" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -18064,8 +19237,11 @@
       <c r="Q392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R392" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -18102,8 +19278,11 @@
       <c r="Q393" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R393" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -18143,8 +19322,11 @@
       <c r="Q394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R394">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>428</v>
       </c>
@@ -18181,8 +19363,11 @@
       <c r="Q395" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -18219,8 +19404,11 @@
       <c r="Q396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>430</v>
       </c>
@@ -18257,8 +19445,11 @@
       <c r="Q397" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R397" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>431</v>
       </c>
@@ -18295,8 +19486,11 @@
       <c r="Q398" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R398" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -18336,8 +19530,11 @@
       <c r="Q399" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="400" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R399" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>434</v>
       </c>
@@ -18374,8 +19571,11 @@
       <c r="Q400" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R400" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -18412,8 +19612,11 @@
       <c r="Q401" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R401" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>436</v>
       </c>
@@ -18450,8 +19653,11 @@
       <c r="Q402" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R402" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -18491,8 +19697,11 @@
       <c r="Q403" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="404" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R403" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>438</v>
       </c>
@@ -18532,8 +19741,11 @@
       <c r="Q404" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R404" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -18570,8 +19782,11 @@
       <c r="Q405" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="406" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R405" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>441</v>
       </c>
@@ -18608,8 +19823,11 @@
       <c r="Q406" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R406" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -18646,8 +19864,11 @@
       <c r="Q407">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="408" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R407">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>443</v>
       </c>
@@ -18684,8 +19905,11 @@
       <c r="Q408" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R408" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -18722,8 +19946,11 @@
       <c r="Q409">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="410" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>445</v>
       </c>
@@ -18760,8 +19987,11 @@
       <c r="Q410" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R410" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -18798,8 +20028,11 @@
       <c r="Q411">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="412" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R411">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>447</v>
       </c>
@@ -18836,8 +20069,11 @@
       <c r="Q412" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R412" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -18874,8 +20110,11 @@
       <c r="Q413">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R413">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>449</v>
       </c>
@@ -18912,8 +20151,11 @@
       <c r="Q414" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R414" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -18950,8 +20192,11 @@
       <c r="Q415">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="416" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R415">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
@@ -18991,8 +20236,11 @@
       <c r="Q416" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R416" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -19032,8 +20280,11 @@
       <c r="Q417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>453</v>
       </c>
@@ -19070,8 +20321,11 @@
       <c r="Q418" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R418" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -19108,8 +20362,11 @@
       <c r="Q419">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R419">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>455</v>
       </c>
@@ -19146,8 +20403,11 @@
       <c r="Q420" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="421" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R420" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>456</v>
       </c>
@@ -19187,8 +20447,11 @@
       <c r="Q421" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R421" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>458</v>
       </c>
@@ -19225,8 +20488,11 @@
       <c r="Q422">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="423" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R422">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>459</v>
       </c>
@@ -19266,8 +20532,11 @@
       <c r="Q423" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R423" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
@@ -19304,8 +20573,11 @@
       <c r="Q424">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="425" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R424">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>462</v>
       </c>
@@ -19342,8 +20614,11 @@
       <c r="Q425" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R425" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -19383,8 +20658,11 @@
       <c r="Q426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R426" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>464</v>
       </c>
@@ -19421,8 +20699,11 @@
       <c r="Q427" s="1">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R427" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
@@ -19459,8 +20740,11 @@
       <c r="Q428">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="429" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R428">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>466</v>
       </c>
@@ -19497,8 +20781,11 @@
       <c r="Q429" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R429" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>468</v>
       </c>
@@ -19535,8 +20822,11 @@
       <c r="Q430">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="431" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R430">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -19576,8 +20866,11 @@
       <c r="Q431" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R431" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>470</v>
       </c>
@@ -19614,8 +20907,11 @@
       <c r="Q432">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="433" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R432">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -19652,8 +20948,11 @@
       <c r="Q433" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R433" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>472</v>
       </c>
@@ -19690,8 +20989,11 @@
       <c r="Q434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R434">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -19728,8 +21030,11 @@
       <c r="Q435" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R435" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>474</v>
       </c>
@@ -19766,8 +21071,11 @@
       <c r="Q436">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="437" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R436">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -19804,8 +21112,11 @@
       <c r="Q437" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R437" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -19842,8 +21153,11 @@
       <c r="Q438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -19880,8 +21194,11 @@
       <c r="Q439" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R439" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>478</v>
       </c>
@@ -19918,8 +21235,11 @@
       <c r="Q440">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="441" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R440">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -19956,8 +21276,11 @@
       <c r="Q441" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R441" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>480</v>
       </c>
@@ -19997,8 +21320,11 @@
       <c r="Q442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R442" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>482</v>
       </c>
@@ -20035,8 +21361,11 @@
       <c r="Q443" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R443" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>483</v>
       </c>
@@ -20073,8 +21402,11 @@
       <c r="Q444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R444" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>484</v>
       </c>
@@ -20111,8 +21443,11 @@
       <c r="Q445" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>485</v>
       </c>
@@ -20149,8 +21484,11 @@
       <c r="Q446">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="447" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R446">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>486</v>
       </c>
@@ -20187,8 +21525,11 @@
       <c r="Q447" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R447" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>487</v>
       </c>
@@ -20225,8 +21566,11 @@
       <c r="Q448">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="449" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R448">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>488</v>
       </c>
@@ -20263,8 +21607,11 @@
       <c r="Q449" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R449" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>489</v>
       </c>
@@ -20301,8 +21648,11 @@
       <c r="Q450">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="451" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R450">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>490</v>
       </c>
@@ -20342,8 +21692,11 @@
       <c r="Q451" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R451" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>491</v>
       </c>
@@ -20380,8 +21733,11 @@
       <c r="Q452">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="453" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>494</v>
       </c>
@@ -20418,8 +21774,11 @@
       <c r="Q453" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R453" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>495</v>
       </c>
@@ -20456,8 +21815,11 @@
       <c r="Q454">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="455" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R454">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="455" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>496</v>
       </c>
@@ -20494,8 +21856,11 @@
       <c r="Q455" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R455" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>497</v>
       </c>
@@ -20532,8 +21897,11 @@
       <c r="Q456">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="457" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R456">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>498</v>
       </c>
@@ -20570,8 +21938,11 @@
       <c r="Q457" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R457" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>499</v>
       </c>
@@ -20608,8 +21979,11 @@
       <c r="Q458">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="459" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R458">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="459" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>500</v>
       </c>
@@ -20646,8 +22020,11 @@
       <c r="Q459" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R459" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>501</v>
       </c>
@@ -20684,8 +22061,11 @@
       <c r="Q460">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="461" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R460">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>502</v>
       </c>
@@ -20722,8 +22102,11 @@
       <c r="Q461" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R461" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>503</v>
       </c>
@@ -20760,8 +22143,11 @@
       <c r="Q462">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R462">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>504</v>
       </c>
@@ -20798,8 +22184,11 @@
       <c r="Q463" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R463" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>505</v>
       </c>
@@ -20836,8 +22225,11 @@
       <c r="Q464">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="465" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R464">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>506</v>
       </c>
@@ -20874,8 +22266,11 @@
       <c r="Q465" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="466" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R465" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>507</v>
       </c>
@@ -20912,8 +22307,11 @@
       <c r="Q466" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R466" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -20950,8 +22348,11 @@
       <c r="Q467">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="468" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R467">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>509</v>
       </c>
@@ -20988,8 +22389,11 @@
       <c r="Q468" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R468" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>510</v>
       </c>
@@ -21026,8 +22430,11 @@
       <c r="Q469">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="470" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R469">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>511</v>
       </c>
@@ -21064,8 +22471,11 @@
       <c r="Q470" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R470" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -21102,8 +22512,11 @@
       <c r="Q471">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="472" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R471">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>513</v>
       </c>
@@ -21140,8 +22553,11 @@
       <c r="Q472" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R472" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -21178,8 +22594,11 @@
       <c r="Q473">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="474" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>515</v>
       </c>
@@ -21219,8 +22638,11 @@
       <c r="Q474" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R474" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>517</v>
       </c>
@@ -21257,8 +22679,11 @@
       <c r="Q475">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="476" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R475">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>518</v>
       </c>
@@ -21295,8 +22720,11 @@
       <c r="Q476" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R476" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>519</v>
       </c>
@@ -21333,8 +22761,11 @@
       <c r="Q477">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="478" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R477">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>520</v>
       </c>
@@ -21371,8 +22802,11 @@
       <c r="Q478" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R478" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>521</v>
       </c>
@@ -21409,8 +22843,11 @@
       <c r="Q479">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="480" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R479">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>522</v>
       </c>
@@ -21447,8 +22884,11 @@
       <c r="Q480" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R480" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>523</v>
       </c>
@@ -21485,8 +22925,11 @@
       <c r="Q481">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="482" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R481">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>524</v>
       </c>
@@ -21523,8 +22966,11 @@
       <c r="Q482" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R482" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>525</v>
       </c>
@@ -21561,8 +23007,11 @@
       <c r="Q483">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="484" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R483">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>526</v>
       </c>
@@ -21599,8 +23048,11 @@
       <c r="Q484" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R484" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>527</v>
       </c>
@@ -21637,8 +23089,11 @@
       <c r="Q485">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="486" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R485">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>528</v>
       </c>
@@ -21675,8 +23130,11 @@
       <c r="Q486" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R486" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>529</v>
       </c>
@@ -21713,8 +23171,11 @@
       <c r="Q487">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="488" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>530</v>
       </c>
@@ -21751,8 +23212,11 @@
       <c r="Q488" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="489" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R488" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>531</v>
       </c>
@@ -21789,8 +23253,11 @@
       <c r="Q489" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R489" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>532</v>
       </c>
@@ -21827,8 +23294,11 @@
       <c r="Q490" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="491" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R490" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>533</v>
       </c>
@@ -21865,8 +23335,11 @@
       <c r="Q491" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R491" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>534</v>
       </c>
@@ -21903,8 +23376,11 @@
       <c r="Q492" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="493" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R492" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>535</v>
       </c>
@@ -21941,8 +23417,11 @@
       <c r="Q493" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R493" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>536</v>
       </c>
@@ -21979,8 +23458,11 @@
       <c r="Q494" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R494" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>537</v>
       </c>
@@ -22020,8 +23502,11 @@
       <c r="Q495" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R495" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -22058,8 +23543,11 @@
       <c r="Q496" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="497" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R496" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>540</v>
       </c>
@@ -22096,8 +23584,11 @@
       <c r="Q497" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R497" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -22134,8 +23625,11 @@
       <c r="Q498">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="499" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R498">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>542</v>
       </c>
@@ -22172,8 +23666,11 @@
       <c r="Q499" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R499" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -22210,8 +23707,11 @@
       <c r="Q500">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="501" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R500">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>544</v>
       </c>
@@ -22248,8 +23748,11 @@
       <c r="Q501" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R501" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -22286,8 +23789,11 @@
       <c r="Q502">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="503" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>546</v>
       </c>
@@ -22324,8 +23830,11 @@
       <c r="Q503" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R503" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -22362,8 +23871,11 @@
       <c r="Q504">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="505" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R504">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>548</v>
       </c>
@@ -22400,8 +23912,11 @@
       <c r="Q505" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R505" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -22438,8 +23953,11 @@
       <c r="Q506">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="507" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R506">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>550</v>
       </c>
@@ -22476,8 +23994,11 @@
       <c r="Q507" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R507" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -22514,8 +24035,11 @@
       <c r="Q508">
         <v>5</v>
       </c>
-    </row>
-    <row r="509" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R508">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>552</v>
       </c>
@@ -22552,8 +24076,11 @@
       <c r="Q509" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R509" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -22590,8 +24117,11 @@
       <c r="Q510">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="511" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R510">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>554</v>
       </c>
@@ -22628,8 +24158,11 @@
       <c r="Q511" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R511" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -22666,8 +24199,11 @@
       <c r="Q512">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="513" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R512">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>556</v>
       </c>
@@ -22704,8 +24240,11 @@
       <c r="Q513" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R513" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -22742,8 +24281,11 @@
       <c r="Q514">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="515" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R514">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>558</v>
       </c>
@@ -22778,10 +24320,13 @@
         <v>9.4</v>
       </c>
       <c r="Q515" s="1">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+        <v>14.5</v>
+      </c>
+      <c r="R515" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -22818,8 +24363,11 @@
       <c r="Q516">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="517" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R516">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>560</v>
       </c>
@@ -22859,8 +24407,11 @@
       <c r="Q517" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R517" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -22900,8 +24451,11 @@
       <c r="Q518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>562</v>
       </c>
@@ -22938,8 +24492,11 @@
       <c r="Q519" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R519" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -22976,8 +24533,11 @@
       <c r="Q520">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="521" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>564</v>
       </c>
@@ -23014,8 +24574,11 @@
       <c r="Q521" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R521" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -23052,8 +24615,11 @@
       <c r="Q522">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="523" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R522">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>566</v>
       </c>
@@ -23090,8 +24656,11 @@
       <c r="Q523" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R523" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -23128,8 +24697,11 @@
       <c r="Q524">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="525" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R524">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>568</v>
       </c>
@@ -23166,8 +24738,11 @@
       <c r="Q525" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R525" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -23204,8 +24779,11 @@
       <c r="Q526">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="527" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R526">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>570</v>
       </c>
@@ -23242,8 +24820,11 @@
       <c r="Q527" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R527" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -23280,8 +24861,11 @@
       <c r="Q528">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="529" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R528">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>572</v>
       </c>
@@ -23318,8 +24902,11 @@
       <c r="Q529" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R529" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -23356,8 +24943,11 @@
       <c r="Q530">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="531" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R530">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>574</v>
       </c>
@@ -23394,8 +24984,11 @@
       <c r="Q531" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R531" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -23435,8 +25028,11 @@
       <c r="Q532">
         <v>3</v>
       </c>
-    </row>
-    <row r="533" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R532">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>577</v>
       </c>
@@ -23473,8 +25069,11 @@
       <c r="Q533" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R533" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>578</v>
       </c>
@@ -23511,8 +25110,11 @@
       <c r="Q534">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="535" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R534">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="535" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>579</v>
       </c>
@@ -23549,8 +25151,11 @@
       <c r="Q535" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="536" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R535" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="536" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>580</v>
       </c>
@@ -23587,8 +25192,11 @@
       <c r="Q536" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R536" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>581</v>
       </c>
@@ -23625,8 +25233,11 @@
       <c r="Q537" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="538" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R537" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>582</v>
       </c>
@@ -23663,8 +25274,11 @@
       <c r="Q538" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R538" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>583</v>
       </c>
@@ -23701,8 +25315,11 @@
       <c r="Q539" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="540" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R539" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>584</v>
       </c>
@@ -23739,8 +25356,11 @@
       <c r="Q540" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R540" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -23777,8 +25397,11 @@
       <c r="Q541" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="542" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R541" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>586</v>
       </c>
@@ -23815,8 +25438,11 @@
       <c r="Q542" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R542" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>589</v>
       </c>
@@ -23853,8 +25479,11 @@
       <c r="Q543">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="544" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R543">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>590</v>
       </c>
@@ -23891,8 +25520,11 @@
       <c r="Q544" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R544" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>591</v>
       </c>
@@ -23929,8 +25561,11 @@
       <c r="Q545">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="546" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R545">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>592</v>
       </c>
@@ -23967,8 +25602,11 @@
       <c r="Q546" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R546" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>593</v>
       </c>
@@ -24005,8 +25643,11 @@
       <c r="Q547">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="548" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R547">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>594</v>
       </c>
@@ -24043,8 +25684,11 @@
       <c r="Q548" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R548" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>595</v>
       </c>
@@ -24081,8 +25725,11 @@
       <c r="Q549">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="550" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R549">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>596</v>
       </c>
@@ -24119,8 +25766,11 @@
       <c r="Q550" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R550" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>597</v>
       </c>
@@ -24157,8 +25807,11 @@
       <c r="Q551">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="552" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R551">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>598</v>
       </c>
@@ -24198,8 +25851,11 @@
       <c r="Q552" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>599</v>
       </c>
@@ -24236,8 +25892,11 @@
       <c r="Q553">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="554" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R553">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>600</v>
       </c>
@@ -24274,8 +25933,11 @@
       <c r="Q554" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R554" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>601</v>
       </c>
@@ -24312,8 +25974,11 @@
       <c r="Q555">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="556" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R555">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>602</v>
       </c>
@@ -24350,8 +26015,11 @@
       <c r="Q556" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R556" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>603</v>
       </c>
@@ -24391,8 +26059,11 @@
       <c r="Q557" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="558" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R557" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>604</v>
       </c>
@@ -24429,8 +26100,11 @@
       <c r="Q558" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="559" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R558" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>605</v>
       </c>
@@ -24467,8 +26141,11 @@
       <c r="Q559" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R559" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -24505,8 +26182,11 @@
       <c r="Q560" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="561" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R560" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>607</v>
       </c>
@@ -24543,8 +26223,11 @@
       <c r="Q561" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R561" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -24581,8 +26264,11 @@
       <c r="Q562" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="563" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R562" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>609</v>
       </c>
@@ -24619,8 +26305,11 @@
       <c r="Q563" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R563" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -24657,8 +26346,11 @@
       <c r="Q564" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="565" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R564" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>611</v>
       </c>
@@ -24695,8 +26387,11 @@
       <c r="Q565" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R565" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>612</v>
       </c>
@@ -24736,8 +26431,11 @@
       <c r="Q566" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="567" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R566" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>613</v>
       </c>
@@ -24774,8 +26472,11 @@
       <c r="Q567" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R567" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>614</v>
       </c>
@@ -24812,8 +26513,11 @@
       <c r="Q568" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="569" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R568" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>615</v>
       </c>
@@ -24850,8 +26554,11 @@
       <c r="Q569" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R569" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>616</v>
       </c>
@@ -24888,8 +26595,11 @@
       <c r="Q570" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="571" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R570" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>617</v>
       </c>
@@ -24926,8 +26636,11 @@
       <c r="Q571" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R571" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>618</v>
       </c>
@@ -24964,8 +26677,11 @@
       <c r="Q572">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="573" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R572">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>619</v>
       </c>
@@ -25002,8 +26718,11 @@
       <c r="Q573" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R573" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="574" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>620</v>
       </c>
@@ -25040,8 +26759,11 @@
       <c r="Q574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R574" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>621</v>
       </c>
@@ -25081,8 +26803,11 @@
       <c r="Q575" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R575" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>622</v>
       </c>
@@ -25122,8 +26847,11 @@
       <c r="Q576" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="577" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R576" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>623</v>
       </c>
@@ -25160,8 +26888,11 @@
       <c r="Q577" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R577" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>624</v>
       </c>
@@ -25198,8 +26929,11 @@
       <c r="Q578">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="579" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R578">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>625</v>
       </c>
@@ -25236,8 +26970,11 @@
       <c r="Q579" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R579" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>626</v>
       </c>
@@ -25274,8 +27011,11 @@
       <c r="Q580">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="581" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R580">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>627</v>
       </c>
@@ -25312,8 +27052,11 @@
       <c r="Q581" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R581" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>628</v>
       </c>
@@ -25350,8 +27093,11 @@
       <c r="Q582">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="583" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R582">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>629</v>
       </c>
@@ -25388,8 +27134,11 @@
       <c r="Q583" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R583" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>630</v>
       </c>
@@ -25426,8 +27175,11 @@
       <c r="Q584">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="585" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R584">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>631</v>
       </c>
@@ -25464,8 +27216,11 @@
       <c r="Q585" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R585" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>632</v>
       </c>
@@ -25502,8 +27257,11 @@
       <c r="Q586">
         <v>2</v>
       </c>
-    </row>
-    <row r="587" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R586">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>633</v>
       </c>
@@ -25540,8 +27298,11 @@
       <c r="Q587" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R587" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>634</v>
       </c>
@@ -25581,8 +27342,11 @@
       <c r="Q588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R588" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -25622,8 +27386,11 @@
       <c r="Q589" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>638</v>
       </c>
@@ -25660,8 +27427,11 @@
       <c r="Q590">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="591" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R590">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>639</v>
       </c>
@@ -25698,8 +27468,11 @@
       <c r="Q591" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R591" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>640</v>
       </c>
@@ -25736,8 +27509,11 @@
       <c r="Q592">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="593" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R592">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>641</v>
       </c>
@@ -25774,8 +27550,11 @@
       <c r="Q593" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R593" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -25812,8 +27591,11 @@
       <c r="Q594">
         <v>3</v>
       </c>
-    </row>
-    <row r="595" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R594">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="595" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>643</v>
       </c>
@@ -25850,8 +27632,11 @@
       <c r="Q595" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R595" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="596" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>644</v>
       </c>
@@ -25888,8 +27673,11 @@
       <c r="Q596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R596">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>645</v>
       </c>
@@ -25926,8 +27714,11 @@
       <c r="Q597" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R597" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>646</v>
       </c>
@@ -25964,8 +27755,11 @@
       <c r="Q598">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="599" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R598">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>647</v>
       </c>
@@ -26002,8 +27796,11 @@
       <c r="Q599" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R599" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>648</v>
       </c>
@@ -26040,8 +27837,11 @@
       <c r="Q600">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="601" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R600">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>649</v>
       </c>
@@ -26081,8 +27881,11 @@
       <c r="Q601" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R601" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>650</v>
       </c>
@@ -26119,8 +27922,11 @@
       <c r="Q602">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="603" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R602">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>651</v>
       </c>
@@ -26160,8 +27966,11 @@
       <c r="Q603" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>653</v>
       </c>
@@ -26201,8 +28010,11 @@
       <c r="Q604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>654</v>
       </c>
@@ -26239,8 +28051,11 @@
       <c r="Q605" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>655</v>
       </c>
@@ -26277,8 +28092,11 @@
       <c r="Q606" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R606" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>656</v>
       </c>
@@ -26318,8 +28136,11 @@
       <c r="Q607">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="608" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R607">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>657</v>
       </c>
@@ -26356,8 +28177,11 @@
       <c r="Q608" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R608" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>658</v>
       </c>
@@ -26397,8 +28221,11 @@
       <c r="Q609" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="610" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R609" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>659</v>
       </c>
@@ -26435,8 +28262,11 @@
       <c r="Q610" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R610" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>660</v>
       </c>
@@ -26473,8 +28303,11 @@
       <c r="Q611" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="612" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R611" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>661</v>
       </c>
@@ -26514,8 +28347,11 @@
       <c r="Q612" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>662</v>
       </c>
@@ -26552,8 +28388,11 @@
       <c r="Q613" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="614" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R613" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>663</v>
       </c>
@@ -26593,8 +28432,11 @@
       <c r="Q614" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R614" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>665</v>
       </c>
@@ -26631,8 +28473,11 @@
       <c r="Q615" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="616" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R615" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>666</v>
       </c>
@@ -26669,8 +28514,11 @@
       <c r="Q616" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R616" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -26707,8 +28555,11 @@
       <c r="Q617">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="618" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R617">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>668</v>
       </c>
@@ -26745,8 +28596,11 @@
       <c r="Q618" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R618" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>669</v>
       </c>
@@ -26783,8 +28637,11 @@
       <c r="Q619">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="620" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R619">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>670</v>
       </c>
@@ -26824,8 +28681,11 @@
       <c r="Q620" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R620" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>671</v>
       </c>
@@ -26862,8 +28722,11 @@
       <c r="Q621">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="622" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>672</v>
       </c>
@@ -26900,8 +28763,11 @@
       <c r="Q622" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R622" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>673</v>
       </c>
@@ -26938,8 +28804,11 @@
       <c r="Q623">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="624" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R623">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>674</v>
       </c>
@@ -26976,8 +28845,11 @@
       <c r="Q624" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R624" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>675</v>
       </c>
@@ -27014,8 +28886,11 @@
       <c r="Q625">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="626" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R625">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>676</v>
       </c>
@@ -27052,8 +28927,11 @@
       <c r="Q626" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R626" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="627" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>677</v>
       </c>
@@ -27090,8 +28968,11 @@
       <c r="Q627">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="628" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R627">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>678</v>
       </c>
@@ -27128,8 +29009,11 @@
       <c r="Q628" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R628" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>679</v>
       </c>
@@ -27166,8 +29050,11 @@
       <c r="Q629">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="630" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R629">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>680</v>
       </c>
@@ -27204,8 +29091,11 @@
       <c r="Q630" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R630" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="631" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>681</v>
       </c>
@@ -27241,6 +29131,9 @@
       </c>
       <c r="Q631">
         <v>1.5</v>
+      </c>
+      <c r="R631">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
